--- a/economics.xlsx
+++ b/economics.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\personal\games\workersandresources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\personal\games\workersandresources\workers-and-resources-insane-mode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374EFC7D-5146-4110-A199-A9510C896C5A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E46C84A-90FC-4D38-BF97-5EB8527402E8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{B5883943-4FA7-4C31-ABD9-F72C92AB45FA}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="90">
   <si>
     <t>Woodcutting post</t>
   </si>
@@ -271,9 +271,6 @@
     <t>Prefab factory</t>
   </si>
   <si>
-    <t>dw</t>
-  </si>
-  <si>
     <t>Paste values from "data.tsv" into cell A5.</t>
   </si>
   <si>
@@ -413,10 +410,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -4778,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="4">
-        <f>VLOOKUP($J5,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" ref="K5:K31" si="0">VLOOKUP($J5,$J$39:$Q$169,2,FALSE)</f>
         <v>1134</v>
       </c>
       <c r="L5" s="4">
@@ -4825,27 +4822,27 @@
         <v>47</v>
       </c>
       <c r="K6" s="4">
-        <f>VLOOKUP($J6,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1059.4000000000005</v>
       </c>
       <c r="L6" s="4">
-        <f t="shared" ref="L6:L32" si="0">VLOOKUP($J6,$J$39:$Q$169,3,FALSE)</f>
+        <f t="shared" ref="L6:L31" si="1">VLOOKUP($J6,$J$39:$Q$169,3,FALSE)</f>
         <v>207.41000000000003</v>
       </c>
       <c r="M6" s="4">
-        <f t="shared" ref="M6:M32" si="1">VLOOKUP($J6,$J$39:$Q$169,4,FALSE)</f>
+        <f t="shared" ref="M6:M31" si="2">VLOOKUP($J6,$J$39:$Q$169,4,FALSE)</f>
         <v>52.970000000000027</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" ref="N6:N32" si="2">VLOOKUP($J6,$J$39:$Q$169,5,FALSE)</f>
+        <f t="shared" ref="N6:N31" si="3">VLOOKUP($J6,$J$39:$Q$169,5,FALSE)</f>
         <v>0.25538787908008304</v>
       </c>
       <c r="P6" s="4">
-        <f t="shared" ref="P6:P32" si="3">VLOOKUP($J6,$J$39:$Q$169,7,FALSE)</f>
+        <f t="shared" ref="P6:P31" si="4">VLOOKUP($J6,$J$39:$Q$169,7,FALSE)</f>
         <v>21764</v>
       </c>
       <c r="Q6" s="7">
-        <f t="shared" ref="Q6:Q32" si="4">VLOOKUP($J6,$J$39:$Q$169,8,FALSE)</f>
+        <f t="shared" ref="Q6:Q31" si="5">VLOOKUP($J6,$J$39:$Q$169,8,FALSE)</f>
         <v>410.87407966773628</v>
       </c>
       <c r="X6" s="4"/>
@@ -4871,27 +4868,27 @@
         <v>50</v>
       </c>
       <c r="K7" s="4">
-        <f>VLOOKUP($J7,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>5000</v>
       </c>
       <c r="L7" s="4">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="M7" s="4">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
+      <c r="M7" s="4">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="N7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P7" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>85018</v>
       </c>
       <c r="Q7" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4250.8999999999996</v>
       </c>
       <c r="X7" s="4"/>
@@ -4918,27 +4915,27 @@
         <v>51</v>
       </c>
       <c r="K8" s="4">
-        <f>VLOOKUP($J8,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>-209.40000000000009</v>
       </c>
       <c r="L8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>226.94000000000003</v>
       </c>
       <c r="M8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-13.960000000000006</v>
       </c>
       <c r="N8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-6.1514056578831432E-2</v>
       </c>
       <c r="P8" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>146810</v>
       </c>
       <c r="Q8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-10516.475644699136</v>
       </c>
       <c r="X8" s="4"/>
@@ -4969,27 +4966,27 @@
         <v>53</v>
       </c>
       <c r="K9" s="4">
-        <f>VLOOKUP($J9,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>-7311.3499999999985</v>
       </c>
       <c r="L9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>91.583199999999991</v>
       </c>
       <c r="M9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-14.622699999999996</v>
       </c>
       <c r="N9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.15966574655613691</v>
       </c>
       <c r="P9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>257030</v>
       </c>
       <c r="Q9" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-17577.465174010274</v>
       </c>
       <c r="X9" s="4"/>
@@ -5017,27 +5014,27 @@
         <v>54</v>
       </c>
       <c r="K10" s="4">
-        <f>VLOOKUP($J10,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>9350.8799999999992</v>
       </c>
       <c r="L10" s="4">
-        <f t="shared" si="0"/>
-        <v>42.503999999999998</v>
-      </c>
-      <c r="M10" s="4">
         <f t="shared" si="1"/>
         <v>42.503999999999998</v>
       </c>
+      <c r="M10" s="4">
+        <f t="shared" si="2"/>
+        <v>42.503999999999998</v>
+      </c>
       <c r="N10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>84568</v>
       </c>
       <c r="Q10" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1989.6480331262942</v>
       </c>
       <c r="X10" s="4"/>
@@ -5064,27 +5061,27 @@
         <v>55</v>
       </c>
       <c r="K11" s="4">
-        <f>VLOOKUP($J11,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>6971.7000000000007</v>
       </c>
       <c r="L11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>768.72</v>
       </c>
       <c r="M11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>464.78000000000003</v>
       </c>
       <c r="N11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.60461546466853988</v>
       </c>
       <c r="P11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>146810</v>
       </c>
       <c r="Q11" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>315.86987391884327</v>
       </c>
     </row>
@@ -5109,27 +5106,27 @@
         <v>57</v>
       </c>
       <c r="K12" s="4">
-        <f>VLOOKUP($J12,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>-316.26000000000022</v>
       </c>
       <c r="L12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47.144399999999997</v>
       </c>
       <c r="M12" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.2168000000000028</v>
       </c>
       <c r="N12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-8.9444345457785082E-2</v>
       </c>
       <c r="P12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>56668</v>
       </c>
       <c r="Q12" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-13438.626446594564</v>
       </c>
     </row>
@@ -5154,27 +5151,27 @@
         <v>58</v>
       </c>
       <c r="K13" s="4">
-        <f>VLOOKUP($J13,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>3792.48</v>
       </c>
       <c r="L13" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>329.7</v>
       </c>
       <c r="M13" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>189.624</v>
       </c>
       <c r="N13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.57514103730664246</v>
       </c>
       <c r="P13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>252962</v>
       </c>
       <c r="Q13" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1334.0189005611103</v>
       </c>
     </row>
@@ -5200,27 +5197,27 @@
         <v>59</v>
       </c>
       <c r="K14" s="4">
-        <f>VLOOKUP($J14,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>63.000000000000028</v>
       </c>
       <c r="L14" s="4">
-        <f t="shared" si="0"/>
-        <v>1.5750000000000006</v>
-      </c>
-      <c r="M14" s="4">
         <f t="shared" si="1"/>
         <v>1.5750000000000006</v>
       </c>
+      <c r="M14" s="4">
+        <f t="shared" si="2"/>
+        <v>1.5750000000000006</v>
+      </c>
       <c r="N14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P14" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1641</v>
       </c>
       <c r="Q14" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1041.9047619047615</v>
       </c>
     </row>
@@ -5247,27 +5244,27 @@
         <v>60</v>
       </c>
       <c r="K15" s="4">
-        <f>VLOOKUP($J15,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>-921.57999999999981</v>
       </c>
       <c r="L15" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35.041333333333334</v>
       </c>
       <c r="M15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-61.438666666666656</v>
       </c>
       <c r="N15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.7533198888931163</v>
       </c>
       <c r="P15" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36782</v>
       </c>
       <c r="Q15" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-598.67835673517231</v>
       </c>
     </row>
@@ -5296,27 +5293,27 @@
         <v>61</v>
       </c>
       <c r="K16" s="4">
-        <f>VLOOKUP($J16,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>-687.29999999999927</v>
       </c>
       <c r="L16" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>187.00200000000001</v>
       </c>
       <c r="M16" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-22.909999999999975</v>
       </c>
       <c r="N16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.12251205869455928</v>
       </c>
       <c r="P16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>203603</v>
       </c>
       <c r="Q16" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-8887.0798777826385</v>
       </c>
     </row>
@@ -5345,27 +5342,27 @@
         <v>62</v>
       </c>
       <c r="K17" s="4">
-        <f>VLOOKUP($J17,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>-3055.3999999999996</v>
       </c>
       <c r="L17" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>399.35</v>
       </c>
       <c r="M17" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-611.07999999999993</v>
       </c>
       <c r="N17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.5301865531488668</v>
       </c>
       <c r="P17" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34720</v>
       </c>
       <c r="Q17" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-56.817437978660735</v>
       </c>
     </row>
@@ -5390,27 +5387,27 @@
         <v>63</v>
       </c>
       <c r="K18" s="4">
-        <f>VLOOKUP($J18,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>329.86</v>
       </c>
       <c r="L18" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>350.14000000000004</v>
       </c>
       <c r="M18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>329.86</v>
       </c>
       <c r="N18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.94208031073284959</v>
       </c>
       <c r="P18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6069</v>
       </c>
       <c r="Q18" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18.398714606196567</v>
       </c>
     </row>
@@ -5439,27 +5436,27 @@
         <v>64</v>
       </c>
       <c r="K19" s="4">
-        <f>VLOOKUP($J19,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>21259.1</v>
       </c>
       <c r="L19" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>75.548000000000002</v>
       </c>
       <c r="M19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42.5182</v>
       </c>
       <c r="N19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.56279716206914809</v>
       </c>
       <c r="P19" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>296868</v>
       </c>
       <c r="Q19" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6982.139413239508</v>
       </c>
     </row>
@@ -5488,27 +5485,27 @@
         <v>39</v>
       </c>
       <c r="K20" s="4">
-        <f>VLOOKUP($J20,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>-2581.1500000000005</v>
       </c>
       <c r="L20" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>990.06000000000006</v>
       </c>
       <c r="M20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-516.23000000000013</v>
       </c>
       <c r="N20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.52141284366604057</v>
       </c>
       <c r="P20" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>38940</v>
       </c>
       <c r="Q20" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-75.431493714042176</v>
       </c>
     </row>
@@ -5533,27 +5530,27 @@
         <v>65</v>
       </c>
       <c r="K21" s="4">
-        <f>VLOOKUP($J21,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>7857.5</v>
       </c>
       <c r="L21" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>161.74</v>
       </c>
       <c r="M21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>157.15</v>
       </c>
       <c r="N21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.97162112031655745</v>
       </c>
       <c r="P21" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>47934</v>
       </c>
       <c r="Q21" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>305.02068087814189</v>
       </c>
     </row>
@@ -5578,27 +5575,27 @@
         <v>66</v>
       </c>
       <c r="K22" s="4">
-        <f>VLOOKUP($J22,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>-156076.25</v>
       </c>
       <c r="L22" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5869.3249999999998</v>
       </c>
       <c r="M22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3121.5250000000001</v>
       </c>
       <c r="N22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.5318371362976152</v>
       </c>
       <c r="P22" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35621</v>
       </c>
       <c r="Q22" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-11.411409487349932</v>
       </c>
     </row>
@@ -5623,27 +5620,27 @@
         <v>8</v>
       </c>
       <c r="K23" s="4">
-        <f>VLOOKUP($J23,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1300.6999999999998</v>
       </c>
       <c r="L23" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.321176470588235</v>
       </c>
       <c r="M23" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.6511764705882346</v>
       </c>
       <c r="N23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.57436191821955307</v>
       </c>
       <c r="P23" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>71504</v>
       </c>
       <c r="Q23" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9345.4908895210283</v>
       </c>
     </row>
@@ -5670,27 +5667,27 @@
         <v>67</v>
       </c>
       <c r="K24" s="4">
-        <f>VLOOKUP($J24,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>674.83999999999992</v>
       </c>
       <c r="L24" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.1534</v>
       </c>
       <c r="M24" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.7483999999999993</v>
       </c>
       <c r="N24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.47680416013113452</v>
       </c>
       <c r="P24" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37951</v>
       </c>
       <c r="Q24" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5623.7033963606191</v>
       </c>
     </row>
@@ -5719,27 +5716,27 @@
         <v>69</v>
       </c>
       <c r="K25" s="4">
-        <f>VLOOKUP($J25,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>948.32500000000005</v>
       </c>
       <c r="L25" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20.630399999999998</v>
       </c>
       <c r="M25" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.9665</v>
       </c>
       <c r="N25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.91934717698154189</v>
       </c>
       <c r="P25" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q25" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5768,27 +5765,27 @@
         <v>70</v>
       </c>
       <c r="K26" s="4">
-        <f>VLOOKUP($J26,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>-12015.849999999997</v>
       </c>
       <c r="L26" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>132.624</v>
       </c>
       <c r="M26" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-120.15849999999996</v>
       </c>
       <c r="N26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.90600871637109404</v>
       </c>
       <c r="P26" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33226</v>
       </c>
       <c r="Q26" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-276.51809901088984</v>
       </c>
     </row>
@@ -5817,27 +5814,27 @@
         <v>32</v>
       </c>
       <c r="K27" s="4">
-        <f>VLOOKUP($J27,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>25.085000000000036</v>
       </c>
       <c r="L27" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.814499999999999</v>
       </c>
       <c r="M27" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.25085000000000035</v>
       </c>
       <c r="N27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4918671384816697E-2</v>
       </c>
       <c r="P27" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35900</v>
       </c>
       <c r="Q27" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>143113.41439107017</v>
       </c>
     </row>
@@ -5862,27 +5859,27 @@
         <v>71</v>
       </c>
       <c r="K28" s="4">
-        <f>VLOOKUP($J28,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>-1108.3899999999994</v>
       </c>
       <c r="L28" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>179.73099999999999</v>
       </c>
       <c r="M28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-7.3892666666666624</v>
       </c>
       <c r="N28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-4.1112922460046754E-2</v>
       </c>
       <c r="P28" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q28" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5911,27 +5908,27 @@
         <v>72</v>
       </c>
       <c r="K29" s="4">
-        <f>VLOOKUP($J29,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>248.00000000000091</v>
       </c>
       <c r="L29" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42.614973333333332</v>
       </c>
       <c r="M29" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6533333333333393</v>
       </c>
       <c r="N29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.8797004996366048E-2</v>
       </c>
       <c r="P29" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q29" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5956,27 +5953,27 @@
         <v>73</v>
       </c>
       <c r="K30" s="4">
-        <f>VLOOKUP($J30,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>824.5559999999997</v>
       </c>
       <c r="L30" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.773549999999997</v>
       </c>
       <c r="M30" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.306949999999997</v>
       </c>
       <c r="N30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.47337021294184906</v>
       </c>
       <c r="P30" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>49231</v>
       </c>
       <c r="Q30" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4776.4857693110007</v>
       </c>
     </row>
@@ -6005,27 +6002,27 @@
         <v>74</v>
       </c>
       <c r="K31" s="4">
-        <f>VLOOKUP($J31,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>349.26700000000164</v>
       </c>
       <c r="L31" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56.14200000000001</v>
       </c>
       <c r="M31" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3284466666666774</v>
       </c>
       <c r="N31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.1474237944260577E-2</v>
       </c>
       <c r="P31" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q31" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6250,11 +6247,11 @@
         <v>17</v>
       </c>
       <c r="T38" s="4">
-        <f t="shared" ref="T38:T65" si="5">X38-$T$33</f>
+        <f t="shared" ref="T38:T65" si="6">X38-$T$33</f>
         <v>0.45000000000000018</v>
       </c>
       <c r="U38" s="4">
-        <f t="shared" ref="U38:U65" si="6">Y38+$T$33</f>
+        <f t="shared" ref="U38:U65" si="7">Y38+$T$33</f>
         <v>11.02</v>
       </c>
       <c r="W38" t="s">
@@ -6325,11 +6322,11 @@
         <v>18</v>
       </c>
       <c r="T39" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.25</v>
       </c>
       <c r="U39" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22.95</v>
       </c>
       <c r="W39" t="s">
@@ -6347,11 +6344,11 @@
         <v>19</v>
       </c>
       <c r="T40" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1144.79</v>
       </c>
       <c r="U40" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1275.82</v>
       </c>
       <c r="W40" t="s">
@@ -6396,11 +6393,11 @@
         <v>20</v>
       </c>
       <c r="T41" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>23.96</v>
       </c>
       <c r="U41" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>37.01</v>
       </c>
       <c r="W41" t="s">
@@ -6427,11 +6424,11 @@
         <v>21</v>
       </c>
       <c r="T42" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>69.33</v>
       </c>
       <c r="U42" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>87.16</v>
       </c>
       <c r="W42" t="s">
@@ -6472,11 +6469,11 @@
         <v>22</v>
       </c>
       <c r="T43" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="U43" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>17.16</v>
       </c>
       <c r="W43" t="s">
@@ -6547,11 +6544,11 @@
         <v>23</v>
       </c>
       <c r="T44" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>50.02</v>
       </c>
       <c r="U44" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>65.81</v>
       </c>
       <c r="W44" t="s">
@@ -6569,11 +6566,11 @@
         <v>24</v>
       </c>
       <c r="T45" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2063.04</v>
       </c>
       <c r="U45" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2290.73</v>
       </c>
       <c r="W45" t="s">
@@ -6618,11 +6615,11 @@
         <v>25</v>
       </c>
       <c r="T46" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>96.09</v>
       </c>
       <c r="U46" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>116.73</v>
       </c>
       <c r="W46" t="s">
@@ -6646,11 +6643,11 @@
         <v>26</v>
       </c>
       <c r="T47" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10.119999999999999</v>
       </c>
       <c r="U47" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21.71</v>
       </c>
       <c r="W47" t="s">
@@ -6691,11 +6688,11 @@
         <v>27</v>
       </c>
       <c r="T48" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>32.42</v>
       </c>
       <c r="U48" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>46.36</v>
       </c>
       <c r="W48" t="s">
@@ -6766,11 +6763,11 @@
         <v>28</v>
       </c>
       <c r="T49" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="U49" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16.060000000000002</v>
       </c>
       <c r="W49" t="s">
@@ -6788,11 +6785,11 @@
         <v>29</v>
       </c>
       <c r="T50" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>228.07</v>
       </c>
       <c r="U50" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>262.61</v>
       </c>
       <c r="W50" t="s">
@@ -6837,11 +6834,11 @@
         <v>30</v>
       </c>
       <c r="T51" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>29.630000000000003</v>
       </c>
       <c r="U51" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43.28</v>
       </c>
       <c r="W51" t="s">
@@ -6868,11 +6865,11 @@
         <v>31</v>
       </c>
       <c r="T52" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>165.35</v>
       </c>
       <c r="U52" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>193.28</v>
       </c>
       <c r="W52" t="s">
@@ -6913,11 +6910,11 @@
         <v>32</v>
       </c>
       <c r="T53" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>336.29</v>
       </c>
       <c r="U53" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>382.22</v>
       </c>
       <c r="W53" t="s">
@@ -6988,11 +6985,11 @@
         <v>33</v>
       </c>
       <c r="T54" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>235.89</v>
       </c>
       <c r="U54" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>271.25</v>
       </c>
       <c r="W54" t="s">
@@ -7010,11 +7007,11 @@
         <v>34</v>
       </c>
       <c r="T55" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>69.260000000000005</v>
       </c>
       <c r="U55" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>87.08</v>
       </c>
       <c r="W55" t="s">
@@ -7059,11 +7056,11 @@
         <v>35</v>
       </c>
       <c r="T56" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>113.23</v>
       </c>
       <c r="U56" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>135.68</v>
       </c>
       <c r="W56" t="s">
@@ -7096,11 +7093,11 @@
         <v>36</v>
       </c>
       <c r="T57" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1451.57</v>
       </c>
       <c r="U57" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1614.89</v>
       </c>
       <c r="W57" t="s">
@@ -7141,11 +7138,11 @@
         <v>37</v>
       </c>
       <c r="T58" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2347.73</v>
       </c>
       <c r="U58" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2605.38</v>
       </c>
       <c r="W58" t="s">
@@ -7216,11 +7213,11 @@
         <v>38</v>
       </c>
       <c r="T59" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1617.4</v>
       </c>
       <c r="U59" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1798.17</v>
       </c>
       <c r="W59" t="s">
@@ -7238,11 +7235,11 @@
         <v>39</v>
       </c>
       <c r="T60" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>34.14</v>
       </c>
       <c r="U60" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>48.26</v>
       </c>
       <c r="W60" t="s">
@@ -7287,11 +7284,11 @@
         <v>40</v>
       </c>
       <c r="T61" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.41</v>
       </c>
       <c r="U61" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>23.14</v>
       </c>
       <c r="W61" t="s">
@@ -7315,11 +7312,11 @@
         <v>41</v>
       </c>
       <c r="T62" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1682.17</v>
       </c>
       <c r="U62" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1869.77</v>
       </c>
       <c r="W62" t="s">
@@ -7360,11 +7357,11 @@
         <v>42</v>
       </c>
       <c r="T63" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1797.31</v>
       </c>
       <c r="U63" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1997.02</v>
       </c>
       <c r="W63" t="s">
@@ -7435,11 +7432,11 @@
         <v>43</v>
       </c>
       <c r="T64" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>884.16</v>
       </c>
       <c r="U64" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>987.76</v>
       </c>
       <c r="W64" t="s">
@@ -7457,11 +7454,11 @@
         <v>44</v>
       </c>
       <c r="T65" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1871.4</v>
       </c>
       <c r="U65" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2078.92</v>
       </c>
       <c r="W65" t="s">
@@ -9014,11 +9011,11 @@
         <v>963.9</v>
       </c>
       <c r="D129" s="6">
-        <f t="shared" ref="D129:E129" si="7">D128*D126</f>
+        <f t="shared" ref="D129:E129" si="8">D128*D126</f>
         <v>0</v>
       </c>
       <c r="E129" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F129" s="1"/>
@@ -10462,7 +10459,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="4">
-        <f>VLOOKUP($J5,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" ref="K5:K31" si="0">VLOOKUP($J5,$J$39:$Q$169,2,FALSE)</f>
         <v>1134</v>
       </c>
       <c r="L5" s="4">
@@ -10509,27 +10506,27 @@
         <v>47</v>
       </c>
       <c r="K6" s="4">
-        <f>VLOOKUP($J6,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1059.4000000000005</v>
       </c>
       <c r="L6" s="4">
-        <f t="shared" ref="L6:L32" si="0">VLOOKUP($J6,$J$39:$Q$169,3,FALSE)</f>
+        <f t="shared" ref="L6:L31" si="1">VLOOKUP($J6,$J$39:$Q$169,3,FALSE)</f>
         <v>207.41000000000003</v>
       </c>
       <c r="M6" s="4">
-        <f t="shared" ref="M6:M32" si="1">VLOOKUP($J6,$J$39:$Q$169,4,FALSE)</f>
+        <f t="shared" ref="M6:M31" si="2">VLOOKUP($J6,$J$39:$Q$169,4,FALSE)</f>
         <v>52.970000000000027</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" ref="N6:N32" si="2">VLOOKUP($J6,$J$39:$Q$169,5,FALSE)</f>
+        <f t="shared" ref="N6:N31" si="3">VLOOKUP($J6,$J$39:$Q$169,5,FALSE)</f>
         <v>0.25538787908008304</v>
       </c>
       <c r="P6" s="4">
-        <f t="shared" ref="P6:P32" si="3">VLOOKUP($J6,$J$39:$Q$169,7,FALSE)</f>
+        <f t="shared" ref="P6:P31" si="4">VLOOKUP($J6,$J$39:$Q$169,7,FALSE)</f>
         <v>21764</v>
       </c>
       <c r="Q6" s="7">
-        <f t="shared" ref="Q6:Q32" si="4">VLOOKUP($J6,$J$39:$Q$169,8,FALSE)</f>
+        <f t="shared" ref="Q6:Q31" si="5">VLOOKUP($J6,$J$39:$Q$169,8,FALSE)</f>
         <v>410.87407966773628</v>
       </c>
       <c r="X6" s="4"/>
@@ -10555,27 +10552,27 @@
         <v>50</v>
       </c>
       <c r="K7" s="4">
-        <f>VLOOKUP($J7,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>5000</v>
       </c>
       <c r="L7" s="4">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="M7" s="4">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
+      <c r="M7" s="4">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="N7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P7" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>85018</v>
       </c>
       <c r="Q7" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4250.8999999999996</v>
       </c>
       <c r="X7" s="4"/>
@@ -10602,27 +10599,27 @@
         <v>51</v>
       </c>
       <c r="K8" s="4">
-        <f>VLOOKUP($J8,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>-209.40000000000009</v>
       </c>
       <c r="L8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>226.94000000000003</v>
       </c>
       <c r="M8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-13.960000000000006</v>
       </c>
       <c r="N8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-6.1514056578831432E-2</v>
       </c>
       <c r="P8" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>146810</v>
       </c>
       <c r="Q8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-10516.475644699136</v>
       </c>
       <c r="X8" s="4"/>
@@ -10653,27 +10650,27 @@
         <v>53</v>
       </c>
       <c r="K9" s="4">
-        <f>VLOOKUP($J9,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>-7311.3499999999985</v>
       </c>
       <c r="L9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>91.583199999999991</v>
       </c>
       <c r="M9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-14.622699999999996</v>
       </c>
       <c r="N9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.15966574655613691</v>
       </c>
       <c r="P9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>257030</v>
       </c>
       <c r="Q9" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-17577.465174010274</v>
       </c>
       <c r="X9" s="4"/>
@@ -10701,27 +10698,27 @@
         <v>54</v>
       </c>
       <c r="K10" s="4">
-        <f>VLOOKUP($J10,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>9350.8799999999992</v>
       </c>
       <c r="L10" s="4">
-        <f t="shared" si="0"/>
-        <v>42.503999999999998</v>
-      </c>
-      <c r="M10" s="4">
         <f t="shared" si="1"/>
         <v>42.503999999999998</v>
       </c>
+      <c r="M10" s="4">
+        <f t="shared" si="2"/>
+        <v>42.503999999999998</v>
+      </c>
       <c r="N10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>84568</v>
       </c>
       <c r="Q10" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1989.6480331262942</v>
       </c>
       <c r="X10" s="4"/>
@@ -10748,27 +10745,27 @@
         <v>55</v>
       </c>
       <c r="K11" s="4">
-        <f>VLOOKUP($J11,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>2647.6499999999996</v>
       </c>
       <c r="L11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>240.22499999999999</v>
       </c>
       <c r="M11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>88.254999999999981</v>
       </c>
       <c r="N11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.36738474346966382</v>
       </c>
       <c r="P11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>146810</v>
       </c>
       <c r="Q11" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1663.4751572148889</v>
       </c>
     </row>
@@ -10793,27 +10790,27 @@
         <v>57</v>
       </c>
       <c r="K12" s="4">
-        <f>VLOOKUP($J12,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>-316.26000000000022</v>
       </c>
       <c r="L12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47.144399999999997</v>
       </c>
       <c r="M12" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.2168000000000028</v>
       </c>
       <c r="N12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-8.9444345457785082E-2</v>
       </c>
       <c r="P12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>56668</v>
       </c>
       <c r="Q12" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-13438.626446594564</v>
       </c>
     </row>
@@ -10838,27 +10835,27 @@
         <v>58</v>
       </c>
       <c r="K13" s="4">
-        <f>VLOOKUP($J13,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1908.48</v>
       </c>
       <c r="L13" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>117.75</v>
       </c>
       <c r="M13" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47.712000000000003</v>
       </c>
       <c r="N13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.40519745222929937</v>
       </c>
       <c r="P13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>252962</v>
       </c>
       <c r="Q13" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5301.8527833668677</v>
       </c>
     </row>
@@ -10884,27 +10881,27 @@
         <v>59</v>
       </c>
       <c r="K14" s="4">
-        <f>VLOOKUP($J14,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>63.000000000000028</v>
       </c>
       <c r="L14" s="4">
-        <f t="shared" si="0"/>
-        <v>1.5750000000000006</v>
-      </c>
-      <c r="M14" s="4">
         <f t="shared" si="1"/>
         <v>1.5750000000000006</v>
       </c>
+      <c r="M14" s="4">
+        <f t="shared" si="2"/>
+        <v>1.5750000000000006</v>
+      </c>
       <c r="N14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P14" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1641</v>
       </c>
       <c r="Q14" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1041.9047619047615</v>
       </c>
     </row>
@@ -10931,27 +10928,27 @@
         <v>60</v>
       </c>
       <c r="K15" s="4">
-        <f>VLOOKUP($J15,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>-921.57999999999981</v>
       </c>
       <c r="L15" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35.041333333333334</v>
       </c>
       <c r="M15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-61.438666666666656</v>
       </c>
       <c r="N15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.7533198888931163</v>
       </c>
       <c r="P15" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36782</v>
       </c>
       <c r="Q15" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-598.67835673517231</v>
       </c>
     </row>
@@ -10980,27 +10977,27 @@
         <v>61</v>
       </c>
       <c r="K16" s="4">
-        <f>VLOOKUP($J16,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>-687.29999999999927</v>
       </c>
       <c r="L16" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>187.00200000000001</v>
       </c>
       <c r="M16" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-22.909999999999975</v>
       </c>
       <c r="N16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.12251205869455928</v>
       </c>
       <c r="P16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>203603</v>
       </c>
       <c r="Q16" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-8887.0798777826385</v>
       </c>
     </row>
@@ -11029,27 +11026,27 @@
         <v>62</v>
       </c>
       <c r="K17" s="4">
-        <f>VLOOKUP($J17,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>-3055.3999999999996</v>
       </c>
       <c r="L17" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>399.35</v>
       </c>
       <c r="M17" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-611.07999999999993</v>
       </c>
       <c r="N17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.5301865531488668</v>
       </c>
       <c r="P17" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34720</v>
       </c>
       <c r="Q17" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-56.817437978660735</v>
       </c>
     </row>
@@ -11074,27 +11071,27 @@
         <v>63</v>
       </c>
       <c r="K18" s="4">
-        <f>VLOOKUP($J18,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>154.79000000000002</v>
       </c>
       <c r="L18" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>175.07000000000002</v>
       </c>
       <c r="M18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>154.79000000000002</v>
       </c>
       <c r="N18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.8841606214656994</v>
       </c>
       <c r="P18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6069</v>
       </c>
       <c r="Q18" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>39.207959170489048</v>
       </c>
     </row>
@@ -11123,27 +11120,27 @@
         <v>64</v>
       </c>
       <c r="K19" s="4">
-        <f>VLOOKUP($J19,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>13704.299999999996</v>
       </c>
       <c r="L19" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60.438399999999994</v>
       </c>
       <c r="M19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27.408599999999993</v>
       </c>
       <c r="N19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.45349645258643501</v>
       </c>
       <c r="P19" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>296868</v>
       </c>
       <c r="Q19" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10831.198966747668</v>
       </c>
     </row>
@@ -11172,27 +11169,27 @@
         <v>39</v>
       </c>
       <c r="K20" s="4">
-        <f>VLOOKUP($J20,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>-2581.1500000000005</v>
       </c>
       <c r="L20" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>990.06000000000006</v>
       </c>
       <c r="M20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-516.23000000000013</v>
       </c>
       <c r="N20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.52141284366604057</v>
       </c>
       <c r="P20" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>38940</v>
       </c>
       <c r="Q20" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-75.431493714042176</v>
       </c>
     </row>
@@ -11217,27 +11214,27 @@
         <v>65</v>
       </c>
       <c r="K21" s="4">
-        <f>VLOOKUP($J21,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>4622.7000000000007</v>
       </c>
       <c r="L21" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>97.044000000000011</v>
       </c>
       <c r="M21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>92.454000000000008</v>
       </c>
       <c r="N21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.95270186719426242</v>
       </c>
       <c r="P21" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>47934</v>
       </c>
       <c r="Q21" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>518.46323577130238</v>
       </c>
     </row>
@@ -11262,27 +11259,27 @@
         <v>66</v>
       </c>
       <c r="K22" s="4">
-        <f>VLOOKUP($J22,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>-156076.25</v>
       </c>
       <c r="L22" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5869.3249999999998</v>
       </c>
       <c r="M22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3121.5250000000001</v>
       </c>
       <c r="N22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.5318371362976152</v>
       </c>
       <c r="P22" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35621</v>
       </c>
       <c r="Q22" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-11.411409487349932</v>
       </c>
     </row>
@@ -11307,27 +11304,27 @@
         <v>8</v>
       </c>
       <c r="K23" s="4">
-        <f>VLOOKUP($J23,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1300.6999999999998</v>
       </c>
       <c r="L23" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.321176470588235</v>
       </c>
       <c r="M23" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.6511764705882346</v>
       </c>
       <c r="N23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.57436191821955307</v>
       </c>
       <c r="P23" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>71504</v>
       </c>
       <c r="Q23" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9345.4908895210283</v>
       </c>
     </row>
@@ -11354,27 +11351,27 @@
         <v>67</v>
       </c>
       <c r="K24" s="4">
-        <f>VLOOKUP($J24,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>674.83999999999992</v>
       </c>
       <c r="L24" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.1534</v>
       </c>
       <c r="M24" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.7483999999999993</v>
       </c>
       <c r="N24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.47680416013113452</v>
       </c>
       <c r="P24" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37951</v>
       </c>
       <c r="Q24" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5623.7033963606191</v>
       </c>
     </row>
@@ -11403,27 +11400,27 @@
         <v>69</v>
       </c>
       <c r="K25" s="4">
-        <f>VLOOKUP($J25,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>948.32500000000005</v>
       </c>
       <c r="L25" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20.630399999999998</v>
       </c>
       <c r="M25" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.9665</v>
       </c>
       <c r="N25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.91934717698154189</v>
       </c>
       <c r="P25" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q25" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11452,27 +11449,27 @@
         <v>70</v>
       </c>
       <c r="K26" s="4">
-        <f>VLOOKUP($J26,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>-12015.849999999997</v>
       </c>
       <c r="L26" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>132.624</v>
       </c>
       <c r="M26" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-120.15849999999996</v>
       </c>
       <c r="N26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.90600871637109404</v>
       </c>
       <c r="P26" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33226</v>
       </c>
       <c r="Q26" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-276.51809901088984</v>
       </c>
     </row>
@@ -11501,27 +11498,27 @@
         <v>32</v>
       </c>
       <c r="K27" s="4">
-        <f>VLOOKUP($J27,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>25.085000000000036</v>
       </c>
       <c r="L27" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.814499999999999</v>
       </c>
       <c r="M27" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.25085000000000035</v>
       </c>
       <c r="N27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4918671384816697E-2</v>
       </c>
       <c r="P27" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35900</v>
       </c>
       <c r="Q27" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>143113.41439107017</v>
       </c>
     </row>
@@ -11546,27 +11543,27 @@
         <v>71</v>
       </c>
       <c r="K28" s="4">
-        <f>VLOOKUP($J28,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>-1108.3899999999994</v>
       </c>
       <c r="L28" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>179.73099999999999</v>
       </c>
       <c r="M28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-7.3892666666666624</v>
       </c>
       <c r="N28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-4.1112922460046754E-2</v>
       </c>
       <c r="P28" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q28" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11595,27 +11592,27 @@
         <v>72</v>
       </c>
       <c r="K29" s="4">
-        <f>VLOOKUP($J29,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>248.00000000000091</v>
       </c>
       <c r="L29" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42.614973333333332</v>
       </c>
       <c r="M29" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6533333333333393</v>
       </c>
       <c r="N29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.8797004996366048E-2</v>
       </c>
       <c r="P29" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q29" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11640,27 +11637,27 @@
         <v>73</v>
       </c>
       <c r="K30" s="4">
-        <f>VLOOKUP($J30,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>243.928</v>
       </c>
       <c r="L30" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.515700000000001</v>
       </c>
       <c r="M30" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0491000000000001</v>
       </c>
       <c r="N30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.21005531941277375</v>
       </c>
       <c r="P30" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>49231</v>
       </c>
       <c r="Q30" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16146.075891246599</v>
       </c>
     </row>
@@ -11689,27 +11686,27 @@
         <v>74</v>
       </c>
       <c r="K31" s="4">
-        <f>VLOOKUP($J31,$J$39:$Q$169,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>349.26700000000164</v>
       </c>
       <c r="L31" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56.14200000000001</v>
       </c>
       <c r="M31" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3284466666666774</v>
       </c>
       <c r="N31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.1474237944260577E-2</v>
       </c>
       <c r="P31" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q31" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11934,11 +11931,11 @@
         <v>17</v>
       </c>
       <c r="T38" s="4">
-        <f t="shared" ref="T38:T65" si="5">X38-$T$33</f>
+        <f t="shared" ref="T38:T65" si="6">X38-$T$33</f>
         <v>0.45000000000000018</v>
       </c>
       <c r="U38" s="4">
-        <f t="shared" ref="U38:U65" si="6">Y38+$T$33</f>
+        <f t="shared" ref="U38:U65" si="7">Y38+$T$33</f>
         <v>11.02</v>
       </c>
       <c r="W38" t="s">
@@ -12009,11 +12006,11 @@
         <v>18</v>
       </c>
       <c r="T39" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.25</v>
       </c>
       <c r="U39" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22.95</v>
       </c>
       <c r="W39" t="s">
@@ -12031,11 +12028,11 @@
         <v>19</v>
       </c>
       <c r="T40" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1144.79</v>
       </c>
       <c r="U40" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1275.82</v>
       </c>
       <c r="W40" t="s">
@@ -12080,11 +12077,11 @@
         <v>20</v>
       </c>
       <c r="T41" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>23.96</v>
       </c>
       <c r="U41" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>37.01</v>
       </c>
       <c r="W41" t="s">
@@ -12111,11 +12108,11 @@
         <v>21</v>
       </c>
       <c r="T42" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>69.33</v>
       </c>
       <c r="U42" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>87.16</v>
       </c>
       <c r="W42" t="s">
@@ -12156,11 +12153,11 @@
         <v>22</v>
       </c>
       <c r="T43" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="U43" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>17.16</v>
       </c>
       <c r="W43" t="s">
@@ -12231,11 +12228,11 @@
         <v>23</v>
       </c>
       <c r="T44" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>50.02</v>
       </c>
       <c r="U44" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>65.81</v>
       </c>
       <c r="W44" t="s">
@@ -12253,11 +12250,11 @@
         <v>24</v>
       </c>
       <c r="T45" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2063.04</v>
       </c>
       <c r="U45" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2290.73</v>
       </c>
       <c r="W45" t="s">
@@ -12302,11 +12299,11 @@
         <v>25</v>
       </c>
       <c r="T46" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>96.09</v>
       </c>
       <c r="U46" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>116.73</v>
       </c>
       <c r="W46" t="s">
@@ -12330,11 +12327,11 @@
         <v>26</v>
       </c>
       <c r="T47" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10.119999999999999</v>
       </c>
       <c r="U47" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21.71</v>
       </c>
       <c r="W47" t="s">
@@ -12375,11 +12372,11 @@
         <v>27</v>
       </c>
       <c r="T48" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>32.42</v>
       </c>
       <c r="U48" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>46.36</v>
       </c>
       <c r="W48" t="s">
@@ -12450,11 +12447,11 @@
         <v>28</v>
       </c>
       <c r="T49" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="U49" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16.060000000000002</v>
       </c>
       <c r="W49" t="s">
@@ -12472,11 +12469,11 @@
         <v>29</v>
       </c>
       <c r="T50" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>228.07</v>
       </c>
       <c r="U50" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>262.61</v>
       </c>
       <c r="W50" t="s">
@@ -12521,11 +12518,11 @@
         <v>30</v>
       </c>
       <c r="T51" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>29.630000000000003</v>
       </c>
       <c r="U51" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43.28</v>
       </c>
       <c r="W51" t="s">
@@ -12552,11 +12549,11 @@
         <v>31</v>
       </c>
       <c r="T52" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>165.35</v>
       </c>
       <c r="U52" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>193.28</v>
       </c>
       <c r="W52" t="s">
@@ -12597,11 +12594,11 @@
         <v>32</v>
       </c>
       <c r="T53" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>336.29</v>
       </c>
       <c r="U53" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>382.22</v>
       </c>
       <c r="W53" t="s">
@@ -12672,11 +12669,11 @@
         <v>33</v>
       </c>
       <c r="T54" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>235.89</v>
       </c>
       <c r="U54" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>271.25</v>
       </c>
       <c r="W54" t="s">
@@ -12694,11 +12691,11 @@
         <v>34</v>
       </c>
       <c r="T55" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>69.260000000000005</v>
       </c>
       <c r="U55" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>87.08</v>
       </c>
       <c r="W55" t="s">
@@ -12743,11 +12740,11 @@
         <v>35</v>
       </c>
       <c r="T56" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>113.23</v>
       </c>
       <c r="U56" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>135.68</v>
       </c>
       <c r="W56" t="s">
@@ -12780,11 +12777,11 @@
         <v>36</v>
       </c>
       <c r="T57" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1451.57</v>
       </c>
       <c r="U57" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1614.89</v>
       </c>
       <c r="W57" t="s">
@@ -12825,11 +12822,11 @@
         <v>37</v>
       </c>
       <c r="T58" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2347.73</v>
       </c>
       <c r="U58" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2605.38</v>
       </c>
       <c r="W58" t="s">
@@ -12900,11 +12897,11 @@
         <v>38</v>
       </c>
       <c r="T59" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1617.4</v>
       </c>
       <c r="U59" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1798.17</v>
       </c>
       <c r="W59" t="s">
@@ -12922,11 +12919,11 @@
         <v>39</v>
       </c>
       <c r="T60" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>34.14</v>
       </c>
       <c r="U60" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>48.26</v>
       </c>
       <c r="W60" t="s">
@@ -12971,11 +12968,11 @@
         <v>40</v>
       </c>
       <c r="T61" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.41</v>
       </c>
       <c r="U61" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>23.14</v>
       </c>
       <c r="W61" t="s">
@@ -12999,11 +12996,11 @@
         <v>41</v>
       </c>
       <c r="T62" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1682.17</v>
       </c>
       <c r="U62" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1869.77</v>
       </c>
       <c r="W62" t="s">
@@ -13044,11 +13041,11 @@
         <v>42</v>
       </c>
       <c r="T63" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1797.31</v>
       </c>
       <c r="U63" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1997.02</v>
       </c>
       <c r="W63" t="s">
@@ -13119,11 +13116,11 @@
         <v>43</v>
       </c>
       <c r="T64" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>884.16</v>
       </c>
       <c r="U64" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>987.76</v>
       </c>
       <c r="W64" t="s">
@@ -13141,11 +13138,11 @@
         <v>44</v>
       </c>
       <c r="T65" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1871.4</v>
       </c>
       <c r="U65" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2078.92</v>
       </c>
       <c r="W65" t="s">
@@ -14698,11 +14695,11 @@
         <v>963.9</v>
       </c>
       <c r="D129" s="6">
-        <f t="shared" ref="D129:E129" si="7">D128*D126</f>
+        <f t="shared" ref="D129:E129" si="8">D128*D126</f>
         <v>0</v>
       </c>
       <c r="E129" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F129" s="1"/>
@@ -16064,8 +16061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6038D090-3F8F-4253-84A6-3C1AA2D4781D}">
   <dimension ref="A2:Y211"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16090,35 +16087,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="J2" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="J2" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="S2" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="S2" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -16162,8 +16159,8 @@
       <c r="Y4" s="4"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>84</v>
+      <c r="A5" s="14" t="s">
+        <v>83</v>
       </c>
       <c r="B5" s="12">
         <v>7</v>
@@ -16205,7 +16202,7 @@
         <v>48.794352404587833</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T5" s="10">
         <v>2</v>
@@ -16214,7 +16211,7 @@
       <c r="Y5" s="4"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="12">
@@ -16231,7 +16228,7 @@
       </c>
       <c r="H6" s="12"/>
       <c r="J6" s="1" t="str">
-        <f t="shared" ref="J6:J32" si="0">A6</f>
+        <f t="shared" ref="J6:J22" si="0">A6</f>
         <v>Sawmill</v>
       </c>
       <c r="K6" s="4">
@@ -16259,7 +16256,7 @@
         <v>469.64601866348795</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T6" s="10">
         <v>5</v>
@@ -16268,7 +16265,7 @@
       <c r="Y6" s="4"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>50</v>
       </c>
       <c r="B7" s="12">
@@ -16314,7 +16311,7 @@
       <c r="Y7" s="4"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>51</v>
       </c>
       <c r="B8" s="12">
@@ -16368,7 +16365,7 @@
       <c r="Y8" s="4"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>53</v>
       </c>
       <c r="B9" s="12">
@@ -16427,7 +16424,7 @@
       <c r="Y9" s="4"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>54</v>
       </c>
       <c r="B10" s="12">
@@ -16482,7 +16479,7 @@
       <c r="Y10" s="4"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="12">
@@ -16538,7 +16535,7 @@
       <c r="X11" s="4"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B12" s="12">
@@ -16593,8 +16590,8 @@
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>85</v>
+      <c r="A13" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="B13" s="12">
         <v>50</v>
@@ -16648,7 +16645,7 @@
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>59</v>
       </c>
       <c r="B14" s="12">
@@ -16701,8 +16698,8 @@
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>86</v>
+      <c r="A15" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="B15" s="12">
         <v>17</v>
@@ -16756,7 +16753,7 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>61</v>
       </c>
       <c r="B16" s="12">
@@ -16813,7 +16810,7 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>62</v>
       </c>
       <c r="B17" s="12">
@@ -16870,8 +16867,8 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>87</v>
+      <c r="A18" s="14" t="s">
+        <v>86</v>
       </c>
       <c r="B18" s="12">
         <v>1</v>
@@ -16896,8 +16893,9 @@
         <f>VLOOKUP($J18,$J$43:$Q$173,3,FALSE)</f>
         <v>111.378</v>
       </c>
-      <c r="M18" s="4" t="s">
-        <v>78</v>
+      <c r="M18" s="4">
+        <f>VLOOKUP($J18,$J$43:$Q$173,4,FALSE)</f>
+        <v>111.378</v>
       </c>
       <c r="N18" s="3">
         <f>VLOOKUP($J18,$J$43:$Q$173,5,FALSE)</f>
@@ -16922,7 +16920,7 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="12">
@@ -16979,8 +16977,8 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>88</v>
+      <c r="A20" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="B20" s="12">
         <v>2</v>
@@ -17038,7 +17036,7 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B21" s="12">
@@ -17093,7 +17091,7 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>66</v>
       </c>
       <c r="B22" s="12">
@@ -17148,7 +17146,7 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="12">
@@ -17165,7 +17163,7 @@
       </c>
       <c r="H23" s="12"/>
       <c r="J23" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>A23</f>
         <v>Food Factory</v>
       </c>
       <c r="K23" s="4">
@@ -17203,7 +17201,7 @@
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>67</v>
       </c>
       <c r="B24" s="12">
@@ -17220,7 +17218,7 @@
       </c>
       <c r="H24" s="12"/>
       <c r="J24" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>A24</f>
         <v>Distillery</v>
       </c>
       <c r="K24" s="4">
@@ -17258,7 +17256,7 @@
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
@@ -17267,7 +17265,7 @@
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
       <c r="J25" s="1">
-        <f t="shared" si="0"/>
+        <f>A25</f>
         <v>0</v>
       </c>
       <c r="Q25" s="7"/>
@@ -17282,7 +17280,7 @@
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -17291,7 +17289,7 @@
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
       <c r="J26" s="1">
-        <f t="shared" si="0"/>
+        <f>A26</f>
         <v>0</v>
       </c>
       <c r="Q26" s="7"/>
@@ -17306,8 +17304,8 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>89</v>
+      <c r="A27" s="14" t="s">
+        <v>88</v>
       </c>
       <c r="B27" s="12">
         <v>75</v>
@@ -17325,7 +17323,7 @@
       </c>
       <c r="H27" s="12"/>
       <c r="J27" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>A27</f>
         <v>Fabric Factory</v>
       </c>
       <c r="K27" s="4">
@@ -17363,7 +17361,7 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -17372,7 +17370,7 @@
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
       <c r="J28" s="1">
-        <f t="shared" si="0"/>
+        <f>A28</f>
         <v>0</v>
       </c>
       <c r="Q28" s="7"/>
@@ -17387,7 +17385,7 @@
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
@@ -17396,7 +17394,7 @@
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="J29" s="1">
-        <f t="shared" si="0"/>
+        <f>A29</f>
         <v>0</v>
       </c>
       <c r="Q29" s="7"/>
@@ -17411,7 +17409,7 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="14" t="s">
         <v>73</v>
       </c>
       <c r="B30" s="12">
@@ -17428,7 +17426,7 @@
       </c>
       <c r="H30" s="12"/>
       <c r="J30" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>A30</f>
         <v>Clothing Factory</v>
       </c>
       <c r="K30" s="4">
@@ -17466,7 +17464,7 @@
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
@@ -17475,7 +17473,7 @@
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="J31" s="1">
-        <f t="shared" si="0"/>
+        <f>A31</f>
         <v>0</v>
       </c>
       <c r="Q31" s="7"/>
@@ -17490,7 +17488,7 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B32" s="12">
@@ -17509,7 +17507,7 @@
       </c>
       <c r="H32" s="13"/>
       <c r="J32" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>A32</f>
         <v>Prefab Factory</v>
       </c>
       <c r="K32" s="4">
@@ -17557,7 +17555,7 @@
       </c>
       <c r="M33" s="4">
         <f>SUM(M5:M32)</f>
-        <v>-3539.1116229690842</v>
+        <v>-3427.7336229690841</v>
       </c>
       <c r="S33" s="1" t="s">
         <v>39</v>
@@ -17603,25 +17601,25 @@
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="14"/>
+      <c r="A37" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
       <c r="S37" s="1" t="s">
         <v>43</v>
       </c>
@@ -17763,7 +17761,7 @@
         <v>16</v>
       </c>
       <c r="T42" s="4">
-        <f>T10-$T$5</f>
+        <f t="shared" ref="T42:T70" si="1">T10-$T$5</f>
         <v>19.91</v>
       </c>
       <c r="U42" s="4">
@@ -17829,7 +17827,7 @@
         <v>17</v>
       </c>
       <c r="T43" s="4">
-        <f>T11-$T$5</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="U43" s="4">
@@ -17842,11 +17840,11 @@
         <v>18</v>
       </c>
       <c r="T44" s="4">
-        <f>T12-$T$5</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="U44" s="4">
-        <f t="shared" ref="U44:U70" si="1">U12+$T$6</f>
+        <f t="shared" ref="U44:U70" si="2">U12+$T$6</f>
         <v>30</v>
       </c>
     </row>
@@ -17882,11 +17880,11 @@
         <v>19</v>
       </c>
       <c r="T45" s="4">
-        <f>T13-$T$5</f>
+        <f t="shared" si="1"/>
         <v>1622</v>
       </c>
       <c r="U45" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1800</v>
       </c>
     </row>
@@ -17904,11 +17902,11 @@
         <v>20</v>
       </c>
       <c r="T46" s="4">
-        <f>T14-$T$5</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="U46" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>550</v>
       </c>
     </row>
@@ -17940,11 +17938,11 @@
         <v>21</v>
       </c>
       <c r="T47" s="4">
-        <f>T15-$T$5</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="U47" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
     </row>
@@ -18006,11 +18004,11 @@
         <v>22</v>
       </c>
       <c r="T48" s="4">
-        <f>T16-$T$5</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="U48" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
     </row>
@@ -18019,11 +18017,11 @@
         <v>23</v>
       </c>
       <c r="T49" s="4">
-        <f>T17-$T$5</f>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="U49" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
     </row>
@@ -18059,11 +18057,11 @@
         <v>24</v>
       </c>
       <c r="T50" s="4">
-        <f>T18-$T$5</f>
+        <f t="shared" si="1"/>
         <v>2705</v>
       </c>
       <c r="U50" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2998</v>
       </c>
     </row>
@@ -18078,11 +18076,11 @@
         <v>25</v>
       </c>
       <c r="T51" s="4">
-        <f>T19-$T$5</f>
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="U51" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>102</v>
       </c>
     </row>
@@ -18114,11 +18112,11 @@
         <v>26</v>
       </c>
       <c r="T52" s="4">
-        <f>T20-$T$5</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="U52" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
     </row>
@@ -18180,11 +18178,11 @@
         <v>27</v>
       </c>
       <c r="T53" s="4">
-        <f>T21-$T$5</f>
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="U53" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>121</v>
       </c>
     </row>
@@ -18193,11 +18191,11 @@
         <v>28</v>
       </c>
       <c r="T54" s="4">
-        <f>T22-$T$5</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="U54" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
     </row>
@@ -18233,11 +18231,11 @@
         <v>29</v>
       </c>
       <c r="T55" s="4">
-        <f>T23-$T$5</f>
+        <f t="shared" si="1"/>
         <v>588</v>
       </c>
       <c r="U55" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>657</v>
       </c>
     </row>
@@ -18255,11 +18253,11 @@
         <v>30</v>
       </c>
       <c r="T56" s="4">
-        <f>T24-$T$5</f>
+        <f t="shared" si="1"/>
         <v>58.51</v>
       </c>
       <c r="U56" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
     </row>
@@ -18291,11 +18289,11 @@
         <v>31</v>
       </c>
       <c r="T57" s="4">
-        <f>T25-$T$5</f>
+        <f t="shared" si="1"/>
         <v>337</v>
       </c>
       <c r="U57" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>380</v>
       </c>
     </row>
@@ -18357,11 +18355,11 @@
         <v>32</v>
       </c>
       <c r="T58" s="4">
-        <f>T26-$T$5</f>
+        <f t="shared" si="1"/>
         <v>857</v>
       </c>
       <c r="U58" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>954</v>
       </c>
     </row>
@@ -18370,11 +18368,11 @@
         <v>33</v>
       </c>
       <c r="T59" s="4">
-        <f>T27-$T$5</f>
+        <f t="shared" si="1"/>
         <v>836</v>
       </c>
       <c r="U59" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>931</v>
       </c>
     </row>
@@ -18410,11 +18408,11 @@
         <v>34</v>
       </c>
       <c r="T60" s="4">
-        <f>T28-$T$5</f>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="U60" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
     </row>
@@ -18438,11 +18436,11 @@
         <v>35</v>
       </c>
       <c r="T61" s="4">
-        <f>T29-$T$5</f>
+        <f t="shared" si="1"/>
         <v>304</v>
       </c>
       <c r="U61" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>343</v>
       </c>
     </row>
@@ -18474,11 +18472,11 @@
         <v>36</v>
       </c>
       <c r="T62" s="4">
-        <f>T30-$T$5</f>
+        <f t="shared" si="1"/>
         <v>11703</v>
       </c>
       <c r="U62" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12943</v>
       </c>
     </row>
@@ -18540,11 +18538,11 @@
         <v>37</v>
       </c>
       <c r="T63" s="4">
-        <f>T31-$T$5</f>
+        <f t="shared" si="1"/>
         <v>568</v>
       </c>
       <c r="U63" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>635</v>
       </c>
     </row>
@@ -18553,11 +18551,11 @@
         <v>38</v>
       </c>
       <c r="T64" s="4">
-        <f>T32-$T$5</f>
+        <f t="shared" si="1"/>
         <v>497</v>
       </c>
       <c r="U64" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>557</v>
       </c>
     </row>
@@ -18593,11 +18591,11 @@
         <v>39</v>
       </c>
       <c r="T65" s="4">
-        <f>T33-$T$5</f>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="U65" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
     </row>
@@ -18612,11 +18610,11 @@
         <v>40</v>
       </c>
       <c r="T66" s="4">
-        <f>T34-$T$5</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="U66" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
     </row>
@@ -18648,11 +18646,11 @@
         <v>41</v>
       </c>
       <c r="T67" s="4">
-        <f>T35-$T$5</f>
+        <f t="shared" si="1"/>
         <v>2211</v>
       </c>
       <c r="U67" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2452</v>
       </c>
     </row>
@@ -18714,11 +18712,11 @@
         <v>42</v>
       </c>
       <c r="T68" s="4">
-        <f>T36-$T$5</f>
+        <f t="shared" si="1"/>
         <v>2497</v>
       </c>
       <c r="U68" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2767</v>
       </c>
     </row>
@@ -18727,11 +18725,11 @@
         <v>43</v>
       </c>
       <c r="T69" s="4">
-        <f>T37-$T$5</f>
+        <f t="shared" si="1"/>
         <v>1101</v>
       </c>
       <c r="U69" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1224</v>
       </c>
       <c r="V69" s="5"/>
@@ -18768,11 +18766,11 @@
         <v>44</v>
       </c>
       <c r="T70" s="4">
-        <f>T38-$T$5</f>
+        <f t="shared" si="1"/>
         <v>2484</v>
       </c>
       <c r="U70" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2753</v>
       </c>
       <c r="V70" s="5"/>
@@ -18990,7 +18988,7 @@
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B80">
         <f>VLOOKUP($A80,$A$5:$H$31,2,FALSE)</f>
@@ -19227,7 +19225,7 @@
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B90">
         <f>VLOOKUP($A90,$A$5:$H$31,2,FALSE)</f>
@@ -19848,7 +19846,7 @@
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B115">
         <f>VLOOKUP($A115,$A$5:$H$31,2,FALSE)</f>
@@ -20286,11 +20284,11 @@
         <v>1397.01</v>
       </c>
       <c r="D133" s="6">
-        <f t="shared" ref="D133" si="2">D132*D130</f>
+        <f t="shared" ref="D133" si="3">D132*D130</f>
         <v>0</v>
       </c>
       <c r="E133" s="6">
-        <f t="shared" ref="E133" si="3">E132*E130</f>
+        <f t="shared" ref="E133" si="4">E132*E130</f>
         <v>0</v>
       </c>
       <c r="F133" s="1"/>
@@ -20709,7 +20707,7 @@
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B150">
         <f>VLOOKUP($A150,$A$5:$H$31,2,FALSE)</f>
@@ -22040,9 +22038,9 @@
         <f>Custom!L18-Standard!L18</f>
         <v>-238.76200000000006</v>
       </c>
-      <c r="D18" s="4" t="e">
+      <c r="D18" s="4">
         <f>Custom!M18-Standard!M18</f>
-        <v>#VALUE!</v>
+        <v>-218.48200000000003</v>
       </c>
       <c r="E18" s="3">
         <f>Custom!N18-Standard!N18</f>

--- a/economics.xlsx
+++ b/economics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\personal\games\workersandresources\workers-and-resources-insane-mode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E46C84A-90FC-4D38-BF97-5EB8527402E8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20413FCD-E073-401A-AFC9-66D120CE0027}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{B5883943-4FA7-4C31-ABD9-F72C92AB45FA}"/>
   </bookViews>
@@ -16061,8 +16061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6038D090-3F8F-4253-84A6-3C1AA2D4781D}">
   <dimension ref="A2:Y211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:H23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16178,28 +16178,28 @@
         <v>Woodcutting Post</v>
       </c>
       <c r="K5" s="4">
-        <f>VLOOKUP($J5,$J$43:$Q$173,2,FALSE)</f>
-        <v>596.36</v>
+        <f t="shared" ref="K5:K24" si="0">VLOOKUP($J5,$J$43:$Q$173,2,FALSE)</f>
+        <v>877</v>
       </c>
       <c r="L5" s="4">
-        <f>VLOOKUP($J5,$J$43:$Q$173,3,FALSE)</f>
-        <v>85.194285714285712</v>
+        <f t="shared" ref="L5:L24" si="1">VLOOKUP($J5,$J$43:$Q$173,3,FALSE)</f>
+        <v>125.28571428571429</v>
       </c>
       <c r="M5" s="4">
-        <f>VLOOKUP($J5,$J$43:$Q$173,4,FALSE)</f>
-        <v>85.194285714285712</v>
+        <f t="shared" ref="M5:M24" si="2">VLOOKUP($J5,$J$43:$Q$173,4,FALSE)</f>
+        <v>125.28571428571429</v>
       </c>
       <c r="N5" s="3">
-        <f>VLOOKUP($J5,$J$43:$Q$173,5,FALSE)</f>
+        <f t="shared" ref="N5:N24" si="3">VLOOKUP($J5,$J$43:$Q$173,5,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P5" s="4">
-        <f>VLOOKUP($J5,$J$43:$Q$173,7,FALSE)</f>
+        <f t="shared" ref="P5:P24" si="4">VLOOKUP($J5,$J$43:$Q$173,7,FALSE)</f>
         <v>4157</v>
       </c>
       <c r="Q5" s="7">
-        <f>VLOOKUP($J5,$J$43:$Q$173,8,FALSE)</f>
-        <v>48.794352404587833</v>
+        <f t="shared" ref="Q5:Q24" si="5">VLOOKUP($J5,$J$43:$Q$173,8,FALSE)</f>
+        <v>33.180159635119722</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>81</v>
@@ -16228,32 +16228,32 @@
       </c>
       <c r="H6" s="12"/>
       <c r="J6" s="1" t="str">
-        <f t="shared" ref="J6:J22" si="0">A6</f>
+        <f t="shared" ref="J6:J22" si="6">A6</f>
         <v>Sawmill</v>
       </c>
       <c r="K6" s="4">
-        <f>VLOOKUP($J6,$J$43:$Q$173,2,FALSE)</f>
-        <v>185.36513999999988</v>
+        <f t="shared" si="0"/>
+        <v>301.44899999999984</v>
       </c>
       <c r="L6" s="4">
-        <f>VLOOKUP($J6,$J$43:$Q$173,3,FALSE)</f>
-        <v>339.56278499999996</v>
+        <f t="shared" si="1"/>
+        <v>470.08349999999996</v>
       </c>
       <c r="M6" s="4">
-        <f>VLOOKUP($J6,$J$43:$Q$173,4,FALSE)</f>
-        <v>46.341284999999971</v>
+        <f t="shared" si="2"/>
+        <v>75.36224999999996</v>
       </c>
       <c r="N6" s="3">
-        <f>VLOOKUP($J6,$J$43:$Q$173,5,FALSE)</f>
-        <v>0.13647339180587759</v>
+        <f t="shared" si="3"/>
+        <v>0.16031673096375423</v>
       </c>
       <c r="P6" s="4">
-        <f>VLOOKUP($J6,$J$43:$Q$173,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>21764</v>
       </c>
       <c r="Q6" s="7">
-        <f>VLOOKUP($J6,$J$43:$Q$173,8,FALSE)</f>
-        <v>469.64601866348795</v>
+        <f t="shared" si="5"/>
+        <v>288.79180226174259</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>80</v>
@@ -16280,32 +16280,32 @@
       </c>
       <c r="H7" s="12"/>
       <c r="J7" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Iron Mine</v>
+      </c>
+      <c r="K7" s="4">
         <f t="shared" si="0"/>
-        <v>Iron Mine</v>
-      </c>
-      <c r="K7" s="4">
-        <f>VLOOKUP($J7,$J$43:$Q$173,2,FALSE)</f>
-        <v>6448.576</v>
+        <v>10881.972</v>
       </c>
       <c r="L7" s="4">
-        <f>VLOOKUP($J7,$J$43:$Q$173,3,FALSE)</f>
-        <v>47.767229629629632</v>
+        <f t="shared" si="1"/>
+        <v>80.607199999999992</v>
       </c>
       <c r="M7" s="4">
-        <f>VLOOKUP($J7,$J$43:$Q$173,4,FALSE)</f>
-        <v>47.767229629629632</v>
+        <f t="shared" si="2"/>
+        <v>80.607199999999992</v>
       </c>
       <c r="N7" s="3">
-        <f>VLOOKUP($J7,$J$43:$Q$173,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P7" s="4">
-        <f>VLOOKUP($J7,$J$43:$Q$173,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>85018</v>
       </c>
       <c r="Q7" s="7">
-        <f>VLOOKUP($J7,$J$43:$Q$173,8,FALSE)</f>
-        <v>1779.839456028742</v>
+        <f t="shared" si="5"/>
+        <v>1054.7196776466619</v>
       </c>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
@@ -16328,32 +16328,32 @@
       </c>
       <c r="H8" s="12"/>
       <c r="J8" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Iron Processing</v>
+      </c>
+      <c r="K8" s="4">
         <f t="shared" si="0"/>
-        <v>Iron Processing</v>
-      </c>
-      <c r="K8" s="4">
-        <f>VLOOKUP($J8,$J$43:$Q$173,2,FALSE)</f>
-        <v>726.06100000000015</v>
+        <v>1355.9769999999999</v>
       </c>
       <c r="L8" s="4">
-        <f>VLOOKUP($J8,$J$43:$Q$173,3,FALSE)</f>
-        <v>504.532625</v>
+        <f t="shared" si="1"/>
+        <v>798.43512499999997</v>
       </c>
       <c r="M8" s="4">
-        <f>VLOOKUP($J8,$J$43:$Q$173,4,FALSE)</f>
-        <v>90.757625000000019</v>
+        <f t="shared" si="2"/>
+        <v>169.49712499999998</v>
       </c>
       <c r="N8" s="3">
-        <f>VLOOKUP($J8,$J$43:$Q$173,5,FALSE)</f>
-        <v>0.17988455156889016</v>
+        <f t="shared" si="3"/>
+        <v>0.21228665885659775</v>
       </c>
       <c r="P8" s="4">
-        <f>VLOOKUP($J8,$J$43:$Q$173,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>146810</v>
       </c>
       <c r="Q8" s="7">
-        <f>VLOOKUP($J8,$J$43:$Q$173,8,FALSE)</f>
-        <v>1617.6051323511383</v>
+        <f t="shared" si="5"/>
+        <v>866.15038455667025</v>
       </c>
       <c r="T8" s="6" t="s">
         <v>13</v>
@@ -16384,41 +16384,41 @@
       </c>
       <c r="H9" s="12"/>
       <c r="J9" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Steel Mill</v>
+      </c>
+      <c r="K9" s="4">
         <f t="shared" si="0"/>
-        <v>Steel Mill</v>
-      </c>
-      <c r="K9" s="4">
-        <f>VLOOKUP($J9,$J$43:$Q$173,2,FALSE)</f>
-        <v>-38650.363999999994</v>
+        <v>-52538.26400000001</v>
       </c>
       <c r="L9" s="4">
-        <f>VLOOKUP($J9,$J$43:$Q$173,3,FALSE)</f>
-        <v>58.214806722689076</v>
+        <f t="shared" si="1"/>
+        <v>80.502966386554618</v>
       </c>
       <c r="M9" s="4">
-        <f>VLOOKUP($J9,$J$43:$Q$173,4,FALSE)</f>
-        <v>-81.198243697478986</v>
+        <f t="shared" si="2"/>
+        <v>-110.37450420168069</v>
       </c>
       <c r="N9" s="3">
-        <f>VLOOKUP($J9,$J$43:$Q$173,5,FALSE)</f>
-        <v>-1.3948039728839667</v>
+        <f t="shared" si="3"/>
+        <v>-1.3710613304817938</v>
       </c>
       <c r="P9" s="4">
-        <f>VLOOKUP($J9,$J$43:$Q$173,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>257030</v>
       </c>
       <c r="Q9" s="7">
-        <f>VLOOKUP($J9,$J$43:$Q$173,8,FALSE)</f>
-        <v>-3165.4625555402276</v>
+        <f t="shared" si="5"/>
+        <v>-2328.7080821703585</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="T9" s="10">
-        <v>5.35</v>
+        <v>7</v>
       </c>
       <c r="U9" s="10">
-        <v>5.91</v>
+        <v>7.8</v>
       </c>
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
@@ -16439,41 +16439,41 @@
       </c>
       <c r="H10" s="12"/>
       <c r="J10" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Coal Mine</v>
+      </c>
+      <c r="K10" s="4">
         <f t="shared" si="0"/>
-        <v>Coal Mine</v>
-      </c>
-      <c r="K10" s="4">
-        <f>VLOOKUP($J10,$J$43:$Q$173,2,FALSE)</f>
-        <v>7808.4000000000005</v>
+        <v>10411.200000000001</v>
       </c>
       <c r="L10" s="4">
-        <f>VLOOKUP($J10,$J$43:$Q$173,3,FALSE)</f>
-        <v>26.469152542372882</v>
+        <f t="shared" si="1"/>
+        <v>35.292203389830512</v>
       </c>
       <c r="M10" s="4">
-        <f>VLOOKUP($J10,$J$43:$Q$173,4,FALSE)</f>
-        <v>26.469152542372882</v>
+        <f t="shared" si="2"/>
+        <v>35.292203389830512</v>
       </c>
       <c r="N10" s="3">
-        <f>VLOOKUP($J10,$J$43:$Q$173,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P10" s="4">
-        <f>VLOOKUP($J10,$J$43:$Q$173,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>84568</v>
       </c>
       <c r="Q10" s="7">
-        <f>VLOOKUP($J10,$J$43:$Q$173,8,FALSE)</f>
-        <v>3194.9643973157113</v>
+        <f t="shared" si="5"/>
+        <v>2396.2232979867831</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="T10" s="10">
-        <v>21.91</v>
+        <v>26.7</v>
       </c>
       <c r="U10" s="10">
-        <v>24</v>
+        <v>29.5</v>
       </c>
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
@@ -16496,41 +16496,41 @@
       </c>
       <c r="H11" s="12"/>
       <c r="J11" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Coal Processing</v>
+      </c>
+      <c r="K11" s="4">
         <f t="shared" si="0"/>
-        <v>Coal Processing</v>
-      </c>
-      <c r="K11" s="4">
-        <f>VLOOKUP($J11,$J$43:$Q$173,2,FALSE)</f>
-        <v>34.572999999999411</v>
+        <v>283.01099999999951</v>
       </c>
       <c r="L11" s="4">
-        <f>VLOOKUP($J11,$J$43:$Q$173,3,FALSE)</f>
-        <v>139.91367741935483</v>
+        <f t="shared" si="1"/>
+        <v>180.58625806451613</v>
       </c>
       <c r="M11" s="4">
-        <f>VLOOKUP($J11,$J$43:$Q$173,4,FALSE)</f>
-        <v>1.1152580645161101</v>
+        <f t="shared" si="2"/>
+        <v>9.1293870967741775</v>
       </c>
       <c r="N11" s="3">
-        <f>VLOOKUP($J11,$J$43:$Q$173,5,FALSE)</f>
-        <v>7.971043897112463E-3</v>
+        <f t="shared" si="3"/>
+        <v>5.0554162839525803E-2</v>
       </c>
       <c r="P11" s="4">
-        <f>VLOOKUP($J11,$J$43:$Q$173,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>146810</v>
       </c>
       <c r="Q11" s="7">
-        <f>VLOOKUP($J11,$J$43:$Q$173,8,FALSE)</f>
-        <v>131637.6941544002</v>
+        <f t="shared" si="5"/>
+        <v>16081.035719459695</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="T11" s="10">
-        <v>7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="U11" s="10">
-        <v>8</v>
+        <v>9.6</v>
       </c>
       <c r="X11" s="4"/>
     </row>
@@ -16552,41 +16552,41 @@
       </c>
       <c r="H12" s="12"/>
       <c r="J12" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Brick Factory</v>
+      </c>
+      <c r="K12" s="4">
         <f t="shared" si="0"/>
-        <v>Brick Factory</v>
-      </c>
-      <c r="K12" s="4">
-        <f>VLOOKUP($J12,$J$43:$Q$173,2,FALSE)</f>
-        <v>-182.17200000000003</v>
+        <v>-250.67999999999984</v>
       </c>
       <c r="L12" s="4">
-        <f>VLOOKUP($J12,$J$43:$Q$173,3,FALSE)</f>
-        <v>27.75</v>
+        <f t="shared" si="1"/>
+        <v>34.823529411764703</v>
       </c>
       <c r="M12" s="4">
-        <f>VLOOKUP($J12,$J$43:$Q$173,4,FALSE)</f>
-        <v>-5.3580000000000005</v>
+        <f t="shared" si="2"/>
+        <v>-7.372941176470583</v>
       </c>
       <c r="N12" s="3">
-        <f>VLOOKUP($J12,$J$43:$Q$173,5,FALSE)</f>
-        <v>-0.1930810810810811</v>
+        <f t="shared" si="3"/>
+        <v>-0.21172297297297282</v>
       </c>
       <c r="P12" s="4">
-        <f>VLOOKUP($J12,$J$43:$Q$173,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>56668</v>
       </c>
       <c r="Q12" s="7">
-        <f>VLOOKUP($J12,$J$43:$Q$173,8,FALSE)</f>
-        <v>-10576.334453154161</v>
+        <f t="shared" si="5"/>
+        <v>-7685.9422371150522</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="T12" s="10">
-        <v>22</v>
+        <v>26.5</v>
       </c>
       <c r="U12" s="10">
-        <v>25</v>
+        <v>29.3</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -16607,41 +16607,41 @@
       </c>
       <c r="H13" s="12"/>
       <c r="J13" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Coal Power Plant</v>
+      </c>
+      <c r="K13" s="4">
         <f t="shared" si="0"/>
-        <v>Coal Power Plant</v>
-      </c>
-      <c r="K13" s="4">
-        <f>VLOOKUP($J13,$J$43:$Q$173,2,FALSE)</f>
-        <v>4096.6522999999997</v>
+        <v>5471.2959999999994</v>
       </c>
       <c r="L13" s="4">
-        <f>VLOOKUP($J13,$J$43:$Q$173,3,FALSE)</f>
-        <v>147.52924599999997</v>
+        <f t="shared" si="1"/>
+        <v>193.02892</v>
       </c>
       <c r="M13" s="4">
-        <f>VLOOKUP($J13,$J$43:$Q$173,4,FALSE)</f>
-        <v>81.93304599999999</v>
+        <f t="shared" si="2"/>
+        <v>109.42591999999999</v>
       </c>
       <c r="N13" s="3">
-        <f>VLOOKUP($J13,$J$43:$Q$173,5,FALSE)</f>
-        <v>0.55536816069676109</v>
+        <f t="shared" si="3"/>
+        <v>0.56688873356386182</v>
       </c>
       <c r="P13" s="4">
-        <f>VLOOKUP($J13,$J$43:$Q$173,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>252962</v>
       </c>
       <c r="Q13" s="7">
-        <f>VLOOKUP($J13,$J$43:$Q$173,8,FALSE)</f>
-        <v>3087.4233578475773</v>
+        <f t="shared" si="5"/>
+        <v>2311.719197791529</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="T13" s="10">
-        <v>1624</v>
+        <v>2245</v>
       </c>
       <c r="U13" s="10">
-        <v>1795</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -16660,41 +16660,41 @@
       </c>
       <c r="H14" s="12"/>
       <c r="J14" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Quarry</v>
+      </c>
+      <c r="K14" s="4">
         <f t="shared" si="0"/>
-        <v>Quarry</v>
-      </c>
-      <c r="K14" s="4">
-        <f>VLOOKUP($J14,$J$43:$Q$173,2,FALSE)</f>
-        <v>756.3549999999999</v>
+        <v>1013.5156999999998</v>
       </c>
       <c r="L14" s="4">
-        <f>VLOOKUP($J14,$J$43:$Q$173,3,FALSE)</f>
-        <v>15.43581632653061</v>
+        <f t="shared" si="1"/>
+        <v>20.683993877551018</v>
       </c>
       <c r="M14" s="4">
-        <f>VLOOKUP($J14,$J$43:$Q$173,4,FALSE)</f>
-        <v>15.43581632653061</v>
+        <f t="shared" si="2"/>
+        <v>20.683993877551018</v>
       </c>
       <c r="N14" s="3">
-        <f>VLOOKUP($J14,$J$43:$Q$173,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P14" s="4">
-        <f>VLOOKUP($J14,$J$43:$Q$173,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>1641</v>
       </c>
       <c r="Q14" s="7">
-        <f>VLOOKUP($J14,$J$43:$Q$173,8,FALSE)</f>
-        <v>106.31118985132643</v>
+        <f t="shared" si="5"/>
+        <v>79.336708844273474</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="T14" s="10">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="U14" s="10">
-        <v>545</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -16715,41 +16715,41 @@
       </c>
       <c r="H15" s="12"/>
       <c r="J15" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Gravel Processing</v>
+      </c>
+      <c r="K15" s="4">
         <f t="shared" si="0"/>
-        <v>Gravel Processing</v>
-      </c>
-      <c r="K15" s="4">
-        <f>VLOOKUP($J15,$J$43:$Q$173,2,FALSE)</f>
-        <v>1265.0547300000001</v>
+        <v>1746.6584999999998</v>
       </c>
       <c r="L15" s="4">
-        <f>VLOOKUP($J15,$J$43:$Q$173,3,FALSE)</f>
-        <v>163.14839588235296</v>
+        <f t="shared" si="1"/>
+        <v>202.39906470588235</v>
       </c>
       <c r="M15" s="4">
-        <f>VLOOKUP($J15,$J$43:$Q$173,4,FALSE)</f>
-        <v>74.414984117647066</v>
+        <f t="shared" si="2"/>
+        <v>102.74461764705882</v>
       </c>
       <c r="N15" s="3">
-        <f>VLOOKUP($J15,$J$43:$Q$173,5,FALSE)</f>
-        <v>0.45611839279932637</v>
+        <f t="shared" si="3"/>
+        <v>0.50763385589929921</v>
       </c>
       <c r="P15" s="4">
-        <f>VLOOKUP($J15,$J$43:$Q$173,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>36782</v>
       </c>
       <c r="Q15" s="7">
-        <f>VLOOKUP($J15,$J$43:$Q$173,8,FALSE)</f>
-        <v>494.28217228198497</v>
+        <f t="shared" si="5"/>
+        <v>357.99442192048423</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="T15" s="10">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="U15" s="10">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -16772,41 +16772,41 @@
       </c>
       <c r="H16" s="12"/>
       <c r="J16" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Cement Plant</v>
+      </c>
+      <c r="K16" s="4">
         <f t="shared" si="0"/>
-        <v>Cement Plant</v>
-      </c>
-      <c r="K16" s="4">
-        <f>VLOOKUP($J16,$J$43:$Q$173,2,FALSE)</f>
-        <v>-1622.5540000000005</v>
+        <v>-1808.5015000000003</v>
       </c>
       <c r="L16" s="4">
-        <f>VLOOKUP($J16,$J$43:$Q$173,3,FALSE)</f>
-        <v>135.90281250000001</v>
+        <f t="shared" si="1"/>
+        <v>174.73218750000001</v>
       </c>
       <c r="M16" s="4">
-        <f>VLOOKUP($J16,$J$43:$Q$173,4,FALSE)</f>
-        <v>-101.40962500000003</v>
+        <f t="shared" si="2"/>
+        <v>-113.03134375000002</v>
       </c>
       <c r="N16" s="3">
-        <f>VLOOKUP($J16,$J$43:$Q$173,5,FALSE)</f>
-        <v>-0.74619224675721874</v>
+        <f t="shared" si="3"/>
+        <v>-0.64688335542070641</v>
       </c>
       <c r="P16" s="4">
-        <f>VLOOKUP($J16,$J$43:$Q$173,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>203603</v>
       </c>
       <c r="Q16" s="7">
-        <f>VLOOKUP($J16,$J$43:$Q$173,8,FALSE)</f>
-        <v>-2007.7285563377236</v>
+        <f t="shared" si="5"/>
+        <v>-1801.2968194939288</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="T16" s="10">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="U16" s="10">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -16829,41 +16829,41 @@
       </c>
       <c r="H17" s="12"/>
       <c r="J17" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Concrete Plant</v>
+      </c>
+      <c r="K17" s="4">
         <f t="shared" si="0"/>
-        <v>Concrete Plant</v>
-      </c>
-      <c r="K17" s="4">
-        <f>VLOOKUP($J17,$J$43:$Q$173,2,FALSE)</f>
-        <v>-3448.5689999999995</v>
+        <v>-4115.8739999999998</v>
       </c>
       <c r="L17" s="4">
-        <f>VLOOKUP($J17,$J$43:$Q$173,3,FALSE)</f>
-        <v>249.33475000000001</v>
+        <f t="shared" si="1"/>
+        <v>322.66849999999999</v>
       </c>
       <c r="M17" s="4">
-        <f>VLOOKUP($J17,$J$43:$Q$173,4,FALSE)</f>
-        <v>-862.14224999999988</v>
+        <f t="shared" si="2"/>
+        <v>-1028.9684999999999</v>
       </c>
       <c r="N17" s="3">
-        <f>VLOOKUP($J17,$J$43:$Q$173,5,FALSE)</f>
-        <v>-3.4577701263060998</v>
+        <f t="shared" si="3"/>
+        <v>-3.1889338438676225</v>
       </c>
       <c r="P17" s="4">
-        <f>VLOOKUP($J17,$J$43:$Q$173,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>34720</v>
       </c>
       <c r="Q17" s="7">
-        <f>VLOOKUP($J17,$J$43:$Q$173,8,FALSE)</f>
-        <v>-40.271776496280054</v>
+        <f t="shared" si="5"/>
+        <v>-33.742529533217002</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="T17" s="10">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="U17" s="10">
-        <v>65</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -16882,41 +16882,41 @@
       </c>
       <c r="H18" s="12"/>
       <c r="J18" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Oil Rig</v>
+      </c>
+      <c r="K18" s="4">
         <f t="shared" si="0"/>
-        <v>Oil Rig</v>
-      </c>
-      <c r="K18" s="4">
-        <f>VLOOKUP($J18,$J$43:$Q$173,2,FALSE)</f>
-        <v>111.378</v>
+        <v>150.458</v>
       </c>
       <c r="L18" s="4">
-        <f>VLOOKUP($J18,$J$43:$Q$173,3,FALSE)</f>
-        <v>111.378</v>
+        <f t="shared" si="1"/>
+        <v>150.458</v>
       </c>
       <c r="M18" s="4">
-        <f>VLOOKUP($J18,$J$43:$Q$173,4,FALSE)</f>
-        <v>111.378</v>
+        <f t="shared" si="2"/>
+        <v>150.458</v>
       </c>
       <c r="N18" s="3">
-        <f>VLOOKUP($J18,$J$43:$Q$173,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P18" s="4">
-        <f>VLOOKUP($J18,$J$43:$Q$173,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>6069</v>
       </c>
       <c r="Q18" s="7">
-        <f>VLOOKUP($J18,$J$43:$Q$173,8,FALSE)</f>
-        <v>54.490114744383987</v>
+        <f t="shared" si="5"/>
+        <v>40.336838187401135</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="T18" s="10">
-        <v>2707</v>
+        <v>3416</v>
       </c>
       <c r="U18" s="10">
-        <v>2993</v>
+        <v>3776</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -16939,41 +16939,41 @@
         <v>25.181000000000001</v>
       </c>
       <c r="J19" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Oil Refinery</v>
+      </c>
+      <c r="K19" s="4">
         <f t="shared" si="0"/>
-        <v>Oil Refinery</v>
-      </c>
-      <c r="K19" s="4">
-        <f>VLOOKUP($J19,$J$43:$Q$173,2,FALSE)</f>
-        <v>16326.069000000001</v>
+        <v>5558.2759999999998</v>
       </c>
       <c r="L19" s="4">
-        <f>VLOOKUP($J19,$J$43:$Q$173,3,FALSE)</f>
-        <v>84.760819620253173</v>
+        <f t="shared" si="1"/>
+        <v>61.087139240506332</v>
       </c>
       <c r="M19" s="4">
-        <f>VLOOKUP($J19,$J$43:$Q$173,4,FALSE)</f>
-        <v>51.664775316455703</v>
+        <f t="shared" si="2"/>
+        <v>17.589481012658226</v>
       </c>
       <c r="N19" s="3">
-        <f>VLOOKUP($J19,$J$43:$Q$173,5,FALSE)</f>
-        <v>0.60953605153802293</v>
+        <f t="shared" si="3"/>
+        <v>0.28794082079055361</v>
       </c>
       <c r="P19" s="4">
-        <f>VLOOKUP($J19,$J$43:$Q$173,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>296868</v>
       </c>
       <c r="Q19" s="7">
-        <f>VLOOKUP($J19,$J$43:$Q$173,8,FALSE)</f>
-        <v>5746.0426021720223</v>
+        <f t="shared" si="5"/>
+        <v>16877.587223088598</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T19" s="10">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="U19" s="10">
-        <v>97</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -16998,41 +16998,41 @@
       </c>
       <c r="H20" s="12"/>
       <c r="J20" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Asphalt Plant</v>
+      </c>
+      <c r="K20" s="4">
         <f t="shared" si="0"/>
-        <v>Asphalt Plant</v>
-      </c>
-      <c r="K20" s="4">
-        <f>VLOOKUP($J20,$J$43:$Q$173,2,FALSE)</f>
-        <v>-3248.6360299999997</v>
+        <v>-4013.5029000000004</v>
       </c>
       <c r="L20" s="4">
-        <f>VLOOKUP($J20,$J$43:$Q$173,3,FALSE)</f>
-        <v>1381.1840000000002</v>
+        <f t="shared" si="1"/>
+        <v>1775.808</v>
       </c>
       <c r="M20" s="4">
-        <f>VLOOKUP($J20,$J$43:$Q$173,4,FALSE)</f>
-        <v>-1624.3180149999998</v>
+        <f t="shared" si="2"/>
+        <v>-2006.7514500000002</v>
       </c>
       <c r="N20" s="3">
-        <f>VLOOKUP($J20,$J$43:$Q$173,5,FALSE)</f>
-        <v>-1.1760330375967283</v>
+        <f t="shared" si="3"/>
+        <v>-1.1300497857876528</v>
       </c>
       <c r="P20" s="4">
-        <f>VLOOKUP($J20,$J$43:$Q$173,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>38940</v>
       </c>
       <c r="Q20" s="7">
-        <f>VLOOKUP($J20,$J$43:$Q$173,8,FALSE)</f>
-        <v>-23.973138043414487</v>
+        <f t="shared" si="5"/>
+        <v>-19.404495758555449</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="T20" s="10">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="U20" s="10">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -17053,41 +17053,41 @@
       </c>
       <c r="H21" s="12"/>
       <c r="J21" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Livestock Farm</v>
+      </c>
+      <c r="K21" s="4">
         <f t="shared" si="0"/>
-        <v>Livestock Farm</v>
-      </c>
-      <c r="K21" s="4">
-        <f>VLOOKUP($J21,$J$43:$Q$173,2,FALSE)</f>
-        <v>873.92399999999998</v>
+        <v>1108.7653</v>
       </c>
       <c r="L21" s="4">
-        <f>VLOOKUP($J21,$J$43:$Q$173,3,FALSE)</f>
-        <v>26.056999999999999</v>
+        <f t="shared" si="1"/>
+        <v>32.400857142857141</v>
       </c>
       <c r="M21" s="4">
-        <f>VLOOKUP($J21,$J$43:$Q$173,4,FALSE)</f>
-        <v>20.807714285714287</v>
+        <f t="shared" si="2"/>
+        <v>26.399173809523809</v>
       </c>
       <c r="N21" s="3">
-        <f>VLOOKUP($J21,$J$43:$Q$173,5,FALSE)</f>
-        <v>0.79854604466033252</v>
+        <f t="shared" si="3"/>
+        <v>0.81476776040610333</v>
       </c>
       <c r="P21" s="4">
-        <f>VLOOKUP($J21,$J$43:$Q$173,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>47934</v>
       </c>
       <c r="Q21" s="7">
-        <f>VLOOKUP($J21,$J$43:$Q$173,8,FALSE)</f>
-        <v>2303.6648495750201</v>
+        <f t="shared" si="5"/>
+        <v>1815.7386418929234</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T21" s="10">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="U21" s="10">
-        <v>116</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -17108,41 +17108,41 @@
       </c>
       <c r="H22" s="12"/>
       <c r="J22" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Slaughterhouse</v>
+      </c>
+      <c r="K22" s="4">
         <f t="shared" si="0"/>
-        <v>Slaughterhouse</v>
-      </c>
-      <c r="K22" s="4">
-        <f>VLOOKUP($J22,$J$43:$Q$173,2,FALSE)</f>
-        <v>-57153.23799999999</v>
+        <v>-74004.03</v>
       </c>
       <c r="L22" s="4">
-        <f>VLOOKUP($J22,$J$43:$Q$173,3,FALSE)</f>
-        <v>1150.4242105263158</v>
+        <f t="shared" si="1"/>
+        <v>1340.8113157894738</v>
       </c>
       <c r="M22" s="4">
-        <f>VLOOKUP($J22,$J$43:$Q$173,4,FALSE)</f>
-        <v>-1504.0325789473682</v>
+        <f t="shared" si="2"/>
+        <v>-1947.4744736842106</v>
       </c>
       <c r="N22" s="3">
-        <f>VLOOKUP($J22,$J$43:$Q$173,5,FALSE)</f>
-        <v>-1.3073721547108936</v>
+        <f t="shared" si="3"/>
+        <v>-1.4524597538450306</v>
       </c>
       <c r="P22" s="4">
-        <f>VLOOKUP($J22,$J$43:$Q$173,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>35621</v>
       </c>
       <c r="Q22" s="7">
-        <f>VLOOKUP($J22,$J$43:$Q$173,8,FALSE)</f>
-        <v>-23.683662507450588</v>
+        <f t="shared" si="5"/>
+        <v>-18.290868754039476</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="T22" s="10">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="U22" s="10">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -17163,41 +17163,41 @@
       </c>
       <c r="H23" s="12"/>
       <c r="J23" s="1" t="str">
-        <f>A23</f>
+        <f t="shared" ref="J23:J32" si="7">A23</f>
         <v>Food Factory</v>
       </c>
       <c r="K23" s="4">
-        <f>VLOOKUP($J23,$J$43:$Q$173,2,FALSE)</f>
-        <v>5049.9179999999997</v>
+        <f t="shared" si="0"/>
+        <v>5825.2019</v>
       </c>
       <c r="L23" s="4">
-        <f>VLOOKUP($J23,$J$43:$Q$173,3,FALSE)</f>
-        <v>36.630272727272725</v>
+        <f t="shared" si="1"/>
+        <v>42.173011363636363</v>
       </c>
       <c r="M23" s="4">
-        <f>VLOOKUP($J23,$J$43:$Q$173,4,FALSE)</f>
-        <v>28.692715909090907</v>
+        <f t="shared" si="2"/>
+        <v>33.097738068181819</v>
       </c>
       <c r="N23" s="3">
-        <f>VLOOKUP($J23,$J$43:$Q$173,5,FALSE)</f>
-        <v>0.78330609555434771</v>
+        <f t="shared" si="3"/>
+        <v>0.78480850662517099</v>
       </c>
       <c r="P23" s="4">
-        <f>VLOOKUP($J23,$J$43:$Q$173,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>71504</v>
       </c>
       <c r="Q23" s="7">
-        <f>VLOOKUP($J23,$J$43:$Q$173,8,FALSE)</f>
-        <v>2492.0610592092785</v>
+        <f t="shared" si="5"/>
+        <v>2160.3893248747308</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>29</v>
       </c>
       <c r="T23" s="10">
-        <v>590</v>
+        <v>156</v>
       </c>
       <c r="U23" s="10">
-        <v>652</v>
+        <v>835</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -17218,41 +17218,41 @@
       </c>
       <c r="H24" s="12"/>
       <c r="J24" s="1" t="str">
-        <f>A24</f>
+        <f t="shared" si="7"/>
         <v>Distillery</v>
       </c>
       <c r="K24" s="4">
-        <f>VLOOKUP($J24,$J$43:$Q$173,2,FALSE)</f>
-        <v>122.08799999999997</v>
+        <f t="shared" si="0"/>
+        <v>180.99620000000027</v>
       </c>
       <c r="L24" s="4">
-        <f>VLOOKUP($J24,$J$43:$Q$173,3,FALSE)</f>
-        <v>10.45305109489051</v>
+        <f t="shared" si="1"/>
+        <v>12.253576642335766</v>
       </c>
       <c r="M24" s="4">
-        <f>VLOOKUP($J24,$J$43:$Q$173,4,FALSE)</f>
-        <v>0.89115328467153254</v>
+        <f t="shared" si="2"/>
+        <v>1.3211401459854035</v>
       </c>
       <c r="N24" s="3">
-        <f>VLOOKUP($J24,$J$43:$Q$173,5,FALSE)</f>
-        <v>8.5252934916498352E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.10781669585522491</v>
       </c>
       <c r="P24" s="4">
-        <f>VLOOKUP($J24,$J$43:$Q$173,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>37951</v>
       </c>
       <c r="Q24" s="7">
-        <f>VLOOKUP($J24,$J$43:$Q$173,8,FALSE)</f>
-        <v>42586.388506650954</v>
+        <f t="shared" si="5"/>
+        <v>28725.945627587716</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>30</v>
       </c>
       <c r="T24" s="10">
-        <v>60.51</v>
+        <v>83</v>
       </c>
       <c r="U24" s="10">
-        <v>67</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -17265,7 +17265,7 @@
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
       <c r="J25" s="1">
-        <f>A25</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q25" s="7"/>
@@ -17273,10 +17273,10 @@
         <v>31</v>
       </c>
       <c r="T25" s="10">
-        <v>339</v>
+        <v>436</v>
       </c>
       <c r="U25" s="10">
-        <v>375</v>
+        <v>482</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -17289,7 +17289,7 @@
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
       <c r="J26" s="1">
-        <f>A26</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q26" s="7"/>
@@ -17297,10 +17297,10 @@
         <v>32</v>
       </c>
       <c r="T26" s="10">
-        <v>859</v>
+        <v>1000</v>
       </c>
       <c r="U26" s="10">
-        <v>949</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
@@ -17323,24 +17323,24 @@
       </c>
       <c r="H27" s="12"/>
       <c r="J27" s="1" t="str">
-        <f>A27</f>
+        <f t="shared" si="7"/>
         <v>Fabric Factory</v>
       </c>
       <c r="K27" s="4">
         <f>VLOOKUP($J27,$J$43:$Q$173,2,FALSE)</f>
-        <v>713.57000000000016</v>
+        <v>728.62690000000021</v>
       </c>
       <c r="L27" s="4">
         <f>VLOOKUP($J27,$J$43:$Q$173,3,FALSE)</f>
-        <v>32.474586666666667</v>
+        <v>37.817546666666672</v>
       </c>
       <c r="M27" s="4">
         <f>VLOOKUP($J27,$J$43:$Q$173,4,FALSE)</f>
-        <v>9.5142666666666695</v>
+        <v>9.7150253333333367</v>
       </c>
       <c r="N27" s="3">
         <f>VLOOKUP($J27,$J$43:$Q$173,5,FALSE)</f>
-        <v>0.29297575868556097</v>
+        <v>0.25689200357082925</v>
       </c>
       <c r="P27" s="4">
         <f>VLOOKUP($J27,$J$43:$Q$173,7,FALSE)</f>
@@ -17348,16 +17348,16 @@
       </c>
       <c r="Q27" s="7">
         <f>VLOOKUP($J27,$J$43:$Q$173,8,FALSE)</f>
-        <v>3773.2808273890428</v>
+        <v>3695.3068847718901</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="T27" s="10">
-        <v>838</v>
+        <v>982</v>
       </c>
       <c r="U27" s="10">
-        <v>926</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
@@ -17370,7 +17370,7 @@
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
       <c r="J28" s="1">
-        <f>A28</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q28" s="7"/>
@@ -17378,10 +17378,10 @@
         <v>34</v>
       </c>
       <c r="T28" s="10">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="U28" s="10">
-        <v>72</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
@@ -17394,7 +17394,7 @@
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="J29" s="1">
-        <f>A29</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q29" s="7"/>
@@ -17402,10 +17402,10 @@
         <v>35</v>
       </c>
       <c r="T29" s="10">
-        <v>306</v>
+        <v>352</v>
       </c>
       <c r="U29" s="10">
-        <v>338</v>
+        <v>389</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -17426,24 +17426,24 @@
       </c>
       <c r="H30" s="12"/>
       <c r="J30" s="1" t="str">
-        <f>A30</f>
+        <f t="shared" si="7"/>
         <v>Clothing Factory</v>
       </c>
       <c r="K30" s="4">
         <f>VLOOKUP($J30,$J$43:$Q$173,2,FALSE)</f>
-        <v>4196.2350000000006</v>
+        <v>4993.6090000000004</v>
       </c>
       <c r="L30" s="4">
         <f>VLOOKUP($J30,$J$43:$Q$173,3,FALSE)</f>
-        <v>102.34805454545454</v>
+        <v>121.13329090909092</v>
       </c>
       <c r="M30" s="4">
         <f>VLOOKUP($J30,$J$43:$Q$173,4,FALSE)</f>
-        <v>76.295181818181831</v>
+        <v>90.792890909090914</v>
       </c>
       <c r="N30" s="3">
         <f>VLOOKUP($J30,$J$43:$Q$173,5,FALSE)</f>
-        <v>0.74544828582254896</v>
+        <v>0.7495288060590205</v>
       </c>
       <c r="P30" s="4">
         <f>VLOOKUP($J30,$J$43:$Q$173,7,FALSE)</f>
@@ -17451,16 +17451,16 @@
       </c>
       <c r="Q30" s="7">
         <f>VLOOKUP($J30,$J$43:$Q$173,8,FALSE)</f>
-        <v>645.27010522527928</v>
+        <v>542.23408360566475</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T30" s="10">
-        <v>11705</v>
+        <v>13853</v>
       </c>
       <c r="U30" s="10">
-        <v>12938</v>
+        <v>15311</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
@@ -17473,7 +17473,7 @@
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="J31" s="1">
-        <f>A31</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q31" s="7"/>
@@ -17481,10 +17481,10 @@
         <v>37</v>
       </c>
       <c r="T31" s="10">
-        <v>570</v>
+        <v>664</v>
       </c>
       <c r="U31" s="10">
-        <v>630</v>
+        <v>774</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
@@ -17507,24 +17507,24 @@
       </c>
       <c r="H32" s="13"/>
       <c r="J32" s="1" t="str">
-        <f>A32</f>
+        <f t="shared" si="7"/>
         <v>Prefab Factory</v>
       </c>
       <c r="K32" s="4">
         <f>VLOOKUP($J32,$J$43:$Q$178,2,FALSE)</f>
-        <v>-897.37000000000012</v>
+        <v>-1077.4704999999999</v>
       </c>
       <c r="L32" s="4">
         <f>VLOOKUP($J32,$J$43:$Q$178,3,FALSE)</f>
-        <v>21.41132</v>
+        <v>25.966920000000002</v>
       </c>
       <c r="M32" s="4">
         <f>VLOOKUP($J32,$J$43:$Q$178,4,FALSE)</f>
-        <v>-17.947400000000002</v>
+        <v>-21.549409999999998</v>
       </c>
       <c r="N32" s="3">
         <f>VLOOKUP($J32,$J$43:$Q$178,5,FALSE)</f>
-        <v>-0.83822015644061187</v>
+        <v>-0.82987932338529169</v>
       </c>
       <c r="P32" s="4">
         <f>VLOOKUP($J32,$J$43:$Q$178,7,FALSE)</f>
@@ -17532,39 +17532,39 @@
       </c>
       <c r="Q32" s="7">
         <f>VLOOKUP($J32,$J$43:$Q$178,8,FALSE)</f>
-        <v>-2053.7793775142918</v>
+        <v>-1710.4876653235517</v>
       </c>
       <c r="S32" s="1" t="s">
         <v>38</v>
       </c>
       <c r="T32" s="10">
-        <v>499</v>
+        <v>620</v>
       </c>
       <c r="U32" s="10">
-        <v>552</v>
+        <v>685</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K33" s="4">
         <f>SUM(K5:K32)</f>
-        <v>-55892.323859999982</v>
+        <v>-86920.310400000002</v>
       </c>
       <c r="L33" s="4">
         <f>SUM(L5:L32)</f>
-        <v>4897.8768979180695</v>
+        <v>6319.0388203763814</v>
       </c>
       <c r="M33" s="4">
         <f>SUM(M5:M32)</f>
-        <v>-3427.7336229690841</v>
+        <v>-4178.1207622366601</v>
       </c>
       <c r="S33" s="1" t="s">
         <v>39</v>
       </c>
       <c r="T33" s="10">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="U33" s="10">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
@@ -17572,10 +17572,10 @@
         <v>40</v>
       </c>
       <c r="T34" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="U34" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
@@ -17583,10 +17583,10 @@
         <v>41</v>
       </c>
       <c r="T35" s="10">
-        <v>2213</v>
+        <v>2780</v>
       </c>
       <c r="U35" s="10">
-        <v>2447</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
@@ -17594,10 +17594,10 @@
         <v>42</v>
       </c>
       <c r="T36" s="10">
-        <v>2499</v>
+        <v>3429</v>
       </c>
       <c r="U36" s="10">
-        <v>2762</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
@@ -17624,10 +17624,10 @@
         <v>43</v>
       </c>
       <c r="T37" s="10">
-        <v>1103</v>
+        <v>1323</v>
       </c>
       <c r="U37" s="10">
-        <v>1219</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
@@ -17635,10 +17635,10 @@
         <v>44</v>
       </c>
       <c r="T38" s="10">
-        <v>2486</v>
+        <v>3154</v>
       </c>
       <c r="U38" s="10">
-        <v>2748</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
@@ -17726,11 +17726,11 @@
       </c>
       <c r="T41" s="4">
         <f>T9</f>
-        <v>5.35</v>
+        <v>7</v>
       </c>
       <c r="U41" s="4">
         <f>U9</f>
-        <v>5.91</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
@@ -17751,7 +17751,7 @@
       </c>
       <c r="G42" s="4">
         <f>IF(NOT(ISBLANK(G41)),VLOOKUP(G41,$S$41:$U$70,2,FALSE),0)</f>
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H42" s="4">
         <f>IF(NOT(ISBLANK(H41)),VLOOKUP(H41,$S$41:$U$70,2,FALSE),0)</f>
@@ -17761,12 +17761,12 @@
         <v>16</v>
       </c>
       <c r="T42" s="4">
-        <f t="shared" ref="T42:T70" si="1">T10-$T$5</f>
-        <v>19.91</v>
+        <f t="shared" ref="T42:T70" si="8">T10-$T$5</f>
+        <v>24.7</v>
       </c>
       <c r="U42" s="4">
         <f>U10+$T$6</f>
-        <v>29</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
@@ -17788,7 +17788,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="6">
         <f>G40*G42</f>
-        <v>596.36</v>
+        <v>877</v>
       </c>
       <c r="H43" s="6">
         <f>H40*H42</f>
@@ -17801,15 +17801,15 @@
       </c>
       <c r="K43" s="4">
         <f>SUM(G43:H43)-SUM(C43:E43)</f>
-        <v>596.36</v>
+        <v>877</v>
       </c>
       <c r="L43" s="4">
         <f>SUM(G43:H43)/B40</f>
-        <v>85.194285714285712</v>
+        <v>125.28571428571429</v>
       </c>
       <c r="M43" s="4">
         <f>K43/B40</f>
-        <v>85.194285714285712</v>
+        <v>125.28571428571429</v>
       </c>
       <c r="N43" s="3">
         <f>K43/SUM(G43:H43)</f>
@@ -17821,18 +17821,18 @@
       </c>
       <c r="Q43" s="5">
         <f>P43/K43*B40</f>
-        <v>48.794352404587833</v>
+        <v>33.180159635119722</v>
       </c>
       <c r="S43" t="s">
         <v>17</v>
       </c>
       <c r="T43" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>6.6999999999999993</v>
       </c>
       <c r="U43" s="4">
         <f>U11+$T$6</f>
-        <v>13</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
@@ -17840,12 +17840,12 @@
         <v>18</v>
       </c>
       <c r="T44" s="4">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f t="shared" si="8"/>
+        <v>24.5</v>
       </c>
       <c r="U44" s="4">
-        <f t="shared" ref="U44:U70" si="2">U12+$T$6</f>
-        <v>30</v>
+        <f t="shared" ref="U44:U70" si="9">U12+$T$6</f>
+        <v>34.299999999999997</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
@@ -17880,12 +17880,12 @@
         <v>19</v>
       </c>
       <c r="T45" s="4">
-        <f t="shared" si="1"/>
-        <v>1622</v>
+        <f t="shared" si="8"/>
+        <v>2243</v>
       </c>
       <c r="U45" s="4">
-        <f t="shared" si="2"/>
-        <v>1800</v>
+        <f t="shared" si="9"/>
+        <v>2486</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
@@ -17902,12 +17902,12 @@
         <v>20</v>
       </c>
       <c r="T46" s="4">
-        <f t="shared" si="1"/>
-        <v>47</v>
+        <f t="shared" si="8"/>
+        <v>57</v>
       </c>
       <c r="U46" s="4">
-        <f t="shared" si="2"/>
-        <v>550</v>
+        <f t="shared" si="9"/>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
@@ -17916,7 +17916,7 @@
       </c>
       <c r="C47" s="4">
         <f>IF(NOT(ISBLANK(C46)),VLOOKUP(C46,$S$41:$U$70,3,FALSE),0)</f>
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D47" s="4">
         <f>IF(NOT(ISBLANK(D46)),VLOOKUP(D46,$S$41:$U$70,3,FALSE),0)</f>
@@ -17928,7 +17928,7 @@
       </c>
       <c r="G47" s="4">
         <f>IF(NOT(ISBLANK(G46)),VLOOKUP(G46,$S$41:$U$70,2,FALSE),0)</f>
-        <v>58.51</v>
+        <v>81</v>
       </c>
       <c r="H47" s="4">
         <f>IF(NOT(ISBLANK(H46)),VLOOKUP(H46,$S$41:$U$70,2,FALSE),0)</f>
@@ -17938,12 +17938,12 @@
         <v>21</v>
       </c>
       <c r="T47" s="4">
-        <f t="shared" si="1"/>
-        <v>51</v>
+        <f t="shared" si="8"/>
+        <v>64</v>
       </c>
       <c r="U47" s="4">
-        <f t="shared" si="2"/>
-        <v>64</v>
+        <f t="shared" si="9"/>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
@@ -17952,7 +17952,7 @@
       </c>
       <c r="C48" s="6">
         <f>C47*C45</f>
-        <v>1172.886</v>
+        <v>1578.885</v>
       </c>
       <c r="D48" s="6">
         <f>D47*D45</f>
@@ -17965,7 +17965,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="6">
         <f>G45*G47</f>
-        <v>1358.2511399999999</v>
+        <v>1880.3339999999998</v>
       </c>
       <c r="H48" s="6">
         <f>H45*H47</f>
@@ -17978,19 +17978,19 @@
       </c>
       <c r="K48" s="4">
         <f>SUM(G48:H48)-SUM(C48:E48)</f>
-        <v>185.36513999999988</v>
+        <v>301.44899999999984</v>
       </c>
       <c r="L48" s="4">
         <f>SUM(G48:H48)/B45</f>
-        <v>339.56278499999996</v>
+        <v>470.08349999999996</v>
       </c>
       <c r="M48" s="4">
         <f>K48/B45</f>
-        <v>46.341284999999971</v>
+        <v>75.36224999999996</v>
       </c>
       <c r="N48" s="3">
         <f>K48/SUM(G48:H48)</f>
-        <v>0.13647339180587759</v>
+        <v>0.16031673096375423</v>
       </c>
       <c r="O48" s="1"/>
       <c r="P48" s="4">
@@ -17998,18 +17998,18 @@
       </c>
       <c r="Q48" s="5">
         <f>P48/K48*B45</f>
-        <v>469.64601866348795</v>
+        <v>288.79180226174259</v>
       </c>
       <c r="S48" t="s">
         <v>22</v>
       </c>
       <c r="T48" s="4">
-        <f t="shared" si="1"/>
-        <v>17</v>
+        <f t="shared" si="8"/>
+        <v>25</v>
       </c>
       <c r="U48" s="4">
-        <f t="shared" si="2"/>
-        <v>26</v>
+        <f t="shared" si="9"/>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
@@ -18017,12 +18017,12 @@
         <v>23</v>
       </c>
       <c r="T49" s="4">
-        <f t="shared" si="1"/>
-        <v>57</v>
+        <f t="shared" si="8"/>
+        <v>77</v>
       </c>
       <c r="U49" s="4">
-        <f t="shared" si="2"/>
-        <v>70</v>
+        <f t="shared" si="9"/>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
@@ -18057,12 +18057,12 @@
         <v>24</v>
       </c>
       <c r="T50" s="4">
-        <f t="shared" si="1"/>
-        <v>2705</v>
+        <f t="shared" si="8"/>
+        <v>3414</v>
       </c>
       <c r="U50" s="4">
-        <f t="shared" si="2"/>
-        <v>2998</v>
+        <f t="shared" si="9"/>
+        <v>3781</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
@@ -18076,12 +18076,12 @@
         <v>25</v>
       </c>
       <c r="T51" s="4">
-        <f t="shared" si="1"/>
-        <v>86</v>
+        <f t="shared" si="8"/>
+        <v>111</v>
       </c>
       <c r="U51" s="4">
-        <f t="shared" si="2"/>
-        <v>102</v>
+        <f t="shared" si="9"/>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
@@ -18102,7 +18102,7 @@
       </c>
       <c r="G52" s="4">
         <f>IF(NOT(ISBLANK(G51)),VLOOKUP(G51,$S$41:$U$70,2,FALSE),0)</f>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="H52" s="4">
         <f>IF(NOT(ISBLANK(H51)),VLOOKUP(H51,$S$41:$U$70,2,FALSE),0)</f>
@@ -18112,12 +18112,12 @@
         <v>26</v>
       </c>
       <c r="T52" s="4">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f t="shared" si="8"/>
+        <v>12</v>
       </c>
       <c r="U52" s="4">
-        <f t="shared" si="2"/>
-        <v>17</v>
+        <f t="shared" si="9"/>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
@@ -18139,7 +18139,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="6">
         <f>G50*G52</f>
-        <v>6448.576</v>
+        <v>10881.972</v>
       </c>
       <c r="H53" s="6">
         <f>H50*H52</f>
@@ -18152,15 +18152,15 @@
       </c>
       <c r="K53" s="4">
         <f>SUM(G53:H53)-SUM(C53:E53)</f>
-        <v>6448.576</v>
+        <v>10881.972</v>
       </c>
       <c r="L53" s="4">
         <f>SUM(G53:H53)/B50</f>
-        <v>47.767229629629632</v>
+        <v>80.607199999999992</v>
       </c>
       <c r="M53" s="4">
         <f>K53/B50</f>
-        <v>47.767229629629632</v>
+        <v>80.607199999999992</v>
       </c>
       <c r="N53" s="3">
         <f>K53/SUM(G53:H53)</f>
@@ -18172,18 +18172,18 @@
       </c>
       <c r="Q53" s="5">
         <f>P53/K53*B50</f>
-        <v>1779.839456028742</v>
+        <v>1054.7196776466619</v>
       </c>
       <c r="S53" t="s">
         <v>27</v>
       </c>
       <c r="T53" s="4">
-        <f t="shared" si="1"/>
-        <v>103</v>
+        <f t="shared" si="8"/>
+        <v>163</v>
       </c>
       <c r="U53" s="4">
-        <f t="shared" si="2"/>
-        <v>121</v>
+        <f t="shared" si="9"/>
+        <v>187</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
@@ -18191,12 +18191,12 @@
         <v>28</v>
       </c>
       <c r="T54" s="4">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f t="shared" si="8"/>
+        <v>27</v>
       </c>
       <c r="U54" s="4">
-        <f t="shared" si="2"/>
-        <v>25</v>
+        <f t="shared" si="9"/>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
@@ -18231,12 +18231,12 @@
         <v>29</v>
       </c>
       <c r="T55" s="4">
-        <f t="shared" si="1"/>
-        <v>588</v>
+        <f t="shared" si="8"/>
+        <v>154</v>
       </c>
       <c r="U55" s="4">
-        <f t="shared" si="2"/>
-        <v>657</v>
+        <f t="shared" si="9"/>
+        <v>840</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
@@ -18253,12 +18253,12 @@
         <v>30</v>
       </c>
       <c r="T56" s="4">
-        <f t="shared" si="1"/>
-        <v>58.51</v>
+        <f t="shared" si="8"/>
+        <v>81</v>
       </c>
       <c r="U56" s="4">
-        <f t="shared" si="2"/>
-        <v>72</v>
+        <f t="shared" si="9"/>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
@@ -18267,7 +18267,7 @@
       </c>
       <c r="C57" s="4">
         <f>IF(NOT(ISBLANK(C56)),VLOOKUP(C56,$S$41:$U$70,3,FALSE),0)</f>
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D57" s="4">
         <f>IF(NOT(ISBLANK(D56)),VLOOKUP(D56,$S$41:$U$70,3,FALSE),0)</f>
@@ -18279,7 +18279,7 @@
       </c>
       <c r="G57" s="4">
         <f>IF(NOT(ISBLANK(G56)),VLOOKUP(G56,$S$41:$U$70,2,FALSE),0)</f>
-        <v>103</v>
+        <v>163</v>
       </c>
       <c r="H57" s="4">
         <f>IF(NOT(ISBLANK(H56)),VLOOKUP(H56,$S$41:$U$70,2,FALSE),0)</f>
@@ -18289,12 +18289,12 @@
         <v>31</v>
       </c>
       <c r="T57" s="4">
-        <f t="shared" si="1"/>
-        <v>337</v>
+        <f t="shared" si="8"/>
+        <v>434</v>
       </c>
       <c r="U57" s="4">
-        <f t="shared" si="2"/>
-        <v>380</v>
+        <f t="shared" si="9"/>
+        <v>487</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
@@ -18303,7 +18303,7 @@
       </c>
       <c r="C58" s="6">
         <f>C57*C55</f>
-        <v>3310.2</v>
+        <v>5031.5039999999999</v>
       </c>
       <c r="D58" s="6">
         <f>D57*D55</f>
@@ -18316,7 +18316,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="6">
         <f>G55*G57</f>
-        <v>4036.261</v>
+        <v>6387.4809999999998</v>
       </c>
       <c r="H58" s="6">
         <f>H55*H57</f>
@@ -18329,19 +18329,19 @@
       </c>
       <c r="K58" s="4">
         <f>SUM(G58:H58)-SUM(C58:E58)</f>
-        <v>726.06100000000015</v>
+        <v>1355.9769999999999</v>
       </c>
       <c r="L58" s="4">
         <f>SUM(G58:H58)/B55</f>
-        <v>504.532625</v>
+        <v>798.43512499999997</v>
       </c>
       <c r="M58" s="4">
         <f>K58/B55</f>
-        <v>90.757625000000019</v>
+        <v>169.49712499999998</v>
       </c>
       <c r="N58" s="3">
         <f>K58/SUM(G58:H58)</f>
-        <v>0.17988455156889016</v>
+        <v>0.21228665885659775</v>
       </c>
       <c r="O58" s="1"/>
       <c r="P58" s="4">
@@ -18349,18 +18349,18 @@
       </c>
       <c r="Q58" s="5">
         <f>P58/K58*B55</f>
-        <v>1617.6051323511383</v>
+        <v>866.15038455667025</v>
       </c>
       <c r="S58" t="s">
         <v>32</v>
       </c>
       <c r="T58" s="4">
-        <f t="shared" si="1"/>
-        <v>857</v>
+        <f t="shared" si="8"/>
+        <v>998</v>
       </c>
       <c r="U58" s="4">
-        <f t="shared" si="2"/>
-        <v>954</v>
+        <f t="shared" si="9"/>
+        <v>1111</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
@@ -18368,12 +18368,12 @@
         <v>33</v>
       </c>
       <c r="T59" s="4">
-        <f t="shared" si="1"/>
-        <v>836</v>
+        <f t="shared" si="8"/>
+        <v>980</v>
       </c>
       <c r="U59" s="4">
-        <f t="shared" si="2"/>
-        <v>931</v>
+        <f t="shared" si="9"/>
+        <v>1091</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
@@ -18408,12 +18408,12 @@
         <v>34</v>
       </c>
       <c r="T60" s="4">
-        <f t="shared" si="1"/>
-        <v>63</v>
+        <f t="shared" si="8"/>
+        <v>81</v>
       </c>
       <c r="U60" s="4">
-        <f t="shared" si="2"/>
-        <v>77</v>
+        <f t="shared" si="9"/>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
@@ -18436,12 +18436,12 @@
         <v>35</v>
       </c>
       <c r="T61" s="4">
-        <f t="shared" si="1"/>
-        <v>304</v>
+        <f t="shared" si="8"/>
+        <v>350</v>
       </c>
       <c r="U61" s="4">
-        <f t="shared" si="2"/>
-        <v>343</v>
+        <f t="shared" si="9"/>
+        <v>394</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
@@ -18450,19 +18450,19 @@
       </c>
       <c r="C62" s="4">
         <f>IF(NOT(ISBLANK(C61)),VLOOKUP(C61,$S$41:$U$70,3,FALSE),0)</f>
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="D62" s="4">
         <f>IF(NOT(ISBLANK(D61)),VLOOKUP(D61,$S$41:$U$70,3,FALSE),0)</f>
-        <v>121</v>
+        <v>187</v>
       </c>
       <c r="E62" s="4">
         <f>IF(NOT(ISBLANK(E61)),VLOOKUP(E61,$S$41:$U$70,3,FALSE),0)</f>
-        <v>5.91</v>
+        <v>7.8</v>
       </c>
       <c r="G62" s="4">
         <f>IF(NOT(ISBLANK(G61)),VLOOKUP(G61,$S$41:$U$70,2,FALSE),0)</f>
-        <v>1622</v>
+        <v>2243</v>
       </c>
       <c r="H62" s="4">
         <f>IF(NOT(ISBLANK(H61)),VLOOKUP(H61,$S$41:$U$70,2,FALSE),0)</f>
@@ -18472,12 +18472,12 @@
         <v>36</v>
       </c>
       <c r="T62" s="4">
-        <f t="shared" si="1"/>
-        <v>11703</v>
+        <f t="shared" si="8"/>
+        <v>13851</v>
       </c>
       <c r="U62" s="4">
-        <f t="shared" si="2"/>
-        <v>12943</v>
+        <f t="shared" si="9"/>
+        <v>15316</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
@@ -18486,11 +18486,11 @@
       </c>
       <c r="C63" s="6">
         <f>C62*C60</f>
-        <v>43180.883999999998</v>
+        <v>55034.46</v>
       </c>
       <c r="D63" s="6">
         <f>D62*D60</f>
-        <v>23179.728000000003</v>
+        <v>35823.216</v>
       </c>
       <c r="E63" s="6">
         <f>E62*E60</f>
@@ -18499,7 +18499,7 @@
       <c r="F63" s="1"/>
       <c r="G63" s="6">
         <f>G60*G62</f>
-        <v>27710.248</v>
+        <v>38319.411999999997</v>
       </c>
       <c r="H63" s="6">
         <f>H60*H62</f>
@@ -18512,19 +18512,19 @@
       </c>
       <c r="K63" s="4">
         <f>SUM(G63:H63)-SUM(C63:E63)</f>
-        <v>-38650.363999999994</v>
+        <v>-52538.26400000001</v>
       </c>
       <c r="L63" s="4">
         <f>SUM(G63:H63)/B60</f>
-        <v>58.214806722689076</v>
+        <v>80.502966386554618</v>
       </c>
       <c r="M63" s="4">
         <f>K63/B60</f>
-        <v>-81.198243697478986</v>
+        <v>-110.37450420168069</v>
       </c>
       <c r="N63" s="3">
         <f>K63/SUM(G63:H63)</f>
-        <v>-1.3948039728839667</v>
+        <v>-1.3710613304817938</v>
       </c>
       <c r="O63" s="1"/>
       <c r="P63" s="4">
@@ -18532,18 +18532,18 @@
       </c>
       <c r="Q63" s="5">
         <f>P63/K63*B60</f>
-        <v>-3165.4625555402276</v>
+        <v>-2328.7080821703585</v>
       </c>
       <c r="S63" t="s">
         <v>37</v>
       </c>
       <c r="T63" s="4">
-        <f t="shared" si="1"/>
-        <v>568</v>
+        <f t="shared" si="8"/>
+        <v>662</v>
       </c>
       <c r="U63" s="4">
-        <f t="shared" si="2"/>
-        <v>635</v>
+        <f t="shared" si="9"/>
+        <v>779</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.25">
@@ -18551,12 +18551,12 @@
         <v>38</v>
       </c>
       <c r="T64" s="4">
-        <f t="shared" si="1"/>
-        <v>497</v>
+        <f t="shared" si="8"/>
+        <v>618</v>
       </c>
       <c r="U64" s="4">
-        <f t="shared" si="2"/>
-        <v>557</v>
+        <f t="shared" si="9"/>
+        <v>690</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
@@ -18591,12 +18591,12 @@
         <v>39</v>
       </c>
       <c r="T65" s="4">
-        <f t="shared" si="1"/>
-        <v>56</v>
+        <f t="shared" si="8"/>
+        <v>72</v>
       </c>
       <c r="U65" s="4">
-        <f t="shared" si="2"/>
-        <v>69</v>
+        <f t="shared" si="9"/>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
@@ -18610,12 +18610,12 @@
         <v>40</v>
       </c>
       <c r="T66" s="4">
-        <f t="shared" si="1"/>
-        <v>17</v>
+        <f t="shared" si="8"/>
+        <v>22</v>
       </c>
       <c r="U66" s="4">
-        <f t="shared" si="2"/>
-        <v>27</v>
+        <f t="shared" si="9"/>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
@@ -18636,7 +18636,7 @@
       </c>
       <c r="G67" s="4">
         <f>IF(NOT(ISBLANK(G66)),VLOOKUP(G66,$S$41:$U$70,2,FALSE),0)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H67" s="4">
         <f>IF(NOT(ISBLANK(H66)),VLOOKUP(H66,$S$41:$U$70,2,FALSE),0)</f>
@@ -18646,12 +18646,12 @@
         <v>41</v>
       </c>
       <c r="T67" s="4">
-        <f t="shared" si="1"/>
-        <v>2211</v>
+        <f t="shared" si="8"/>
+        <v>2778</v>
       </c>
       <c r="U67" s="4">
-        <f t="shared" si="2"/>
-        <v>2452</v>
+        <f t="shared" si="9"/>
+        <v>3077</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
@@ -18673,7 +18673,7 @@
       <c r="F68" s="1"/>
       <c r="G68" s="6">
         <f>G65*G67</f>
-        <v>7808.4000000000005</v>
+        <v>10411.200000000001</v>
       </c>
       <c r="H68" s="6">
         <f>H65*H67</f>
@@ -18686,15 +18686,15 @@
       </c>
       <c r="K68" s="4">
         <f>SUM(G68:H68)-SUM(C68:E68)</f>
-        <v>7808.4000000000005</v>
+        <v>10411.200000000001</v>
       </c>
       <c r="L68" s="4">
         <f>SUM(G68:H68)/B65</f>
-        <v>26.469152542372882</v>
+        <v>35.292203389830512</v>
       </c>
       <c r="M68" s="4">
         <f>K68/B65</f>
-        <v>26.469152542372882</v>
+        <v>35.292203389830512</v>
       </c>
       <c r="N68" s="3">
         <f>K68/SUM(G68:H68)</f>
@@ -18706,18 +18706,18 @@
       </c>
       <c r="Q68" s="5">
         <f>P68/K68*B65</f>
-        <v>3194.9643973157113</v>
+        <v>2396.2232979867831</v>
       </c>
       <c r="S68" t="s">
         <v>42</v>
       </c>
       <c r="T68" s="4">
-        <f t="shared" si="1"/>
-        <v>2497</v>
+        <f t="shared" si="8"/>
+        <v>3427</v>
       </c>
       <c r="U68" s="4">
-        <f t="shared" si="2"/>
-        <v>2767</v>
+        <f t="shared" si="9"/>
+        <v>3795</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
@@ -18725,12 +18725,12 @@
         <v>43</v>
       </c>
       <c r="T69" s="4">
-        <f t="shared" si="1"/>
-        <v>1101</v>
+        <f t="shared" si="8"/>
+        <v>1321</v>
       </c>
       <c r="U69" s="4">
-        <f t="shared" si="2"/>
-        <v>1224</v>
+        <f t="shared" si="9"/>
+        <v>1467</v>
       </c>
       <c r="V69" s="5"/>
     </row>
@@ -18766,12 +18766,12 @@
         <v>44</v>
       </c>
       <c r="T70" s="4">
-        <f t="shared" si="1"/>
-        <v>2484</v>
+        <f t="shared" si="8"/>
+        <v>3152</v>
       </c>
       <c r="U70" s="4">
-        <f t="shared" si="2"/>
-        <v>2753</v>
+        <f t="shared" si="9"/>
+        <v>3492</v>
       </c>
       <c r="V70" s="5"/>
     </row>
@@ -18792,7 +18792,7 @@
       </c>
       <c r="C72" s="4">
         <f>IF(NOT(ISBLANK(C71)),VLOOKUP(C71,$S$41:$U$70,3,FALSE),0)</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D72" s="4">
         <f>IF(NOT(ISBLANK(D71)),VLOOKUP(D71,$S$41:$U$70,3,FALSE),0)</f>
@@ -18804,7 +18804,7 @@
       </c>
       <c r="G72" s="4">
         <f>IF(NOT(ISBLANK(G71)),VLOOKUP(G71,$S$41:$U$70,2,FALSE),0)</f>
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="H72" s="4">
         <f>IF(NOT(ISBLANK(H71)),VLOOKUP(H71,$S$41:$U$70,2,FALSE),0)</f>
@@ -18817,7 +18817,7 @@
       </c>
       <c r="C73" s="6">
         <f>C72*C70</f>
-        <v>4302.7510000000002</v>
+        <v>5315.1630000000005</v>
       </c>
       <c r="D73" s="6">
         <f>D72*D70</f>
@@ -18830,7 +18830,7 @@
       <c r="F73" s="1"/>
       <c r="G73" s="6">
         <f>G70*G72</f>
-        <v>4337.3239999999996</v>
+        <v>5598.174</v>
       </c>
       <c r="H73" s="6">
         <f>H70*H72</f>
@@ -18843,19 +18843,19 @@
       </c>
       <c r="K73" s="4">
         <f>SUM(G73:H73)-SUM(C73:E73)</f>
-        <v>34.572999999999411</v>
+        <v>283.01099999999951</v>
       </c>
       <c r="L73" s="4">
         <f>SUM(G73:H73)/B70</f>
-        <v>139.91367741935483</v>
+        <v>180.58625806451613</v>
       </c>
       <c r="M73" s="4">
         <f>K73/B70</f>
-        <v>1.1152580645161101</v>
+        <v>9.1293870967741775</v>
       </c>
       <c r="N73" s="3">
         <f>K73/SUM(G73:H73)</f>
-        <v>7.971043897112463E-3</v>
+        <v>5.0554162839525803E-2</v>
       </c>
       <c r="O73" s="1"/>
       <c r="P73" s="4">
@@ -18863,7 +18863,7 @@
       </c>
       <c r="Q73" s="5">
         <f>P73/K73*B70</f>
-        <v>131637.6941544002</v>
+        <v>16081.035719459695</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
@@ -18912,7 +18912,7 @@
       </c>
       <c r="C77" s="4">
         <f>IF(NOT(ISBLANK(C76)),VLOOKUP(C76,$S$41:$U$70,3,FALSE),0)</f>
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="D77" s="4">
         <f>IF(NOT(ISBLANK(D76)),VLOOKUP(D76,$S$41:$U$70,3,FALSE),0)</f>
@@ -18924,7 +18924,7 @@
       </c>
       <c r="G77" s="4">
         <f>IF(NOT(ISBLANK(G76)),VLOOKUP(G76,$S$41:$U$70,2,FALSE),0)</f>
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="H77" s="4">
         <f>IF(NOT(ISBLANK(H76)),VLOOKUP(H76,$S$41:$U$70,2,FALSE),0)</f>
@@ -18937,7 +18937,7 @@
       </c>
       <c r="C78" s="6">
         <f>C77*C75</f>
-        <v>1125.672</v>
+        <v>1434.6799999999998</v>
       </c>
       <c r="D78" s="6">
         <f>D77*D75</f>
@@ -18950,7 +18950,7 @@
       <c r="F78" s="1"/>
       <c r="G78" s="6">
         <f>G75*G77</f>
-        <v>943.5</v>
+        <v>1184</v>
       </c>
       <c r="H78" s="6">
         <f>H75*H77</f>
@@ -18963,19 +18963,19 @@
       </c>
       <c r="K78" s="4">
         <f>SUM(G78:H78)-SUM(C78:E78)</f>
-        <v>-182.17200000000003</v>
+        <v>-250.67999999999984</v>
       </c>
       <c r="L78" s="4">
         <f>SUM(G78:H78)/B75</f>
-        <v>27.75</v>
+        <v>34.823529411764703</v>
       </c>
       <c r="M78" s="4">
         <f>K78/B75</f>
-        <v>-5.3580000000000005</v>
+        <v>-7.372941176470583</v>
       </c>
       <c r="N78" s="3">
         <f>K78/SUM(G78:H78)</f>
-        <v>-0.1930810810810811</v>
+        <v>-0.21172297297297282</v>
       </c>
       <c r="O78" s="1"/>
       <c r="P78" s="4">
@@ -18983,7 +18983,7 @@
       </c>
       <c r="Q78" s="5">
         <f>P78/K78*B75</f>
-        <v>-10576.334453154161</v>
+        <v>-7685.9422371150522</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.25">
@@ -19032,7 +19032,7 @@
       </c>
       <c r="C82" s="4">
         <f>IF(NOT(ISBLANK(C81)),VLOOKUP(C81,$S$41:$U$70,3,FALSE),0)</f>
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="D82" s="4">
         <f>IF(NOT(ISBLANK(D81)),VLOOKUP(D81,$S$41:$U$70,3,FALSE),0)</f>
@@ -19044,7 +19044,7 @@
       </c>
       <c r="G82" s="4">
         <f>IF(NOT(ISBLANK(G81)),VLOOKUP(G81,$S$41:$U$70,2,FALSE),0)</f>
-        <v>5.35</v>
+        <v>7</v>
       </c>
       <c r="H82" s="4">
         <f>IF(NOT(ISBLANK(H81)),VLOOKUP(H81,$S$41:$U$70,2,FALSE),0)</f>
@@ -19057,7 +19057,7 @@
       </c>
       <c r="C83" s="6">
         <f>C82*C80</f>
-        <v>3279.81</v>
+        <v>4180.1500000000005</v>
       </c>
       <c r="D83" s="6">
         <f>D82*D80</f>
@@ -19070,7 +19070,7 @@
       <c r="F83" s="1"/>
       <c r="G83" s="6">
         <f>G80*G82</f>
-        <v>7376.4622999999992</v>
+        <v>9651.4459999999999</v>
       </c>
       <c r="H83" s="6">
         <f>H80*H82</f>
@@ -19083,19 +19083,19 @@
       </c>
       <c r="K83" s="4">
         <f>SUM(G83:H83)-SUM(C83:E83)</f>
-        <v>4096.6522999999997</v>
+        <v>5471.2959999999994</v>
       </c>
       <c r="L83" s="4">
         <f>SUM(G83:H83)/B80</f>
-        <v>147.52924599999997</v>
+        <v>193.02892</v>
       </c>
       <c r="M83" s="4">
         <f>K83/B80</f>
-        <v>81.93304599999999</v>
+        <v>109.42591999999999</v>
       </c>
       <c r="N83" s="3">
         <f>K83/SUM(G83:H83)</f>
-        <v>0.55536816069676109</v>
+        <v>0.56688873356386182</v>
       </c>
       <c r="O83" s="1"/>
       <c r="P83" s="4">
@@ -19103,7 +19103,7 @@
       </c>
       <c r="Q83" s="5">
         <f>P83/K83*B80</f>
-        <v>3087.4233578475773</v>
+        <v>2311.719197791529</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
@@ -19161,7 +19161,7 @@
       </c>
       <c r="G87" s="4">
         <f>IF(NOT(ISBLANK(G86)),VLOOKUP(G86,$S$41:$U$70,2,FALSE),0)</f>
-        <v>5</v>
+        <v>6.6999999999999993</v>
       </c>
       <c r="H87" s="4">
         <f>IF(NOT(ISBLANK(H86)),VLOOKUP(H86,$S$41:$U$70,2,FALSE),0)</f>
@@ -19187,7 +19187,7 @@
       <c r="F88" s="1"/>
       <c r="G88" s="6">
         <f>G85*G87</f>
-        <v>756.3549999999999</v>
+        <v>1013.5156999999998</v>
       </c>
       <c r="H88" s="6">
         <f>H85*H87</f>
@@ -19200,15 +19200,15 @@
       </c>
       <c r="K88" s="4">
         <f>SUM(G88:H88)-SUM(C88:E88)</f>
-        <v>756.3549999999999</v>
+        <v>1013.5156999999998</v>
       </c>
       <c r="L88" s="4">
         <f>SUM(G88:H88)/B85</f>
-        <v>15.43581632653061</v>
+        <v>20.683993877551018</v>
       </c>
       <c r="M88" s="4">
         <f>K88/B85</f>
-        <v>15.43581632653061</v>
+        <v>20.683993877551018</v>
       </c>
       <c r="N88" s="3">
         <f>K88/SUM(G88:H88)</f>
@@ -19220,7 +19220,7 @@
       </c>
       <c r="Q88" s="5">
         <f>P88/K88*B85</f>
-        <v>106.31118985132643</v>
+        <v>79.336708844273474</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
@@ -19272,11 +19272,11 @@
       </c>
       <c r="C92" s="4">
         <f>IF(NOT(ISBLANK(C91)),VLOOKUP(C91,$S$41:$U$70,3,FALSE),0)</f>
-        <v>13</v>
+        <v>14.6</v>
       </c>
       <c r="D92" s="4">
         <f>IF(NOT(ISBLANK(D91)),VLOOKUP(D91,$S$41:$U$70,3,FALSE),0)</f>
-        <v>5.91</v>
+        <v>7.8</v>
       </c>
       <c r="E92" s="4">
         <f>IF(NOT(ISBLANK(E91)),VLOOKUP(E91,$S$41:$U$70,3,FALSE),0)</f>
@@ -19284,7 +19284,7 @@
       </c>
       <c r="G92" s="4">
         <f>IF(NOT(ISBLANK(G91)),VLOOKUP(G91,$S$41:$U$70,2,FALSE),0)</f>
-        <v>19.91</v>
+        <v>24.7</v>
       </c>
       <c r="H92" s="4">
         <f>IF(NOT(ISBLANK(H91)),VLOOKUP(H91,$S$41:$U$70,2,FALSE),0)</f>
@@ -19297,7 +19297,7 @@
       </c>
       <c r="C93" s="6">
         <f>C92*C90</f>
-        <v>1508.4680000000001</v>
+        <v>1694.1256000000001</v>
       </c>
       <c r="D93" s="6">
         <f>D92*D90</f>
@@ -19310,7 +19310,7 @@
       <c r="F93" s="1"/>
       <c r="G93" s="6">
         <f>G90*G92</f>
-        <v>2773.5227300000001</v>
+        <v>3440.7840999999999</v>
       </c>
       <c r="H93" s="6">
         <f>H90*H92</f>
@@ -19323,19 +19323,19 @@
       </c>
       <c r="K93" s="4">
         <f>SUM(G93:H93)-SUM(C93:E93)</f>
-        <v>1265.0547300000001</v>
+        <v>1746.6584999999998</v>
       </c>
       <c r="L93" s="4">
         <f>SUM(G93:H93)/B90</f>
-        <v>163.14839588235296</v>
+        <v>202.39906470588235</v>
       </c>
       <c r="M93" s="4">
         <f>K93/B90</f>
-        <v>74.414984117647066</v>
+        <v>102.74461764705882</v>
       </c>
       <c r="N93" s="3">
         <f>K93/SUM(G93:H93)</f>
-        <v>0.45611839279932637</v>
+        <v>0.50763385589929921</v>
       </c>
       <c r="O93" s="1"/>
       <c r="P93" s="4">
@@ -19343,7 +19343,7 @@
       </c>
       <c r="Q93" s="5">
         <f>P93/K93*B90</f>
-        <v>494.28217228198497</v>
+        <v>357.99442192048423</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
@@ -19398,19 +19398,19 @@
       </c>
       <c r="C97" s="4">
         <f>IF(NOT(ISBLANK(C96)),VLOOKUP(C96,$S$41:$U$70,3,FALSE),0)</f>
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="D97" s="4">
         <f>IF(NOT(ISBLANK(D96)),VLOOKUP(D96,$S$41:$U$70,3,FALSE),0)</f>
-        <v>29</v>
+        <v>34.5</v>
       </c>
       <c r="E97" s="4">
         <f>IF(NOT(ISBLANK(E96)),VLOOKUP(E96,$S$41:$U$70,3,FALSE),0)</f>
-        <v>5.91</v>
+        <v>7.8</v>
       </c>
       <c r="G97" s="4">
         <f>IF(NOT(ISBLANK(G96)),VLOOKUP(G96,$S$41:$U$70,2,FALSE),0)</f>
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="H97" s="4">
         <f>IF(NOT(ISBLANK(H96)),VLOOKUP(H96,$S$41:$U$70,2,FALSE),0)</f>
@@ -19423,11 +19423,11 @@
       </c>
       <c r="C98" s="6">
         <f>C97*C95</f>
-        <v>1026.4260000000002</v>
+        <v>1308.19</v>
       </c>
       <c r="D98" s="6">
         <f>D97*D95</f>
-        <v>2770.5730000000003</v>
+        <v>3296.0265000000004</v>
       </c>
       <c r="E98" s="6">
         <f>E97*E95</f>
@@ -19436,7 +19436,7 @@
       <c r="F98" s="1"/>
       <c r="G98" s="6">
         <f>G95*G97</f>
-        <v>2174.4450000000002</v>
+        <v>2795.7150000000001</v>
       </c>
       <c r="H98" s="6">
         <f>H95*H97</f>
@@ -19449,19 +19449,19 @@
       </c>
       <c r="K98" s="4">
         <f>SUM(G98:H98)-SUM(C98:E98)</f>
-        <v>-1622.5540000000005</v>
+        <v>-1808.5015000000003</v>
       </c>
       <c r="L98" s="4">
         <f>SUM(G98:H98)/B95</f>
-        <v>135.90281250000001</v>
+        <v>174.73218750000001</v>
       </c>
       <c r="M98" s="4">
         <f>K98/B95</f>
-        <v>-101.40962500000003</v>
+        <v>-113.03134375000002</v>
       </c>
       <c r="N98" s="3">
         <f>K98/SUM(G98:H98)</f>
-        <v>-0.74619224675721874</v>
+        <v>-0.64688335542070641</v>
       </c>
       <c r="O98" s="1"/>
       <c r="P98" s="4">
@@ -19469,7 +19469,7 @@
       </c>
       <c r="Q98" s="5">
         <f>P98/K98*B95</f>
-        <v>-2007.7285563377236</v>
+        <v>-1801.2968194939288</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
@@ -19524,19 +19524,19 @@
       </c>
       <c r="C102" s="4">
         <f>IF(NOT(ISBLANK(C101)),VLOOKUP(C101,$S$41:$U$70,3,FALSE),0)</f>
-        <v>29</v>
+        <v>34.5</v>
       </c>
       <c r="D102" s="4">
         <f>IF(NOT(ISBLANK(D101)),VLOOKUP(D101,$S$41:$U$70,3,FALSE),0)</f>
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="E102" s="4">
         <f>IF(NOT(ISBLANK(E101)),VLOOKUP(E101,$S$41:$U$70,3,FALSE),0)</f>
-        <v>5.91</v>
+        <v>7.8</v>
       </c>
       <c r="G102" s="4">
         <f>IF(NOT(ISBLANK(G101)),VLOOKUP(G101,$S$41:$U$70,2,FALSE),0)</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H102" s="4">
         <f>IF(NOT(ISBLANK(H101)),VLOOKUP(H101,$S$41:$U$70,2,FALSE),0)</f>
@@ -19549,11 +19549,11 @@
       </c>
       <c r="C103" s="6">
         <f>C102*C100</f>
-        <v>2770.08</v>
+        <v>3295.44</v>
       </c>
       <c r="D103" s="6">
         <f>D102*D100</f>
-        <v>1675.828</v>
+        <v>2111.1079999999997</v>
       </c>
       <c r="E103" s="6">
         <f>E102*E100</f>
@@ -19562,7 +19562,7 @@
       <c r="F103" s="1"/>
       <c r="G103" s="6">
         <f>G100*G102</f>
-        <v>997.33900000000006</v>
+        <v>1290.674</v>
       </c>
       <c r="H103" s="6">
         <f>H100*H102</f>
@@ -19575,19 +19575,19 @@
       </c>
       <c r="K103" s="4">
         <f>SUM(G103:H103)-SUM(C103:E103)</f>
-        <v>-3448.5689999999995</v>
+        <v>-4115.8739999999998</v>
       </c>
       <c r="L103" s="4">
         <f>SUM(G103:H103)/B100</f>
-        <v>249.33475000000001</v>
+        <v>322.66849999999999</v>
       </c>
       <c r="M103" s="4">
         <f>K103/B100</f>
-        <v>-862.14224999999988</v>
+        <v>-1028.9684999999999</v>
       </c>
       <c r="N103" s="3">
         <f>K103/SUM(G103:H103)</f>
-        <v>-3.4577701263060998</v>
+        <v>-3.1889338438676225</v>
       </c>
       <c r="O103" s="1"/>
       <c r="P103" s="4">
@@ -19595,7 +19595,7 @@
       </c>
       <c r="Q103" s="5">
         <f>P103/K103*B100</f>
-        <v>-40.271776496280054</v>
+        <v>-33.742529533217002</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
@@ -19644,7 +19644,7 @@
       </c>
       <c r="C107" s="4">
         <f>IF(NOT(ISBLANK(C106)),VLOOKUP(C106,$S$41:$U$70,3,FALSE),0)</f>
-        <v>5.91</v>
+        <v>7.8</v>
       </c>
       <c r="D107" s="4">
         <f>IF(NOT(ISBLANK(D106)),VLOOKUP(D106,$S$41:$U$70,3,FALSE),0)</f>
@@ -19656,7 +19656,7 @@
       </c>
       <c r="G107" s="4">
         <f>IF(NOT(ISBLANK(G106)),VLOOKUP(G106,$S$41:$U$70,2,FALSE),0)</f>
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="H107" s="4">
         <f>IF(NOT(ISBLANK(H106)),VLOOKUP(H106,$S$41:$U$70,2,FALSE),0)</f>
@@ -19682,7 +19682,7 @@
       <c r="F108" s="1"/>
       <c r="G108" s="6">
         <f>G105*G107</f>
-        <v>111.378</v>
+        <v>150.458</v>
       </c>
       <c r="H108" s="6">
         <f>H105*H107</f>
@@ -19695,15 +19695,15 @@
       </c>
       <c r="K108" s="4">
         <f>SUM(G108:H108)-SUM(C108:E108)</f>
-        <v>111.378</v>
+        <v>150.458</v>
       </c>
       <c r="L108" s="4">
         <f>SUM(G108:H108)/B105</f>
-        <v>111.378</v>
+        <v>150.458</v>
       </c>
       <c r="M108" s="4">
         <f>K108/B105</f>
-        <v>111.378</v>
+        <v>150.458</v>
       </c>
       <c r="N108" s="3">
         <f>K108/SUM(G108:H108)</f>
@@ -19715,7 +19715,7 @@
       </c>
       <c r="Q108" s="5">
         <f>P108/K108*B105</f>
-        <v>54.490114744383987</v>
+        <v>40.336838187401135</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.25">
@@ -19770,11 +19770,11 @@
       </c>
       <c r="C112" s="4">
         <f>IF(NOT(ISBLANK(C111)),VLOOKUP(C111,$S$41:$U$70,3,FALSE),0)</f>
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="D112" s="4">
         <f>IF(NOT(ISBLANK(D111)),VLOOKUP(D111,$S$41:$U$70,3,FALSE),0)</f>
-        <v>5.91</v>
+        <v>7.8</v>
       </c>
       <c r="E112" s="4">
         <f>IF(NOT(ISBLANK(E111)),VLOOKUP(E111,$S$41:$U$70,3,FALSE),0)</f>
@@ -19782,11 +19782,11 @@
       </c>
       <c r="G112" s="4">
         <f>IF(NOT(ISBLANK(G111)),VLOOKUP(G111,$S$41:$U$70,2,FALSE),0)</f>
-        <v>337</v>
+        <v>434</v>
       </c>
       <c r="H112" s="4">
         <f>IF(NOT(ISBLANK(H111)),VLOOKUP(H111,$S$41:$U$70,2,FALSE),0)</f>
-        <v>588</v>
+        <v>154</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
@@ -19795,7 +19795,7 @@
       </c>
       <c r="C113" s="6">
         <f>C112*C110</f>
-        <v>10458.35</v>
+        <v>13745.26</v>
       </c>
       <c r="D113" s="6">
         <f>D112*D110</f>
@@ -19808,11 +19808,11 @@
       <c r="F113" s="1"/>
       <c r="G113" s="6">
         <f>G110*G112</f>
-        <v>11977.991</v>
+        <v>15425.662</v>
       </c>
       <c r="H113" s="6">
         <f>H110*H112</f>
-        <v>14806.428</v>
+        <v>3877.8740000000003</v>
       </c>
       <c r="I113" s="1"/>
       <c r="J113" s="1" t="str">
@@ -19821,19 +19821,19 @@
       </c>
       <c r="K113" s="4">
         <f>SUM(G113:H113)-SUM(C113:E113)</f>
-        <v>16326.069000000001</v>
+        <v>5558.2759999999998</v>
       </c>
       <c r="L113" s="4">
         <f>SUM(G113:H113)/B110</f>
-        <v>84.760819620253173</v>
+        <v>61.087139240506332</v>
       </c>
       <c r="M113" s="4">
         <f>K113/B110</f>
-        <v>51.664775316455703</v>
+        <v>17.589481012658226</v>
       </c>
       <c r="N113" s="3">
         <f>K113/SUM(G113:H113)</f>
-        <v>0.60953605153802293</v>
+        <v>0.28794082079055361</v>
       </c>
       <c r="O113" s="1"/>
       <c r="P113" s="4">
@@ -19841,7 +19841,7 @@
       </c>
       <c r="Q113" s="5">
         <f>P113/K113*B110</f>
-        <v>5746.0426021720223</v>
+        <v>16877.587223088598</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
@@ -19896,19 +19896,19 @@
       </c>
       <c r="C117" s="4">
         <f>IF(NOT(ISBLANK(C116)),VLOOKUP(C116,$S$41:$U$70,3,FALSE),0)</f>
-        <v>29</v>
+        <v>34.5</v>
       </c>
       <c r="D117" s="4">
         <f>IF(NOT(ISBLANK(D116)),VLOOKUP(D116,$S$41:$U$70,3,FALSE),0)</f>
-        <v>657</v>
+        <v>840</v>
       </c>
       <c r="E117" s="4">
         <f>IF(NOT(ISBLANK(E116)),VLOOKUP(E116,$S$41:$U$70,3,FALSE),0)</f>
-        <v>5.91</v>
+        <v>7.8</v>
       </c>
       <c r="G117" s="4">
         <f>IF(NOT(ISBLANK(G116)),VLOOKUP(G116,$S$41:$U$70,2,FALSE),0)</f>
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="H117" s="4">
         <f>IF(NOT(ISBLANK(H116)),VLOOKUP(H116,$S$41:$U$70,2,FALSE),0)</f>
@@ -19921,20 +19921,20 @@
       </c>
       <c r="C118" s="6">
         <f>C117*C115</f>
-        <v>1363.203</v>
+        <v>1621.7414999999999</v>
       </c>
       <c r="D118" s="6">
         <f>D117*D115</f>
-        <v>4623.9660000000003</v>
+        <v>5911.92</v>
       </c>
       <c r="E118" s="6">
         <f>E117*E115</f>
-        <v>23.835030000000003</v>
+        <v>31.457400000000003</v>
       </c>
       <c r="F118" s="1"/>
       <c r="G118" s="6">
         <f>G115*G117</f>
-        <v>2762.3680000000004</v>
+        <v>3551.616</v>
       </c>
       <c r="H118" s="6">
         <f>H115*H117</f>
@@ -19947,19 +19947,19 @@
       </c>
       <c r="K118" s="4">
         <f>SUM(G118:H118)-SUM(C118:E118)</f>
-        <v>-3248.6360299999997</v>
+        <v>-4013.5029000000004</v>
       </c>
       <c r="L118" s="4">
         <f>SUM(G118:H118)/B115</f>
-        <v>1381.1840000000002</v>
+        <v>1775.808</v>
       </c>
       <c r="M118" s="4">
         <f>K118/B115</f>
-        <v>-1624.3180149999998</v>
+        <v>-2006.7514500000002</v>
       </c>
       <c r="N118" s="3">
         <f>K118/SUM(G118:H118)</f>
-        <v>-1.1760330375967283</v>
+        <v>-1.1300497857876528</v>
       </c>
       <c r="O118" s="1"/>
       <c r="P118" s="4">
@@ -19967,7 +19967,7 @@
       </c>
       <c r="Q118" s="5">
         <f>P118/K118*B115</f>
-        <v>-23.973138043414487</v>
+        <v>-19.404495758555449</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
@@ -20016,7 +20016,7 @@
       </c>
       <c r="C122" s="4">
         <f>IF(NOT(ISBLANK(C121)),VLOOKUP(C121,$S$41:$U$70,3,FALSE),0)</f>
-        <v>30</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="D122" s="4">
         <f>IF(NOT(ISBLANK(D121)),VLOOKUP(D121,$S$41:$U$70,3,FALSE),0)</f>
@@ -20028,7 +20028,7 @@
       </c>
       <c r="G122" s="4">
         <f>IF(NOT(ISBLANK(G121)),VLOOKUP(G121,$S$41:$U$70,2,FALSE),0)</f>
-        <v>497</v>
+        <v>618</v>
       </c>
       <c r="H122" s="4">
         <f>IF(NOT(ISBLANK(H121)),VLOOKUP(H121,$S$41:$U$70,2,FALSE),0)</f>
@@ -20041,7 +20041,7 @@
       </c>
       <c r="C123" s="6">
         <f>C122*C120</f>
-        <v>220.47</v>
+        <v>252.07069999999999</v>
       </c>
       <c r="D123" s="6">
         <f>D122*D120</f>
@@ -20054,7 +20054,7 @@
       <c r="F123" s="1"/>
       <c r="G123" s="6">
         <f>G120*G122</f>
-        <v>1094.394</v>
+        <v>1360.836</v>
       </c>
       <c r="H123" s="6">
         <f>H120*H122</f>
@@ -20067,19 +20067,19 @@
       </c>
       <c r="K123" s="4">
         <f>SUM(G123:H123)-SUM(C123:E123)</f>
-        <v>873.92399999999998</v>
+        <v>1108.7653</v>
       </c>
       <c r="L123" s="4">
         <f>SUM(G123:H123)/B120</f>
-        <v>26.056999999999999</v>
+        <v>32.400857142857141</v>
       </c>
       <c r="M123" s="4">
         <f>K123/B120</f>
-        <v>20.807714285714287</v>
+        <v>26.399173809523809</v>
       </c>
       <c r="N123" s="3">
         <f>K123/SUM(G123:H123)</f>
-        <v>0.79854604466033252</v>
+        <v>0.81476776040610333</v>
       </c>
       <c r="O123" s="1"/>
       <c r="P123" s="4">
@@ -20087,7 +20087,7 @@
       </c>
       <c r="Q123" s="5">
         <f>P123/K123*B120</f>
-        <v>2303.6648495750201</v>
+        <v>1815.7386418929234</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.25">
@@ -20136,7 +20136,7 @@
       </c>
       <c r="C127" s="4">
         <f>IF(NOT(ISBLANK(C126)),VLOOKUP(C126,$S$41:$U$70,3,FALSE),0)</f>
-        <v>557</v>
+        <v>690</v>
       </c>
       <c r="D127" s="4">
         <f>IF(NOT(ISBLANK(D126)),VLOOKUP(D126,$S$41:$U$70,3,FALSE),0)</f>
@@ -20148,7 +20148,7 @@
       </c>
       <c r="G127" s="4">
         <f>IF(NOT(ISBLANK(G126)),VLOOKUP(G126,$S$41:$U$70,2,FALSE),0)</f>
-        <v>568</v>
+        <v>662</v>
       </c>
       <c r="H127" s="4">
         <f>IF(NOT(ISBLANK(H126)),VLOOKUP(H126,$S$41:$U$70,2,FALSE),0)</f>
@@ -20161,7 +20161,7 @@
       </c>
       <c r="C128" s="6">
         <f>C127*C125</f>
-        <v>100869.35799999999</v>
+        <v>124954.86</v>
       </c>
       <c r="D128" s="6">
         <f>D127*D125</f>
@@ -20174,7 +20174,7 @@
       <c r="F128" s="1"/>
       <c r="G128" s="6">
         <f>G125*G127</f>
-        <v>43716.12</v>
+        <v>50950.83</v>
       </c>
       <c r="H128" s="6">
         <f>H125*H127</f>
@@ -20187,19 +20187,19 @@
       </c>
       <c r="K128" s="4">
         <f>SUM(G128:H128)-SUM(C128:E128)</f>
-        <v>-57153.23799999999</v>
+        <v>-74004.03</v>
       </c>
       <c r="L128" s="4">
         <f>SUM(G128:H128)/B125</f>
-        <v>1150.4242105263158</v>
+        <v>1340.8113157894738</v>
       </c>
       <c r="M128" s="4">
         <f>K128/B125</f>
-        <v>-1504.0325789473682</v>
+        <v>-1947.4744736842106</v>
       </c>
       <c r="N128" s="3">
         <f>K128/SUM(G128:H128)</f>
-        <v>-1.3073721547108936</v>
+        <v>-1.4524597538450306</v>
       </c>
       <c r="O128" s="1"/>
       <c r="P128" s="4">
@@ -20207,7 +20207,7 @@
       </c>
       <c r="Q128" s="5">
         <f>P128/K128*B125</f>
-        <v>-23.683662507450588</v>
+        <v>-18.290868754039476</v>
       </c>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.25">
@@ -20256,7 +20256,7 @@
       </c>
       <c r="C132" s="4">
         <f>IF(NOT(ISBLANK(C131)),VLOOKUP(C131,$S$41:$U$70,3,FALSE),0)</f>
-        <v>30</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="D132" s="4">
         <f>IF(NOT(ISBLANK(D131)),VLOOKUP(D131,$S$41:$U$70,3,FALSE),0)</f>
@@ -20268,7 +20268,7 @@
       </c>
       <c r="G132" s="4">
         <f>IF(NOT(ISBLANK(G131)),VLOOKUP(G131,$S$41:$U$70,2,FALSE),0)</f>
-        <v>304</v>
+        <v>350</v>
       </c>
       <c r="H132" s="4">
         <f>IF(NOT(ISBLANK(H131)),VLOOKUP(H131,$S$41:$U$70,2,FALSE),0)</f>
@@ -20281,20 +20281,20 @@
       </c>
       <c r="C133" s="6">
         <f>C132*C130</f>
-        <v>1397.01</v>
+        <v>1597.2480999999998</v>
       </c>
       <c r="D133" s="6">
-        <f t="shared" ref="D133" si="3">D132*D130</f>
+        <f t="shared" ref="D133" si="10">D132*D130</f>
         <v>0</v>
       </c>
       <c r="E133" s="6">
-        <f t="shared" ref="E133" si="4">E132*E130</f>
+        <f t="shared" ref="E133" si="11">E132*E130</f>
         <v>0</v>
       </c>
       <c r="F133" s="1"/>
       <c r="G133" s="6">
         <f>G130*G132</f>
-        <v>6446.9279999999999</v>
+        <v>7422.45</v>
       </c>
       <c r="H133" s="6">
         <f>H130*H132</f>
@@ -20307,19 +20307,19 @@
       </c>
       <c r="K133" s="4">
         <f>SUM(G133:H133)-SUM(C133:E133)</f>
-        <v>5049.9179999999997</v>
+        <v>5825.2019</v>
       </c>
       <c r="L133" s="4">
         <f>SUM(G133:H133)/B130</f>
-        <v>36.630272727272725</v>
+        <v>42.173011363636363</v>
       </c>
       <c r="M133" s="4">
         <f>K133/B130</f>
-        <v>28.692715909090907</v>
+        <v>33.097738068181819</v>
       </c>
       <c r="N133" s="3">
         <f>K133/SUM(G133:H133)</f>
-        <v>0.78330609555434771</v>
+        <v>0.78480850662517099</v>
       </c>
       <c r="O133" s="1"/>
       <c r="P133" s="4">
@@ -20327,7 +20327,7 @@
       </c>
       <c r="Q133" s="5">
         <f>P133/K133*B130</f>
-        <v>2492.0610592092785</v>
+        <v>2160.3893248747308</v>
       </c>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.25">
@@ -20379,11 +20379,11 @@
       </c>
       <c r="C137" s="4">
         <f>IF(NOT(ISBLANK(C136)),VLOOKUP(C136,$S$41:$U$70,3,FALSE),0)</f>
-        <v>30</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="D137" s="4">
         <f>IF(NOT(ISBLANK(D136)),VLOOKUP(D136,$S$41:$U$70,3,FALSE),0)</f>
-        <v>5.91</v>
+        <v>7.8</v>
       </c>
       <c r="E137" s="4">
         <f>IF(NOT(ISBLANK(E136)),VLOOKUP(E136,$S$41:$U$70,3,FALSE),0)</f>
@@ -20391,7 +20391,7 @@
       </c>
       <c r="G137" s="4">
         <f>IF(NOT(ISBLANK(G136)),VLOOKUP(G136,$S$41:$U$70,2,FALSE),0)</f>
-        <v>836</v>
+        <v>980</v>
       </c>
       <c r="H137" s="4">
         <f>IF(NOT(ISBLANK(H136)),VLOOKUP(H136,$S$41:$U$70,2,FALSE),0)</f>
@@ -20404,7 +20404,7 @@
       </c>
       <c r="C138" s="6">
         <f>C137*C135</f>
-        <v>1309.98</v>
+        <v>1497.7437999999997</v>
       </c>
       <c r="D138" s="6">
         <f>D137*D135</f>
@@ -20417,7 +20417,7 @@
       <c r="F138" s="1"/>
       <c r="G138" s="6">
         <f>G135*G137</f>
-        <v>1432.068</v>
+        <v>1678.74</v>
       </c>
       <c r="H138" s="6">
         <f>H135*H137</f>
@@ -20430,19 +20430,19 @@
       </c>
       <c r="K138" s="4">
         <f>SUM(G138:H138)-SUM(C138:E138)</f>
-        <v>122.08799999999997</v>
+        <v>180.99620000000027</v>
       </c>
       <c r="L138" s="4">
         <f>SUM(G138:H138)/B135</f>
-        <v>10.45305109489051</v>
+        <v>12.253576642335766</v>
       </c>
       <c r="M138" s="4">
         <f>K138/B135</f>
-        <v>0.89115328467153254</v>
+        <v>1.3211401459854035</v>
       </c>
       <c r="N138" s="3">
         <f>K138/SUM(G138:H138)</f>
-        <v>8.5252934916498352E-2</v>
+        <v>0.10781669585522491</v>
       </c>
       <c r="O138" s="1"/>
       <c r="P138" s="4">
@@ -20450,7 +20450,7 @@
       </c>
       <c r="Q138" s="5">
         <f>P138/K138*B135</f>
-        <v>42586.388506650954</v>
+        <v>28725.945627587716</v>
       </c>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.25">
@@ -20505,19 +20505,19 @@
       </c>
       <c r="C142" s="4">
         <f>IF(NOT(ISBLANK(C141)),VLOOKUP(C141,$S$41:$U$70,3,FALSE),0)</f>
-        <v>29</v>
+        <v>34.5</v>
       </c>
       <c r="D142" s="4">
         <f>IF(NOT(ISBLANK(D141)),VLOOKUP(D141,$S$41:$U$70,3,FALSE),0)</f>
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E142" s="4">
         <f>IF(NOT(ISBLANK(E141)),VLOOKUP(E141,$S$41:$U$70,3,FALSE),0)</f>
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="G142" s="4">
         <f>IF(NOT(ISBLANK(G141)),VLOOKUP(G141,$S$41:$U$70,2,FALSE),0)</f>
-        <v>2705</v>
+        <v>3414</v>
       </c>
       <c r="H142" s="4">
         <f>IF(NOT(ISBLANK(H141)),VLOOKUP(H141,$S$41:$U$70,2,FALSE),0)</f>
@@ -20631,19 +20631,19 @@
       </c>
       <c r="C147" s="4">
         <f>IF(NOT(ISBLANK(C146)),VLOOKUP(C146,$S$41:$U$70,3,FALSE),0)</f>
-        <v>2998</v>
+        <v>3781</v>
       </c>
       <c r="D147" s="4">
         <f>IF(NOT(ISBLANK(D146)),VLOOKUP(D146,$S$41:$U$70,3,FALSE),0)</f>
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="E147" s="4">
         <f>IF(NOT(ISBLANK(E146)),VLOOKUP(E146,$S$41:$U$70,3,FALSE),0)</f>
-        <v>5.91</v>
+        <v>7.8</v>
       </c>
       <c r="G147" s="4">
         <f>IF(NOT(ISBLANK(G146)),VLOOKUP(G146,$S$41:$U$70,2,FALSE),0)</f>
-        <v>1101</v>
+        <v>1321</v>
       </c>
       <c r="H147" s="4">
         <f>IF(NOT(ISBLANK(H146)),VLOOKUP(H146,$S$41:$U$70,2,FALSE),0)</f>
@@ -20757,19 +20757,19 @@
       </c>
       <c r="C152" s="4">
         <f>IF(NOT(ISBLANK(C151)),VLOOKUP(C151,$S$41:$U$70,3,FALSE),0)</f>
-        <v>30</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="D152" s="4">
         <f>IF(NOT(ISBLANK(D151)),VLOOKUP(D151,$S$41:$U$70,3,FALSE),0)</f>
-        <v>2998</v>
+        <v>3781</v>
       </c>
       <c r="E152" s="4">
         <f>IF(NOT(ISBLANK(E151)),VLOOKUP(E151,$S$41:$U$70,3,FALSE),0)</f>
-        <v>5.91</v>
+        <v>7.8</v>
       </c>
       <c r="G152" s="4">
         <f>IF(NOT(ISBLANK(G151)),VLOOKUP(G151,$S$41:$U$70,2,FALSE),0)</f>
-        <v>857</v>
+        <v>998</v>
       </c>
       <c r="H152" s="4">
         <f>IF(NOT(ISBLANK(H151)),VLOOKUP(H151,$S$41:$U$70,2,FALSE),0)</f>
@@ -20782,11 +20782,11 @@
       </c>
       <c r="C153" s="6">
         <f>C152*C150</f>
-        <v>543.80999999999995</v>
+        <v>621.75609999999995</v>
       </c>
       <c r="D153" s="6">
         <f>D152*D150</f>
-        <v>1178.2139999999999</v>
+        <v>1485.933</v>
       </c>
       <c r="E153" s="6">
         <f>E152*E150</f>
@@ -20795,7 +20795,7 @@
       <c r="F153" s="1"/>
       <c r="G153" s="6">
         <f>G150*G152</f>
-        <v>2435.5940000000001</v>
+        <v>2836.3160000000003</v>
       </c>
       <c r="H153" s="6">
         <f>H150*H152</f>
@@ -20808,19 +20808,19 @@
       </c>
       <c r="K153" s="4">
         <f>SUM(G153:H153)-SUM(C153:E153)</f>
-        <v>713.57000000000016</v>
+        <v>728.62690000000021</v>
       </c>
       <c r="L153" s="4">
         <f>SUM(G153:H153)/B150</f>
-        <v>32.474586666666667</v>
+        <v>37.817546666666672</v>
       </c>
       <c r="M153" s="4">
         <f>K153/B150</f>
-        <v>9.5142666666666695</v>
+        <v>9.7150253333333367</v>
       </c>
       <c r="N153" s="3">
         <f>K153/SUM(G153:H153)</f>
-        <v>0.29297575868556097</v>
+        <v>0.25689200357082925</v>
       </c>
       <c r="O153" s="1"/>
       <c r="P153" s="4">
@@ -20828,7 +20828,7 @@
       </c>
       <c r="Q153" s="5">
         <f>P153/K153*B150</f>
-        <v>3773.2808273890428</v>
+        <v>3695.3068847718901</v>
       </c>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.25">
@@ -20889,7 +20889,7 @@
       </c>
       <c r="C157" s="4">
         <f>IF(NOT(ISBLANK(C156)),VLOOKUP(C156,$S$41:$U$70,3,FALSE),0)</f>
-        <v>1800</v>
+        <v>2486</v>
       </c>
       <c r="D157" s="4">
         <f>IF(NOT(ISBLANK(D156)),VLOOKUP(D156,$S$41:$U$70,3,FALSE),0)</f>
@@ -20901,7 +20901,7 @@
       </c>
       <c r="G157" s="4">
         <f>IF(NOT(ISBLANK(G156)),VLOOKUP(G156,$S$41:$U$70,2,FALSE),0)</f>
-        <v>2497</v>
+        <v>3427</v>
       </c>
       <c r="H157" s="4">
         <f>IF(NOT(ISBLANK(H156)),VLOOKUP(H156,$S$41:$U$70,2,FALSE),0)</f>
@@ -21015,19 +21015,19 @@
       </c>
       <c r="C162" s="4">
         <f>IF(NOT(ISBLANK(C161)),VLOOKUP(C161,$S$41:$U$70,3,FALSE),0)</f>
-        <v>1224</v>
+        <v>1467</v>
       </c>
       <c r="D162" s="4">
         <f>IF(NOT(ISBLANK(D161)),VLOOKUP(D161,$S$41:$U$70,3,FALSE),0)</f>
-        <v>1800</v>
+        <v>2486</v>
       </c>
       <c r="E162" s="4">
         <f>IF(NOT(ISBLANK(E161)),VLOOKUP(E161,$S$41:$U$70,3,FALSE),0)</f>
-        <v>2998</v>
+        <v>3781</v>
       </c>
       <c r="G162" s="4">
         <f>IF(NOT(ISBLANK(G161)),VLOOKUP(G161,$S$41:$U$70,2,FALSE),0)</f>
-        <v>2211</v>
+        <v>2778</v>
       </c>
       <c r="H162" s="4">
         <f>IF(NOT(ISBLANK(H161)),VLOOKUP(H161,$S$41:$U$70,2,FALSE),0)</f>
@@ -21135,7 +21135,7 @@
       </c>
       <c r="C167" s="4">
         <f>IF(NOT(ISBLANK(C166)),VLOOKUP(C166,$S$41:$U$70,3,FALSE),0)</f>
-        <v>954</v>
+        <v>1111</v>
       </c>
       <c r="D167" s="4">
         <f>IF(NOT(ISBLANK(D166)),VLOOKUP(D166,$S$41:$U$70,3,FALSE),0)</f>
@@ -21147,7 +21147,7 @@
       </c>
       <c r="G167" s="4">
         <f>IF(NOT(ISBLANK(G166)),VLOOKUP(G166,$S$41:$U$70,2,FALSE),0)</f>
-        <v>11703</v>
+        <v>13851</v>
       </c>
       <c r="H167" s="4">
         <f>IF(NOT(ISBLANK(H166)),VLOOKUP(H166,$S$41:$U$70,2,FALSE),0)</f>
@@ -21160,7 +21160,7 @@
       </c>
       <c r="C168" s="6">
         <f>C167*C165</f>
-        <v>1432.9079999999999</v>
+        <v>1668.722</v>
       </c>
       <c r="D168" s="6">
         <f>D167*D165</f>
@@ -21173,7 +21173,7 @@
       <c r="F168" s="1"/>
       <c r="G168" s="6">
         <f>G165*G167</f>
-        <v>5629.143</v>
+        <v>6662.3310000000001</v>
       </c>
       <c r="H168" s="6">
         <f>H165*H167</f>
@@ -21186,19 +21186,19 @@
       </c>
       <c r="K168" s="4">
         <f>SUM(G168:H168)-SUM(C168:E168)</f>
-        <v>4196.2350000000006</v>
+        <v>4993.6090000000004</v>
       </c>
       <c r="L168" s="4">
         <f>SUM(G168:H168)/B165</f>
-        <v>102.34805454545454</v>
+        <v>121.13329090909092</v>
       </c>
       <c r="M168" s="4">
         <f>K168/B165</f>
-        <v>76.295181818181831</v>
+        <v>90.792890909090914</v>
       </c>
       <c r="N168" s="3">
         <f>K168/SUM(G168:H168)</f>
-        <v>0.74544828582254896</v>
+        <v>0.7495288060590205</v>
       </c>
       <c r="O168" s="1"/>
       <c r="P168" s="4">
@@ -21206,7 +21206,7 @@
       </c>
       <c r="Q168" s="5">
         <f>P168/K168*B165</f>
-        <v>645.27010522527928</v>
+        <v>542.23408360566475</v>
       </c>
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.25">
@@ -21261,19 +21261,19 @@
       </c>
       <c r="C172" s="4">
         <f>IF(NOT(ISBLANK(C171)),VLOOKUP(C171,$S$41:$U$70,3,FALSE),0)</f>
-        <v>2452</v>
+        <v>3077</v>
       </c>
       <c r="D172" s="4">
         <f>IF(NOT(ISBLANK(D171)),VLOOKUP(D171,$S$41:$U$70,3,FALSE),0)</f>
-        <v>1224</v>
+        <v>1467</v>
       </c>
       <c r="E172" s="4">
         <f>IF(NOT(ISBLANK(E171)),VLOOKUP(E171,$S$41:$U$70,3,FALSE),0)</f>
-        <v>2767</v>
+        <v>3795</v>
       </c>
       <c r="G172" s="4">
         <f>IF(NOT(ISBLANK(G171)),VLOOKUP(G171,$S$41:$U$70,2,FALSE),0)</f>
-        <v>2484</v>
+        <v>3152</v>
       </c>
       <c r="H172" s="4">
         <f>IF(NOT(ISBLANK(H171)),VLOOKUP(H171,$S$41:$U$70,2,FALSE),0)</f>
@@ -21391,11 +21391,11 @@
       </c>
       <c r="C177" s="4">
         <f>IF(NOT(ISBLANK(C176)),VLOOKUP(C176,$S$41:$U$70,3,FALSE),0)</f>
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="D177" s="4">
         <f>IF(NOT(ISBLANK(D176)),VLOOKUP(D176,$S$41:$U$70,3,FALSE),0)</f>
-        <v>29</v>
+        <v>34.5</v>
       </c>
       <c r="E177" s="4">
         <f>IF(NOT(ISBLANK(E176)),VLOOKUP(E176,$S$41:$U$70,3,FALSE),0)</f>
@@ -21403,7 +21403,7 @@
       </c>
       <c r="G177" s="4">
         <f>IF(NOT(ISBLANK(G176)),VLOOKUP(G176,$S$41:$U$70,2,FALSE),0)</f>
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="H177" s="4">
         <f>IF(NOT(ISBLANK(H176)),VLOOKUP(H176,$S$41:$U$70,2,FALSE),0)</f>
@@ -21416,11 +21416,11 @@
       </c>
       <c r="C178" s="6">
         <f>C177*C175</f>
-        <v>494.41700000000003</v>
+        <v>622.83699999999999</v>
       </c>
       <c r="D178" s="6">
         <f>D177*D175</f>
-        <v>1473.519</v>
+        <v>1752.9794999999999</v>
       </c>
       <c r="E178" s="6">
         <f>E177*E175</f>
@@ -21429,7 +21429,7 @@
       <c r="F178" s="1"/>
       <c r="G178" s="6">
         <f>G175*G177</f>
-        <v>1070.566</v>
+        <v>1298.346</v>
       </c>
       <c r="H178" s="6">
         <f>H175*H177</f>
@@ -21442,19 +21442,19 @@
       </c>
       <c r="K178" s="4">
         <f>SUM(G178:H178)-SUM(C178:E178)</f>
-        <v>-897.37000000000012</v>
+        <v>-1077.4704999999999</v>
       </c>
       <c r="L178" s="4">
         <f>SUM(G178:H178)/B175</f>
-        <v>21.41132</v>
+        <v>25.966920000000002</v>
       </c>
       <c r="M178" s="4">
         <f>K178/B175</f>
-        <v>-17.947400000000002</v>
+        <v>-21.549409999999998</v>
       </c>
       <c r="N178" s="3">
         <f>K178/SUM(G178:H178)</f>
-        <v>-0.83822015644061187</v>
+        <v>-0.82987932338529169</v>
       </c>
       <c r="O178" s="1"/>
       <c r="P178" s="4">
@@ -21462,7 +21462,7 @@
       </c>
       <c r="Q178" s="5">
         <f>P178/K178*B175</f>
-        <v>-2053.7793775142918</v>
+        <v>-1710.4876653235517</v>
       </c>
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.25">
@@ -21694,15 +21694,15 @@
       </c>
       <c r="B5" s="4">
         <f>Custom!K5-Standard!K5</f>
-        <v>-537.64</v>
+        <v>-257</v>
       </c>
       <c r="C5" s="4">
         <f>Custom!L5-Standard!L5</f>
-        <v>47.394285714285715</v>
+        <v>87.485714285714295</v>
       </c>
       <c r="D5" s="4">
         <f>Custom!M5-Standard!M5</f>
-        <v>47.394285714285715</v>
+        <v>87.485714285714295</v>
       </c>
       <c r="E5" s="3">
         <f>Custom!N5-Standard!N5</f>
@@ -21711,7 +21711,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="7">
         <f>Custom!Q5-Standard!Q5</f>
-        <v>-61.179192568957141</v>
+        <v>-76.793385338425253</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -21720,24 +21720,24 @@
       </c>
       <c r="B6" s="4">
         <f>Custom!K6-Standard!K6</f>
-        <v>-874.03486000000066</v>
+        <v>-757.9510000000007</v>
       </c>
       <c r="C6" s="4">
         <f>Custom!L6-Standard!L6</f>
-        <v>132.15278499999994</v>
+        <v>262.67349999999993</v>
       </c>
       <c r="D6" s="4">
         <f>Custom!M6-Standard!M6</f>
-        <v>-6.6287150000000565</v>
+        <v>22.392249999999933</v>
       </c>
       <c r="E6" s="3">
         <f>Custom!N6-Standard!N6</f>
-        <v>-0.11891448727420545</v>
+        <v>-9.5071148116328802E-2</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="7">
         <f>Custom!Q6-Standard!Q6</f>
-        <v>58.771938995751668</v>
+        <v>-122.08227740599369</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -21746,15 +21746,15 @@
       </c>
       <c r="B7" s="4">
         <f>Custom!K7-Standard!K7</f>
-        <v>1448.576</v>
+        <v>5881.9719999999998</v>
       </c>
       <c r="C7" s="4">
         <f>Custom!L7-Standard!L7</f>
-        <v>27.767229629629632</v>
+        <v>60.607199999999992</v>
       </c>
       <c r="D7" s="4">
         <f>Custom!M7-Standard!M7</f>
-        <v>27.767229629629632</v>
+        <v>60.607199999999992</v>
       </c>
       <c r="E7" s="3">
         <f>Custom!N7-Standard!N7</f>
@@ -21763,7 +21763,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="7">
         <f>Custom!Q7-Standard!Q7</f>
-        <v>-2471.0605439712576</v>
+        <v>-3196.1803223533379</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -21772,24 +21772,24 @@
       </c>
       <c r="B8" s="4">
         <f>Custom!K8-Standard!K8</f>
-        <v>935.46100000000024</v>
+        <v>1565.377</v>
       </c>
       <c r="C8" s="4">
         <f>Custom!L8-Standard!L8</f>
-        <v>277.592625</v>
+        <v>571.49512499999992</v>
       </c>
       <c r="D8" s="4">
         <f>Custom!M8-Standard!M8</f>
-        <v>104.71762500000003</v>
+        <v>183.45712499999999</v>
       </c>
       <c r="E8" s="3">
         <f>Custom!N8-Standard!N8</f>
-        <v>0.2413986081477216</v>
+        <v>0.27380071543542917</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="7">
         <f>Custom!Q8-Standard!Q8</f>
-        <v>12134.080777050274</v>
+        <v>11382.626029255805</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -21798,24 +21798,24 @@
       </c>
       <c r="B9" s="4">
         <f>Custom!K9-Standard!K9</f>
-        <v>-31339.013999999996</v>
+        <v>-45226.914000000012</v>
       </c>
       <c r="C9" s="4">
         <f>Custom!L9-Standard!L9</f>
-        <v>-33.368393277310915</v>
+        <v>-11.080233613445372</v>
       </c>
       <c r="D9" s="4">
         <f>Custom!M9-Standard!M9</f>
-        <v>-66.575543697478992</v>
+        <v>-95.751804201680699</v>
       </c>
       <c r="E9" s="3">
         <f>Custom!N9-Standard!N9</f>
-        <v>-1.2351382263278299</v>
+        <v>-1.2113955839256569</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="7">
         <f>Custom!Q9-Standard!Q9</f>
-        <v>14412.002618470047</v>
+        <v>15248.757091839916</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -21824,15 +21824,15 @@
       </c>
       <c r="B10" s="4">
         <f>Custom!K10-Standard!K10</f>
-        <v>-1542.4799999999987</v>
+        <v>1060.3200000000015</v>
       </c>
       <c r="C10" s="4">
         <f>Custom!L10-Standard!L10</f>
-        <v>-16.034847457627116</v>
+        <v>-7.2117966101694861</v>
       </c>
       <c r="D10" s="4">
         <f>Custom!M10-Standard!M10</f>
-        <v>-16.034847457627116</v>
+        <v>-7.2117966101694861</v>
       </c>
       <c r="E10" s="3">
         <f>Custom!N10-Standard!N10</f>
@@ -21841,7 +21841,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="7">
         <f>Custom!Q10-Standard!Q10</f>
-        <v>1205.3163641894171</v>
+        <v>406.57526486048891</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -21850,24 +21850,24 @@
       </c>
       <c r="B11" s="4">
         <f>Custom!K11-Standard!K11</f>
-        <v>-6937.1270000000013</v>
+        <v>-6688.6890000000012</v>
       </c>
       <c r="C11" s="4">
         <f>Custom!L11-Standard!L11</f>
-        <v>-628.8063225806452</v>
+        <v>-588.13374193548384</v>
       </c>
       <c r="D11" s="4">
         <f>Custom!M11-Standard!M11</f>
-        <v>-463.6647419354839</v>
+        <v>-455.65061290322586</v>
       </c>
       <c r="E11" s="3">
         <f>Custom!N11-Standard!N11</f>
-        <v>-0.59664442077142743</v>
+        <v>-0.55406130182901403</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="7">
         <f>Custom!Q11-Standard!Q11</f>
-        <v>131321.82428048135</v>
+        <v>15765.165845540851</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -21876,24 +21876,24 @@
       </c>
       <c r="B12" s="4">
         <f>Custom!K12-Standard!K12</f>
-        <v>134.08800000000019</v>
+        <v>65.580000000000382</v>
       </c>
       <c r="C12" s="4">
         <f>Custom!L12-Standard!L12</f>
-        <v>-19.394399999999997</v>
+        <v>-12.320870588235294</v>
       </c>
       <c r="D12" s="4">
         <f>Custom!M12-Standard!M12</f>
-        <v>-1.1411999999999978</v>
+        <v>-3.1561411764705802</v>
       </c>
       <c r="E12" s="3">
         <f>Custom!N12-Standard!N12</f>
-        <v>-0.10363673562329602</v>
+        <v>-0.12227862751518774</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="7">
         <f>Custom!Q12-Standard!Q12</f>
-        <v>2862.2919934404035</v>
+        <v>5752.684209479512</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -21902,24 +21902,24 @@
       </c>
       <c r="B13" s="4">
         <f>Custom!K13-Standard!K13</f>
-        <v>304.17229999999972</v>
+        <v>1678.8159999999993</v>
       </c>
       <c r="C13" s="4">
         <f>Custom!L13-Standard!L13</f>
-        <v>-182.17075400000002</v>
+        <v>-136.67107999999999</v>
       </c>
       <c r="D13" s="4">
         <f>Custom!M13-Standard!M13</f>
-        <v>-107.690954</v>
+        <v>-80.198080000000004</v>
       </c>
       <c r="E13" s="3">
         <f>Custom!N13-Standard!N13</f>
-        <v>-1.9772876609881362E-2</v>
+        <v>-8.2523037427806312E-3</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="7">
         <f>Custom!Q13-Standard!Q13</f>
-        <v>1753.404457286467</v>
+        <v>977.70029723041876</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -21928,15 +21928,15 @@
       </c>
       <c r="B14" s="4">
         <f>Custom!K14-Standard!K14</f>
-        <v>693.3549999999999</v>
+        <v>950.51569999999981</v>
       </c>
       <c r="C14" s="4">
         <f>Custom!L14-Standard!L14</f>
-        <v>13.860816326530609</v>
+        <v>19.108993877551018</v>
       </c>
       <c r="D14" s="4">
         <f>Custom!M14-Standard!M14</f>
-        <v>13.860816326530609</v>
+        <v>19.108993877551018</v>
       </c>
       <c r="E14" s="3">
         <f>Custom!N14-Standard!N14</f>
@@ -21945,7 +21945,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="7">
         <f>Custom!Q14-Standard!Q14</f>
-        <v>-935.59357205343508</v>
+        <v>-962.56805306048796</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -21954,24 +21954,24 @@
       </c>
       <c r="B15" s="4">
         <f>Custom!K15-Standard!K15</f>
-        <v>2186.6347299999998</v>
+        <v>2668.2384999999995</v>
       </c>
       <c r="C15" s="4">
         <f>Custom!L15-Standard!L15</f>
-        <v>128.10706254901962</v>
+        <v>167.35773137254901</v>
       </c>
       <c r="D15" s="4">
         <f>Custom!M15-Standard!M15</f>
-        <v>135.85365078431371</v>
+        <v>164.18328431372547</v>
       </c>
       <c r="E15" s="3">
         <f>Custom!N15-Standard!N15</f>
-        <v>2.2094382816924427</v>
+        <v>2.2609537447924155</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="7">
         <f>Custom!Q15-Standard!Q15</f>
-        <v>1092.9605290171573</v>
+        <v>956.67277865565654</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -21980,24 +21980,24 @@
       </c>
       <c r="B16" s="4">
         <f>Custom!K16-Standard!K16</f>
-        <v>-935.25400000000127</v>
+        <v>-1121.201500000001</v>
       </c>
       <c r="C16" s="4">
         <f>Custom!L16-Standard!L16</f>
-        <v>-51.099187499999999</v>
+        <v>-12.2698125</v>
       </c>
       <c r="D16" s="4">
         <f>Custom!M16-Standard!M16</f>
-        <v>-78.499625000000066</v>
+        <v>-90.121343750000051</v>
       </c>
       <c r="E16" s="3">
         <f>Custom!N16-Standard!N16</f>
-        <v>-0.62368018806265946</v>
+        <v>-0.52437129672614713</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="7">
         <f>Custom!Q16-Standard!Q16</f>
-        <v>6879.3513214449149</v>
+        <v>7085.78305828871</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -22006,24 +22006,24 @@
       </c>
       <c r="B17" s="4">
         <f>Custom!K17-Standard!K17</f>
-        <v>-393.16899999999987</v>
+        <v>-1060.4740000000002</v>
       </c>
       <c r="C17" s="4">
         <f>Custom!L17-Standard!L17</f>
-        <v>-150.01525000000001</v>
+        <v>-76.681500000000028</v>
       </c>
       <c r="D17" s="4">
         <f>Custom!M17-Standard!M17</f>
-        <v>-251.06224999999995</v>
+        <v>-417.88850000000002</v>
       </c>
       <c r="E17" s="3">
         <f>Custom!N17-Standard!N17</f>
-        <v>-1.9275835731572331</v>
+        <v>-1.6587472907187557</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="7">
         <f>Custom!Q17-Standard!Q17</f>
-        <v>16.54566148238068</v>
+        <v>23.074908445443732</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -22032,15 +22032,15 @@
       </c>
       <c r="B18" s="4">
         <f>Custom!K18-Standard!K18</f>
-        <v>-218.48200000000003</v>
+        <v>-179.40200000000002</v>
       </c>
       <c r="C18" s="4">
         <f>Custom!L18-Standard!L18</f>
-        <v>-238.76200000000006</v>
+        <v>-199.68200000000004</v>
       </c>
       <c r="D18" s="4">
         <f>Custom!M18-Standard!M18</f>
-        <v>-218.48200000000003</v>
+        <v>-179.40200000000002</v>
       </c>
       <c r="E18" s="3">
         <f>Custom!N18-Standard!N18</f>
@@ -22049,7 +22049,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="7">
         <f>Custom!Q18-Standard!Q18</f>
-        <v>36.091400138187424</v>
+        <v>21.938123581204568</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -22058,24 +22058,24 @@
       </c>
       <c r="B19" s="4">
         <f>Custom!K19-Standard!K19</f>
-        <v>-4933.0309999999972</v>
+        <v>-15700.823999999999</v>
       </c>
       <c r="C19" s="4">
         <f>Custom!L19-Standard!L19</f>
-        <v>9.2128196202531711</v>
+        <v>-14.46086075949367</v>
       </c>
       <c r="D19" s="4">
         <f>Custom!M19-Standard!M19</f>
-        <v>9.1465753164557029</v>
+        <v>-24.928718987341774</v>
       </c>
       <c r="E19" s="3">
         <f>Custom!N19-Standard!N19</f>
-        <v>4.6738889468874834E-2</v>
+        <v>-0.27485634127859448</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="7">
         <f>Custom!Q19-Standard!Q19</f>
-        <v>-1236.0968110674858</v>
+        <v>9895.4478098490908</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -22084,24 +22084,24 @@
       </c>
       <c r="B20" s="4">
         <f>Custom!K20-Standard!K20</f>
-        <v>-667.48602999999912</v>
+        <v>-1432.3528999999999</v>
       </c>
       <c r="C20" s="4">
         <f>Custom!L20-Standard!L20</f>
-        <v>391.12400000000014</v>
+        <v>785.74799999999993</v>
       </c>
       <c r="D20" s="4">
         <f>Custom!M20-Standard!M20</f>
-        <v>-1108.0880149999998</v>
+        <v>-1490.5214500000002</v>
       </c>
       <c r="E20" s="3">
         <f>Custom!N20-Standard!N20</f>
-        <v>-0.65462019393068771</v>
+        <v>-0.60863694212161223</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="7">
         <f>Custom!Q20-Standard!Q20</f>
-        <v>51.458355670627689</v>
+        <v>56.026997955486728</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -22110,24 +22110,24 @@
       </c>
       <c r="B21" s="4">
         <f>Custom!K21-Standard!K21</f>
-        <v>-6983.576</v>
+        <v>-6748.7347</v>
       </c>
       <c r="C21" s="4">
         <f>Custom!L21-Standard!L21</f>
-        <v>-135.68300000000002</v>
+        <v>-129.33914285714286</v>
       </c>
       <c r="D21" s="4">
         <f>Custom!M21-Standard!M21</f>
-        <v>-136.34228571428571</v>
+        <v>-130.7508261904762</v>
       </c>
       <c r="E21" s="3">
         <f>Custom!N21-Standard!N21</f>
-        <v>-0.17307507565622493</v>
+        <v>-0.15685335991045413</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="7">
         <f>Custom!Q21-Standard!Q21</f>
-        <v>1998.6441686968783</v>
+        <v>1510.7179610147814</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -22136,24 +22136,24 @@
       </c>
       <c r="B22" s="4">
         <f>Custom!K22-Standard!K22</f>
-        <v>98923.012000000017</v>
+        <v>82072.22</v>
       </c>
       <c r="C22" s="4">
         <f>Custom!L22-Standard!L22</f>
-        <v>-4718.9007894736842</v>
+        <v>-4528.5136842105258</v>
       </c>
       <c r="D22" s="4">
         <f>Custom!M22-Standard!M22</f>
-        <v>1617.4924210526319</v>
+        <v>1174.0505263157895</v>
       </c>
       <c r="E22" s="3">
         <f>Custom!N22-Standard!N22</f>
-        <v>-0.77553501841327843</v>
+        <v>-0.92062261754741537</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="7">
         <f>Custom!Q22-Standard!Q22</f>
-        <v>-12.272253020100656</v>
+        <v>-6.879459266689544</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -22162,24 +22162,24 @@
       </c>
       <c r="B23" s="4">
         <f>Custom!K23-Standard!K23</f>
-        <v>3749.2179999999998</v>
+        <v>4524.5019000000002</v>
       </c>
       <c r="C23" s="4">
         <f>Custom!L23-Standard!L23</f>
-        <v>23.309096256684491</v>
+        <v>28.851834893048128</v>
       </c>
       <c r="D23" s="4">
         <f>Custom!M23-Standard!M23</f>
-        <v>21.041539438502674</v>
+        <v>25.446561597593586</v>
       </c>
       <c r="E23" s="3">
         <f>Custom!N23-Standard!N23</f>
-        <v>0.20894417733479465</v>
+        <v>0.21044658840561792</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="7">
         <f>Custom!Q23-Standard!Q23</f>
-        <v>-6853.4298303117503</v>
+        <v>-7185.1015646462974</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -22188,24 +22188,24 @@
       </c>
       <c r="B24" s="4">
         <f>Custom!K24-Standard!K24</f>
-        <v>-552.75199999999995</v>
+        <v>-493.84379999999965</v>
       </c>
       <c r="C24" s="4">
         <f>Custom!L24-Standard!L24</f>
-        <v>-3.7003489051094896</v>
+        <v>-1.8998233576642338</v>
       </c>
       <c r="D24" s="4">
         <f>Custom!M24-Standard!M24</f>
-        <v>-5.8572467153284666</v>
+        <v>-5.4272598540145953</v>
       </c>
       <c r="E24" s="3">
         <f>Custom!N24-Standard!N24</f>
-        <v>-0.39155122521463614</v>
+        <v>-0.36898746427590962</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="7">
         <f>Custom!Q24-Standard!Q24</f>
-        <v>36962.685110290331</v>
+        <v>23102.242231227097</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -22228,24 +22228,24 @@
       </c>
       <c r="B27" s="4">
         <f>Custom!K27-Standard!K27</f>
-        <v>688.48500000000013</v>
+        <v>703.54190000000017</v>
       </c>
       <c r="C27" s="4">
         <f>Custom!L27-Standard!L27</f>
-        <v>15.660086666666668</v>
+        <v>21.003046666666673</v>
       </c>
       <c r="D27" s="4">
         <f>Custom!M27-Standard!M27</f>
-        <v>9.2634166666666697</v>
+        <v>9.4641753333333369</v>
       </c>
       <c r="E27" s="3">
         <f>Custom!N27-Standard!N27</f>
-        <v>0.2780570873007443</v>
+        <v>0.24197333218601255</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="7">
         <f>Custom!Q27-Standard!Q27</f>
-        <v>-139340.13356368113</v>
+        <v>-139418.10750629829</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -22268,24 +22268,24 @@
       </c>
       <c r="B30" s="4">
         <f>Custom!K30-Standard!K30</f>
-        <v>3371.679000000001</v>
+        <v>4169.0530000000008</v>
       </c>
       <c r="C30" s="4">
         <f>Custom!L30-Standard!L30</f>
-        <v>80.574504545454545</v>
+        <v>99.359740909090917</v>
       </c>
       <c r="D30" s="4">
         <f>Custom!M30-Standard!M30</f>
-        <v>65.988231818181831</v>
+        <v>80.485940909090914</v>
       </c>
       <c r="E30" s="3">
         <f>Custom!N30-Standard!N30</f>
-        <v>0.27207807288069991</v>
+        <v>0.27615859311717145</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="7">
         <f>Custom!Q30-Standard!Q30</f>
-        <v>-4131.2156640857211</v>
+        <v>-4234.2516857053361</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -22301,24 +22301,24 @@
       </c>
       <c r="B32" s="4">
         <f>Custom!K32-Standard!K32</f>
-        <v>-616.83000000000038</v>
+        <v>-796.93050000000017</v>
       </c>
       <c r="C32" s="4">
         <f>Custom!L32-Standard!L32</f>
-        <v>-4.9446800000000017</v>
+        <v>-0.38907999999999987</v>
       </c>
       <c r="D32" s="4">
         <f>Custom!M32-Standard!M32</f>
-        <v>-13.631400000000006</v>
+        <v>-17.233410000000003</v>
       </c>
       <c r="E32" s="3">
         <f>Custom!N32-Standard!N32</f>
-        <v>-0.67446237832557188</v>
+        <v>-0.66612154527025158</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="7">
         <f>Custom!Q32-Standard!Q32</f>
-        <v>6486.535729065884</v>
+        <v>6829.8274412566243</v>
       </c>
     </row>
   </sheetData>

--- a/economics.xlsx
+++ b/economics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\personal\games\workersandresources\workers-and-resources-insane-mode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D8D47E-DC0E-45EB-A08E-FCB19CEB162E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F3167C-7495-43F5-AE63-6AF9C4CF1952}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{B5883943-4FA7-4C31-ABD9-F72C92AB45FA}"/>
   </bookViews>
@@ -16441,7 +16441,7 @@
   <dimension ref="A2:Y217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32:Q32"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/economics.xlsx
+++ b/economics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\personal\games\workersandresources\workers-and-resources-insane-mode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F3167C-7495-43F5-AE63-6AF9C4CF1952}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324A6A3F-C169-4AF7-977F-FEC5B3E4CBE8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{B5883943-4FA7-4C31-ABD9-F72C92AB45FA}"/>
   </bookViews>
@@ -4779,27 +4779,27 @@
         <v>Woodcutting post</v>
       </c>
       <c r="K5" s="4">
-        <f>VLOOKUP($J5,$J$40:$Q$175,2,FALSE)</f>
+        <f t="shared" ref="K5:K30" si="0">VLOOKUP($J5,$J$40:$Q$175,2,FALSE)</f>
         <v>1134</v>
       </c>
       <c r="L5" s="4">
-        <f>VLOOKUP($J5,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" ref="L5:L31" si="1">VLOOKUP($J5,$J$40:$Q$175,3,FALSE)</f>
         <v>37.799999999999997</v>
       </c>
       <c r="M5" s="4">
-        <f>VLOOKUP($J5,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" ref="M5:M31" si="2">VLOOKUP($J5,$J$40:$Q$175,4,FALSE)</f>
         <v>37.799999999999997</v>
       </c>
       <c r="N5" s="3">
-        <f>VLOOKUP($J5,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" ref="N5:N31" si="3">VLOOKUP($J5,$J$40:$Q$175,5,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P5" s="4">
-        <f>VLOOKUP($J5,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" ref="P5:P32" si="4">VLOOKUP($J5,$J$40:$Q$175,7,FALSE)</f>
         <v>4157</v>
       </c>
       <c r="Q5" s="7">
-        <f>VLOOKUP($J5,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" ref="Q5:Q31" si="5">VLOOKUP($J5,$J$40:$Q$175,8,FALSE)</f>
         <v>109.97354497354497</v>
       </c>
       <c r="X5" s="4"/>
@@ -4823,31 +4823,31 @@
       </c>
       <c r="H6" s="5"/>
       <c r="J6" t="str">
-        <f t="shared" ref="J6:J32" si="0">A6</f>
+        <f t="shared" ref="J6:J32" si="6">A6</f>
         <v>Sawmill</v>
       </c>
       <c r="K6" s="4">
-        <f>VLOOKUP($J6,$J$40:$Q$175,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1059.4000000000005</v>
       </c>
       <c r="L6" s="4">
-        <f>VLOOKUP($J6,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>207.41000000000003</v>
       </c>
       <c r="M6" s="4">
-        <f>VLOOKUP($J6,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>52.970000000000027</v>
       </c>
       <c r="N6" s="3">
-        <f>VLOOKUP($J6,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0.25538787908008304</v>
       </c>
       <c r="P6" s="4">
-        <f>VLOOKUP($J6,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>4157</v>
       </c>
       <c r="Q6" s="7">
-        <f>VLOOKUP($J6,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>78.478383990938227</v>
       </c>
       <c r="X6" s="4"/>
@@ -4868,31 +4868,31 @@
       </c>
       <c r="H7" s="5"/>
       <c r="J7" t="str">
+        <f t="shared" si="6"/>
+        <v>Farm</v>
+      </c>
+      <c r="K7" s="4">
         <f t="shared" si="0"/>
-        <v>Farm</v>
-      </c>
-      <c r="K7" s="4">
-        <f>VLOOKUP($J7,$J$40:$Q$175,2,FALSE)</f>
         <v>28.125</v>
       </c>
       <c r="L7" s="4">
-        <f>VLOOKUP($J7,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>28.125</v>
       </c>
       <c r="M7" s="4">
-        <f>VLOOKUP($J7,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>28.125</v>
       </c>
       <c r="N7" s="3">
-        <f>VLOOKUP($J7,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P7" s="4">
-        <f>VLOOKUP($J7,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>4157</v>
       </c>
       <c r="Q7" s="7">
-        <f>VLOOKUP($J7,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>147.80444444444444</v>
       </c>
       <c r="X7" s="4"/>
@@ -4915,31 +4915,31 @@
       </c>
       <c r="H8" s="5"/>
       <c r="J8" t="str">
+        <f t="shared" si="6"/>
+        <v>Iron Mine</v>
+      </c>
+      <c r="K8" s="4">
         <f t="shared" si="0"/>
-        <v>Iron Mine</v>
-      </c>
-      <c r="K8" s="4">
-        <f>VLOOKUP($J8,$J$40:$Q$175,2,FALSE)</f>
         <v>5000</v>
       </c>
       <c r="L8" s="4">
-        <f>VLOOKUP($J8,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="M8" s="4">
-        <f>VLOOKUP($J8,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="N8" s="3">
-        <f>VLOOKUP($J8,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P8" s="4">
-        <f>VLOOKUP($J8,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>4157</v>
       </c>
       <c r="Q8" s="7">
-        <f>VLOOKUP($J8,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>207.85</v>
       </c>
       <c r="X8" s="4"/>
@@ -4963,31 +4963,31 @@
       </c>
       <c r="H9" s="5"/>
       <c r="J9" t="str">
+        <f t="shared" si="6"/>
+        <v>Iron Processing</v>
+      </c>
+      <c r="K9" s="4">
         <f t="shared" si="0"/>
-        <v>Iron Processing</v>
-      </c>
-      <c r="K9" s="4">
-        <f>VLOOKUP($J9,$J$40:$Q$175,2,FALSE)</f>
         <v>-209.40000000000009</v>
       </c>
       <c r="L9" s="4">
-        <f>VLOOKUP($J9,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>226.94000000000003</v>
       </c>
       <c r="M9" s="4">
-        <f>VLOOKUP($J9,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>-13.960000000000006</v>
       </c>
       <c r="N9" s="3">
-        <f>VLOOKUP($J9,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>-6.1514056578831432E-2</v>
       </c>
       <c r="P9" s="4">
-        <f>VLOOKUP($J9,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>4157</v>
       </c>
       <c r="Q9" s="7">
-        <f>VLOOKUP($J9,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>-297.77936962750704</v>
       </c>
       <c r="X9" s="4"/>
@@ -5015,31 +5015,31 @@
       </c>
       <c r="H10" s="5"/>
       <c r="J10" t="str">
+        <f t="shared" si="6"/>
+        <v>Steel Mill</v>
+      </c>
+      <c r="K10" s="4">
         <f t="shared" si="0"/>
-        <v>Steel Mill</v>
-      </c>
-      <c r="K10" s="4">
-        <f>VLOOKUP($J10,$J$40:$Q$175,2,FALSE)</f>
         <v>-7311.3499999999985</v>
       </c>
       <c r="L10" s="4">
-        <f>VLOOKUP($J10,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>91.583199999999991</v>
       </c>
       <c r="M10" s="4">
-        <f>VLOOKUP($J10,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>-14.622699999999996</v>
       </c>
       <c r="N10" s="3">
-        <f>VLOOKUP($J10,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>-0.15966574655613691</v>
       </c>
       <c r="P10" s="4">
-        <f>VLOOKUP($J10,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>4157</v>
       </c>
       <c r="Q10" s="7">
-        <f>VLOOKUP($J10,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>-284.28402415422602</v>
       </c>
       <c r="X10" s="4"/>
@@ -5064,31 +5064,31 @@
       </c>
       <c r="H11" s="5"/>
       <c r="J11" t="str">
+        <f t="shared" si="6"/>
+        <v>Coal Mine</v>
+      </c>
+      <c r="K11" s="4">
         <f t="shared" si="0"/>
-        <v>Coal Mine</v>
-      </c>
-      <c r="K11" s="4">
-        <f>VLOOKUP($J11,$J$40:$Q$175,2,FALSE)</f>
         <v>9350.8799999999992</v>
       </c>
       <c r="L11" s="4">
-        <f>VLOOKUP($J11,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>42.503999999999998</v>
       </c>
       <c r="M11" s="4">
-        <f>VLOOKUP($J11,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>42.503999999999998</v>
       </c>
       <c r="N11" s="3">
-        <f>VLOOKUP($J11,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P11" s="4">
-        <f>VLOOKUP($J11,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>4157</v>
       </c>
       <c r="Q11" s="7">
-        <f>VLOOKUP($J11,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>97.802559759081504</v>
       </c>
     </row>
@@ -5110,31 +5110,31 @@
       </c>
       <c r="H12" s="5"/>
       <c r="J12" t="str">
+        <f t="shared" si="6"/>
+        <v>Coal Processing</v>
+      </c>
+      <c r="K12" s="4">
         <f t="shared" si="0"/>
-        <v>Coal Processing</v>
-      </c>
-      <c r="K12" s="4">
-        <f>VLOOKUP($J12,$J$40:$Q$175,2,FALSE)</f>
         <v>6971.7000000000007</v>
       </c>
       <c r="L12" s="4">
-        <f>VLOOKUP($J12,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>768.72</v>
       </c>
       <c r="M12" s="4">
-        <f>VLOOKUP($J12,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>464.78000000000003</v>
       </c>
       <c r="N12" s="3">
-        <f>VLOOKUP($J12,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0.60461546466853988</v>
       </c>
       <c r="P12" s="4">
-        <f>VLOOKUP($J12,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>4157</v>
       </c>
       <c r="Q12" s="7">
-        <f>VLOOKUP($J12,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>8.9440165239468126</v>
       </c>
     </row>
@@ -5156,31 +5156,31 @@
       </c>
       <c r="H13" s="5"/>
       <c r="J13" t="str">
+        <f t="shared" si="6"/>
+        <v>Brick Factory</v>
+      </c>
+      <c r="K13" s="4">
         <f t="shared" si="0"/>
-        <v>Brick Factory</v>
-      </c>
-      <c r="K13" s="4">
-        <f>VLOOKUP($J13,$J$40:$Q$175,2,FALSE)</f>
         <v>-316.26000000000022</v>
       </c>
       <c r="L13" s="4">
-        <f>VLOOKUP($J13,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>47.144399999999997</v>
       </c>
       <c r="M13" s="4">
-        <f>VLOOKUP($J13,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>-4.2168000000000028</v>
       </c>
       <c r="N13" s="3">
-        <f>VLOOKUP($J13,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>-8.9444345457785082E-2</v>
       </c>
       <c r="P13" s="4">
-        <f>VLOOKUP($J13,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>4157</v>
       </c>
       <c r="Q13" s="7">
-        <f>VLOOKUP($J13,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>-985.81863024094037</v>
       </c>
     </row>
@@ -5202,31 +5202,31 @@
       </c>
       <c r="H14" s="5"/>
       <c r="J14" t="str">
+        <f t="shared" si="6"/>
+        <v>Coal Power</v>
+      </c>
+      <c r="K14" s="4">
         <f t="shared" si="0"/>
-        <v>Coal Power</v>
-      </c>
-      <c r="K14" s="4">
-        <f>VLOOKUP($J14,$J$40:$Q$175,2,FALSE)</f>
         <v>3792.48</v>
       </c>
       <c r="L14" s="4">
-        <f>VLOOKUP($J14,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>329.7</v>
       </c>
       <c r="M14" s="4">
-        <f>VLOOKUP($J14,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>189.624</v>
       </c>
       <c r="N14" s="3">
-        <f>VLOOKUP($J14,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0.57514103730664246</v>
       </c>
       <c r="P14" s="4">
-        <f>VLOOKUP($J14,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>4157</v>
       </c>
       <c r="Q14" s="7">
-        <f>VLOOKUP($J14,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>21.922330506686919</v>
       </c>
     </row>
@@ -5249,31 +5249,31 @@
       </c>
       <c r="H15" s="5"/>
       <c r="J15" t="str">
+        <f t="shared" si="6"/>
+        <v>Quarry</v>
+      </c>
+      <c r="K15" s="4">
         <f t="shared" si="0"/>
-        <v>Quarry</v>
-      </c>
-      <c r="K15" s="4">
-        <f>VLOOKUP($J15,$J$40:$Q$175,2,FALSE)</f>
         <v>63.000000000000028</v>
       </c>
       <c r="L15" s="4">
-        <f>VLOOKUP($J15,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>1.5750000000000006</v>
       </c>
       <c r="M15" s="4">
-        <f>VLOOKUP($J15,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1.5750000000000006</v>
       </c>
       <c r="N15" s="3">
-        <f>VLOOKUP($J15,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P15" s="4">
-        <f>VLOOKUP($J15,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>4157</v>
       </c>
       <c r="Q15" s="7">
-        <f>VLOOKUP($J15,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>2639.3650793650786</v>
       </c>
     </row>
@@ -5297,31 +5297,31 @@
       </c>
       <c r="H16" s="5"/>
       <c r="J16" t="str">
+        <f t="shared" si="6"/>
+        <v>Gravel Plant</v>
+      </c>
+      <c r="K16" s="4">
         <f t="shared" si="0"/>
-        <v>Gravel Plant</v>
-      </c>
-      <c r="K16" s="4">
-        <f>VLOOKUP($J16,$J$40:$Q$175,2,FALSE)</f>
         <v>-921.57999999999981</v>
       </c>
       <c r="L16" s="4">
-        <f>VLOOKUP($J16,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>35.041333333333334</v>
       </c>
       <c r="M16" s="4">
-        <f>VLOOKUP($J16,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>-61.438666666666656</v>
       </c>
       <c r="N16" s="3">
-        <f>VLOOKUP($J16,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>-1.7533198888931163</v>
       </c>
       <c r="P16" s="4">
-        <f>VLOOKUP($J16,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>4157</v>
       </c>
       <c r="Q16" s="7">
-        <f>VLOOKUP($J16,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>-67.660973545432853</v>
       </c>
     </row>
@@ -5347,31 +5347,31 @@
       </c>
       <c r="H17" s="5"/>
       <c r="J17" t="str">
+        <f t="shared" si="6"/>
+        <v>Cement Plant</v>
+      </c>
+      <c r="K17" s="4">
         <f t="shared" si="0"/>
-        <v>Cement Plant</v>
-      </c>
-      <c r="K17" s="4">
-        <f>VLOOKUP($J17,$J$40:$Q$175,2,FALSE)</f>
         <v>-687.29999999999927</v>
       </c>
       <c r="L17" s="4">
-        <f>VLOOKUP($J17,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>187.00200000000001</v>
       </c>
       <c r="M17" s="4">
-        <f>VLOOKUP($J17,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>-22.909999999999975</v>
       </c>
       <c r="N17" s="3">
-        <f>VLOOKUP($J17,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>-0.12251205869455928</v>
       </c>
       <c r="P17" s="4">
-        <f>VLOOKUP($J17,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>4157</v>
       </c>
       <c r="Q17" s="7">
-        <f>VLOOKUP($J17,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>-181.44914884330007</v>
       </c>
     </row>
@@ -5397,31 +5397,31 @@
       </c>
       <c r="H18" s="5"/>
       <c r="J18" t="str">
+        <f t="shared" si="6"/>
+        <v>Concrete Plant</v>
+      </c>
+      <c r="K18" s="4">
         <f t="shared" si="0"/>
-        <v>Concrete Plant</v>
-      </c>
-      <c r="K18" s="4">
-        <f>VLOOKUP($J18,$J$40:$Q$175,2,FALSE)</f>
         <v>-3055.3999999999996</v>
       </c>
       <c r="L18" s="4">
-        <f>VLOOKUP($J18,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>399.35</v>
       </c>
       <c r="M18" s="4">
-        <f>VLOOKUP($J18,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>-611.07999999999993</v>
       </c>
       <c r="N18" s="3">
-        <f>VLOOKUP($J18,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>-1.5301865531488668</v>
       </c>
       <c r="P18" s="4">
-        <f>VLOOKUP($J18,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>4157</v>
       </c>
       <c r="Q18" s="7">
-        <f>VLOOKUP($J18,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>-6.8027099561432225</v>
       </c>
     </row>
@@ -5443,31 +5443,31 @@
       </c>
       <c r="H19" s="5"/>
       <c r="J19" t="str">
+        <f t="shared" si="6"/>
+        <v>Oil rig</v>
+      </c>
+      <c r="K19" s="4">
         <f t="shared" si="0"/>
-        <v>Oil rig</v>
-      </c>
-      <c r="K19" s="4">
-        <f>VLOOKUP($J19,$J$40:$Q$175,2,FALSE)</f>
         <v>329.86</v>
       </c>
       <c r="L19" s="4">
-        <f>VLOOKUP($J19,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>350.14000000000004</v>
       </c>
       <c r="M19" s="4">
-        <f>VLOOKUP($J19,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>329.86</v>
       </c>
       <c r="N19" s="3">
-        <f>VLOOKUP($J19,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0.94208031073284959</v>
       </c>
       <c r="P19" s="4">
-        <f>VLOOKUP($J19,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>4157</v>
       </c>
       <c r="Q19" s="7">
-        <f>VLOOKUP($J19,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>12.602316134117505</v>
       </c>
     </row>
@@ -5493,31 +5493,31 @@
         <v>75</v>
       </c>
       <c r="J20" t="str">
+        <f t="shared" si="6"/>
+        <v>Refinery</v>
+      </c>
+      <c r="K20" s="4">
         <f t="shared" si="0"/>
-        <v>Refinery</v>
-      </c>
-      <c r="K20" s="4">
-        <f>VLOOKUP($J20,$J$40:$Q$175,2,FALSE)</f>
         <v>21259.1</v>
       </c>
       <c r="L20" s="4">
-        <f>VLOOKUP($J20,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>75.548000000000002</v>
       </c>
       <c r="M20" s="4">
-        <f>VLOOKUP($J20,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>42.5182</v>
       </c>
       <c r="N20" s="3">
-        <f>VLOOKUP($J20,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0.56279716206914809</v>
       </c>
       <c r="P20" s="4">
-        <f>VLOOKUP($J20,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>4157</v>
       </c>
       <c r="Q20" s="7">
-        <f>VLOOKUP($J20,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>97.769896185633442</v>
       </c>
     </row>
@@ -5543,31 +5543,31 @@
       </c>
       <c r="H21" s="5"/>
       <c r="J21" t="str">
+        <f t="shared" si="6"/>
+        <v>Asphalt</v>
+      </c>
+      <c r="K21" s="4">
         <f t="shared" si="0"/>
-        <v>Asphalt</v>
-      </c>
-      <c r="K21" s="4">
-        <f>VLOOKUP($J21,$J$40:$Q$175,2,FALSE)</f>
         <v>-2581.1500000000005</v>
       </c>
       <c r="L21" s="4">
-        <f>VLOOKUP($J21,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>990.06000000000006</v>
       </c>
       <c r="M21" s="4">
-        <f>VLOOKUP($J21,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>-516.23000000000013</v>
       </c>
       <c r="N21" s="3">
-        <f>VLOOKUP($J21,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>-0.52141284366604057</v>
       </c>
       <c r="P21" s="4">
-        <f>VLOOKUP($J21,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>4157</v>
       </c>
       <c r="Q21" s="7">
-        <f>VLOOKUP($J21,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>-8.0526122077368605</v>
       </c>
     </row>
@@ -5589,31 +5589,31 @@
       </c>
       <c r="H22" s="5"/>
       <c r="J22" t="str">
+        <f t="shared" si="6"/>
+        <v>Livestock Farm</v>
+      </c>
+      <c r="K22" s="4">
         <f t="shared" si="0"/>
-        <v>Livestock Farm</v>
-      </c>
-      <c r="K22" s="4">
-        <f>VLOOKUP($J22,$J$40:$Q$175,2,FALSE)</f>
         <v>7857.5</v>
       </c>
       <c r="L22" s="4">
-        <f>VLOOKUP($J22,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>161.74</v>
       </c>
       <c r="M22" s="4">
-        <f>VLOOKUP($J22,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>157.15</v>
       </c>
       <c r="N22" s="3">
-        <f>VLOOKUP($J22,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0.97162112031655745</v>
       </c>
       <c r="P22" s="4">
-        <f>VLOOKUP($J22,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>4157</v>
       </c>
       <c r="Q22" s="7">
-        <f>VLOOKUP($J22,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>26.452433980273625</v>
       </c>
     </row>
@@ -5635,31 +5635,31 @@
       </c>
       <c r="H23" s="5"/>
       <c r="J23" t="str">
+        <f t="shared" si="6"/>
+        <v>Slaughterhouse</v>
+      </c>
+      <c r="K23" s="4">
         <f t="shared" si="0"/>
-        <v>Slaughterhouse</v>
-      </c>
-      <c r="K23" s="4">
-        <f>VLOOKUP($J23,$J$40:$Q$175,2,FALSE)</f>
         <v>-156076.25</v>
       </c>
       <c r="L23" s="4">
-        <f>VLOOKUP($J23,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>5869.3249999999998</v>
       </c>
       <c r="M23" s="4">
-        <f>VLOOKUP($J23,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>-3121.5250000000001</v>
       </c>
       <c r="N23" s="3">
-        <f>VLOOKUP($J23,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>-0.5318371362976152</v>
       </c>
       <c r="P23" s="4">
-        <f>VLOOKUP($J23,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>4157</v>
       </c>
       <c r="Q23" s="7">
-        <f>VLOOKUP($J23,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>-1.3317208736114559</v>
       </c>
     </row>
@@ -5681,31 +5681,31 @@
       </c>
       <c r="H24" s="5"/>
       <c r="J24" t="str">
+        <f t="shared" si="6"/>
+        <v>Food Factory</v>
+      </c>
+      <c r="K24" s="4">
         <f t="shared" si="0"/>
-        <v>Food Factory</v>
-      </c>
-      <c r="K24" s="4">
-        <f>VLOOKUP($J24,$J$40:$Q$175,2,FALSE)</f>
         <v>1300.6999999999998</v>
       </c>
       <c r="L24" s="4">
-        <f>VLOOKUP($J24,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>13.321176470588235</v>
       </c>
       <c r="M24" s="4">
-        <f>VLOOKUP($J24,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>7.6511764705882346</v>
       </c>
       <c r="N24" s="3">
-        <f>VLOOKUP($J24,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0.57436191821955307</v>
       </c>
       <c r="P24" s="4">
-        <f>VLOOKUP($J24,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>4157</v>
       </c>
       <c r="Q24" s="7">
-        <f>VLOOKUP($J24,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>543.31513800261405</v>
       </c>
     </row>
@@ -5729,31 +5729,31 @@
       </c>
       <c r="H25" s="5"/>
       <c r="J25" t="str">
+        <f t="shared" si="6"/>
+        <v>Distillery</v>
+      </c>
+      <c r="K25" s="4">
         <f t="shared" si="0"/>
-        <v>Distillery</v>
-      </c>
-      <c r="K25" s="4">
-        <f>VLOOKUP($J25,$J$40:$Q$175,2,FALSE)</f>
         <v>674.83999999999992</v>
       </c>
       <c r="L25" s="4">
-        <f>VLOOKUP($J25,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>14.1534</v>
       </c>
       <c r="M25" s="4">
-        <f>VLOOKUP($J25,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>6.7483999999999993</v>
       </c>
       <c r="N25" s="3">
-        <f>VLOOKUP($J25,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0.47680416013113452</v>
       </c>
       <c r="P25" s="4">
-        <f>VLOOKUP($J25,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>4157</v>
       </c>
       <c r="Q25" s="7">
-        <f>VLOOKUP($J25,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>615.99786616086783</v>
       </c>
     </row>
@@ -5779,31 +5779,31 @@
       </c>
       <c r="H26" s="5"/>
       <c r="J26" t="str">
+        <f t="shared" si="6"/>
+        <v>Chemical Plant</v>
+      </c>
+      <c r="K26" s="4">
         <f t="shared" si="0"/>
-        <v>Chemical Plant</v>
-      </c>
-      <c r="K26" s="4">
-        <f>VLOOKUP($J26,$J$40:$Q$175,2,FALSE)</f>
         <v>948.32500000000005</v>
       </c>
       <c r="L26" s="4">
-        <f>VLOOKUP($J26,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>20.630399999999998</v>
       </c>
       <c r="M26" s="4">
-        <f>VLOOKUP($J26,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>18.9665</v>
       </c>
       <c r="N26" s="3">
-        <f>VLOOKUP($J26,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0.91934717698154189</v>
       </c>
       <c r="P26" s="4">
-        <f>VLOOKUP($J26,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>4157</v>
       </c>
       <c r="Q26" s="7">
-        <f>VLOOKUP($J26,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>219.17591542983681</v>
       </c>
     </row>
@@ -5829,31 +5829,31 @@
       </c>
       <c r="H27" s="5"/>
       <c r="J27" t="str">
+        <f t="shared" si="6"/>
+        <v>Plastics Factory</v>
+      </c>
+      <c r="K27" s="4">
         <f t="shared" si="0"/>
-        <v>Plastics Factory</v>
-      </c>
-      <c r="K27" s="4">
-        <f>VLOOKUP($J27,$J$40:$Q$175,2,FALSE)</f>
         <v>-12015.849999999997</v>
       </c>
       <c r="L27" s="4">
-        <f>VLOOKUP($J27,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>132.624</v>
       </c>
       <c r="M27" s="4">
-        <f>VLOOKUP($J27,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>-120.15849999999996</v>
       </c>
       <c r="N27" s="3">
-        <f>VLOOKUP($J27,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>-0.90600871637109404</v>
       </c>
       <c r="P27" s="4">
-        <f>VLOOKUP($J27,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>4157</v>
       </c>
       <c r="Q27" s="7">
-        <f>VLOOKUP($J27,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>-34.595971154766417</v>
       </c>
     </row>
@@ -5879,31 +5879,31 @@
       </c>
       <c r="H28" s="5"/>
       <c r="J28" t="str">
+        <f t="shared" si="6"/>
+        <v>Fabric</v>
+      </c>
+      <c r="K28" s="4">
         <f t="shared" si="0"/>
-        <v>Fabric</v>
-      </c>
-      <c r="K28" s="4">
-        <f>VLOOKUP($J28,$J$40:$Q$175,2,FALSE)</f>
         <v>25.085000000000036</v>
       </c>
       <c r="L28" s="4">
-        <f>VLOOKUP($J28,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>16.814499999999999</v>
       </c>
       <c r="M28" s="4">
-        <f>VLOOKUP($J28,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0.25085000000000035</v>
       </c>
       <c r="N28" s="3">
-        <f>VLOOKUP($J28,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>1.4918671384816697E-2</v>
       </c>
       <c r="P28" s="4">
-        <f>VLOOKUP($J28,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>4157</v>
       </c>
       <c r="Q28" s="7">
-        <f>VLOOKUP($J28,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>16571.656368347594</v>
       </c>
     </row>
@@ -5925,31 +5925,31 @@
       </c>
       <c r="H29" s="5"/>
       <c r="J29" t="str">
+        <f t="shared" si="6"/>
+        <v>Mech Component</v>
+      </c>
+      <c r="K29" s="4">
         <f t="shared" si="0"/>
-        <v>Mech Component</v>
-      </c>
-      <c r="K29" s="4">
-        <f>VLOOKUP($J29,$J$40:$Q$175,2,FALSE)</f>
         <v>-1108.3899999999994</v>
       </c>
       <c r="L29" s="4">
-        <f>VLOOKUP($J29,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>179.73099999999999</v>
       </c>
       <c r="M29" s="4">
-        <f>VLOOKUP($J29,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>-7.3892666666666624</v>
       </c>
       <c r="N29" s="3">
-        <f>VLOOKUP($J29,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>-4.1112922460046754E-2</v>
       </c>
       <c r="P29" s="4">
-        <f>VLOOKUP($J29,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>4157</v>
       </c>
       <c r="Q29" s="7">
-        <f>VLOOKUP($J29,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>-562.57274064183218</v>
       </c>
     </row>
@@ -5975,31 +5975,31 @@
       </c>
       <c r="H30" s="5"/>
       <c r="J30" t="str">
+        <f t="shared" si="6"/>
+        <v>Elect Comp</v>
+      </c>
+      <c r="K30" s="4">
         <f t="shared" si="0"/>
-        <v>Elect Comp</v>
-      </c>
-      <c r="K30" s="4">
-        <f>VLOOKUP($J30,$J$40:$Q$175,2,FALSE)</f>
         <v>248.00000000000091</v>
       </c>
       <c r="L30" s="4">
-        <f>VLOOKUP($J30,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>42.614973333333332</v>
       </c>
       <c r="M30" s="4">
-        <f>VLOOKUP($J30,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1.6533333333333393</v>
       </c>
       <c r="N30" s="3">
-        <f>VLOOKUP($J30,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>3.8797004996366048E-2</v>
       </c>
       <c r="P30" s="4">
-        <f>VLOOKUP($J30,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>4157</v>
       </c>
       <c r="Q30" s="7">
-        <f>VLOOKUP($J30,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>2514.3145161290231</v>
       </c>
     </row>
@@ -6021,7 +6021,7 @@
       </c>
       <c r="H31" s="5"/>
       <c r="J31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>Clothing Factory</v>
       </c>
       <c r="K31" s="4">
@@ -6029,23 +6029,23 @@
         <v>824.5559999999997</v>
       </c>
       <c r="L31" s="4">
-        <f>VLOOKUP($J31,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>21.773549999999997</v>
       </c>
       <c r="M31" s="4">
-        <f>VLOOKUP($J31,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>10.306949999999997</v>
       </c>
       <c r="N31" s="3">
-        <f>VLOOKUP($J31,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0.47337021294184906</v>
       </c>
       <c r="P31" s="4">
-        <f>VLOOKUP($J31,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>4157</v>
       </c>
       <c r="Q31" s="7">
-        <f>VLOOKUP($J31,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>403.32008984229105</v>
       </c>
     </row>
@@ -6071,7 +6071,7 @@
       </c>
       <c r="H32" s="7"/>
       <c r="J32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>Elect Assembly</v>
       </c>
       <c r="K32" s="4">
@@ -6091,7 +6091,7 @@
         <v>4.1474237944260577E-2</v>
       </c>
       <c r="P32" s="4">
-        <f>VLOOKUP($J32,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>4157</v>
       </c>
       <c r="Q32" s="7">
@@ -6297,11 +6297,11 @@
         <v>17</v>
       </c>
       <c r="T38" s="4">
-        <f t="shared" ref="T38:T65" si="1">X38-$T$33</f>
+        <f t="shared" ref="T38:T65" si="7">X38-$T$33</f>
         <v>0.45000000000000018</v>
       </c>
       <c r="U38" s="4">
-        <f t="shared" ref="U38:U65" si="2">Y38+$T$33</f>
+        <f t="shared" ref="U38:U65" si="8">Y38+$T$33</f>
         <v>11.02</v>
       </c>
       <c r="W38" t="s">
@@ -6342,11 +6342,11 @@
         <v>18</v>
       </c>
       <c r="T39" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>11.25</v>
       </c>
       <c r="U39" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>22.95</v>
       </c>
       <c r="W39" t="s">
@@ -6417,11 +6417,11 @@
         <v>19</v>
       </c>
       <c r="T40" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1144.79</v>
       </c>
       <c r="U40" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1275.82</v>
       </c>
       <c r="W40" t="s">
@@ -6439,11 +6439,11 @@
         <v>20</v>
       </c>
       <c r="T41" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>23.96</v>
       </c>
       <c r="U41" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>37.01</v>
       </c>
       <c r="W41" t="s">
@@ -6488,11 +6488,11 @@
         <v>21</v>
       </c>
       <c r="T42" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>69.33</v>
       </c>
       <c r="U42" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>87.16</v>
       </c>
       <c r="W42" t="s">
@@ -6519,11 +6519,11 @@
         <v>22</v>
       </c>
       <c r="T43" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="U43" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>17.16</v>
       </c>
       <c r="W43" t="s">
@@ -6564,11 +6564,11 @@
         <v>23</v>
       </c>
       <c r="T44" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>50.02</v>
       </c>
       <c r="U44" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>65.81</v>
       </c>
       <c r="W44" t="s">
@@ -6639,11 +6639,11 @@
         <v>24</v>
       </c>
       <c r="T45" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>2063.04</v>
       </c>
       <c r="U45" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2290.73</v>
       </c>
       <c r="W45" t="s">
@@ -6661,11 +6661,11 @@
         <v>25</v>
       </c>
       <c r="T46" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>96.09</v>
       </c>
       <c r="U46" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>116.73</v>
       </c>
       <c r="W46" t="s">
@@ -6710,11 +6710,11 @@
         <v>26</v>
       </c>
       <c r="T47" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>10.119999999999999</v>
       </c>
       <c r="U47" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>21.71</v>
       </c>
       <c r="W47" t="s">
@@ -6738,11 +6738,11 @@
         <v>27</v>
       </c>
       <c r="T48" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>32.42</v>
       </c>
       <c r="U48" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>46.36</v>
       </c>
       <c r="W48" t="s">
@@ -6812,11 +6812,11 @@
         <v>28</v>
       </c>
       <c r="T49" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="U49" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>16.060000000000002</v>
       </c>
       <c r="W49" t="s">
@@ -6858,11 +6858,11 @@
         <v>29</v>
       </c>
       <c r="T50" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>228.07</v>
       </c>
       <c r="U50" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>262.61</v>
       </c>
       <c r="W50" t="s">
@@ -6880,11 +6880,11 @@
         <v>30</v>
       </c>
       <c r="T51" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>29.630000000000003</v>
       </c>
       <c r="U51" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>43.28</v>
       </c>
       <c r="W51" t="s">
@@ -6929,11 +6929,11 @@
         <v>31</v>
       </c>
       <c r="T52" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>165.35</v>
       </c>
       <c r="U52" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>193.28</v>
       </c>
       <c r="W52" t="s">
@@ -6957,11 +6957,11 @@
         <v>32</v>
       </c>
       <c r="T53" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>336.29</v>
       </c>
       <c r="U53" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>382.22</v>
       </c>
       <c r="W53" t="s">
@@ -7002,11 +7002,11 @@
         <v>33</v>
       </c>
       <c r="T54" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>235.89</v>
       </c>
       <c r="U54" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>271.25</v>
       </c>
       <c r="W54" t="s">
@@ -7077,11 +7077,11 @@
         <v>34</v>
       </c>
       <c r="T55" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>69.260000000000005</v>
       </c>
       <c r="U55" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>87.08</v>
       </c>
       <c r="W55" t="s">
@@ -7099,11 +7099,11 @@
         <v>35</v>
       </c>
       <c r="T56" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>113.23</v>
       </c>
       <c r="U56" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>135.68</v>
       </c>
       <c r="W56" t="s">
@@ -7148,11 +7148,11 @@
         <v>36</v>
       </c>
       <c r="T57" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1451.57</v>
       </c>
       <c r="U57" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1614.89</v>
       </c>
       <c r="W57" t="s">
@@ -7179,11 +7179,11 @@
         <v>37</v>
       </c>
       <c r="T58" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>2347.73</v>
       </c>
       <c r="U58" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2605.38</v>
       </c>
       <c r="W58" t="s">
@@ -7224,11 +7224,11 @@
         <v>38</v>
       </c>
       <c r="T59" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1617.4</v>
       </c>
       <c r="U59" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1798.17</v>
       </c>
       <c r="W59" t="s">
@@ -7299,11 +7299,11 @@
         <v>39</v>
       </c>
       <c r="T60" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>34.14</v>
       </c>
       <c r="U60" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>48.26</v>
       </c>
       <c r="W60" t="s">
@@ -7321,11 +7321,11 @@
         <v>40</v>
       </c>
       <c r="T61" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>11.41</v>
       </c>
       <c r="U61" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>23.14</v>
       </c>
       <c r="W61" t="s">
@@ -7370,11 +7370,11 @@
         <v>41</v>
       </c>
       <c r="T62" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1682.17</v>
       </c>
       <c r="U62" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1869.77</v>
       </c>
       <c r="W62" t="s">
@@ -7407,11 +7407,11 @@
         <v>42</v>
       </c>
       <c r="T63" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1797.31</v>
       </c>
       <c r="U63" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1997.02</v>
       </c>
       <c r="W63" t="s">
@@ -7452,11 +7452,11 @@
         <v>43</v>
       </c>
       <c r="T64" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>884.16</v>
       </c>
       <c r="U64" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>987.76</v>
       </c>
       <c r="W64" t="s">
@@ -7527,11 +7527,11 @@
         <v>44</v>
       </c>
       <c r="T65" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1871.4</v>
       </c>
       <c r="U65" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2078.92</v>
       </c>
       <c r="W65" t="s">
@@ -9201,11 +9201,11 @@
         <v>963.9</v>
       </c>
       <c r="D135" s="6">
-        <f t="shared" ref="D135:E135" si="3">D134*D132</f>
+        <f t="shared" ref="D135:E135" si="9">D134*D132</f>
         <v>0</v>
       </c>
       <c r="E135" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F135" s="1"/>
@@ -10652,27 +10652,27 @@
         <v>Woodcutting post</v>
       </c>
       <c r="K5" s="4">
-        <f>VLOOKUP($J5,$J$40:$Q$175,2,FALSE)</f>
+        <f t="shared" ref="K5:K32" si="0">VLOOKUP($J5,$J$40:$Q$175,2,FALSE)</f>
         <v>1134</v>
       </c>
       <c r="L5" s="4">
-        <f>VLOOKUP($J5,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" ref="L5:L32" si="1">VLOOKUP($J5,$J$40:$Q$175,3,FALSE)</f>
         <v>37.799999999999997</v>
       </c>
       <c r="M5" s="4">
-        <f>VLOOKUP($J5,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" ref="M5:M32" si="2">VLOOKUP($J5,$J$40:$Q$175,4,FALSE)</f>
         <v>37.799999999999997</v>
       </c>
       <c r="N5" s="3">
-        <f>VLOOKUP($J5,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" ref="N5:N32" si="3">VLOOKUP($J5,$J$40:$Q$175,5,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P5" s="4">
-        <f>VLOOKUP($J5,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" ref="P5:P32" si="4">VLOOKUP($J5,$J$40:$Q$175,7,FALSE)</f>
         <v>4157</v>
       </c>
       <c r="Q5" s="7">
-        <f>VLOOKUP($J5,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" ref="Q5:Q32" si="5">VLOOKUP($J5,$J$40:$Q$175,8,FALSE)</f>
         <v>109.97354497354497</v>
       </c>
       <c r="X5" s="4"/>
@@ -10695,31 +10695,31 @@
       </c>
       <c r="H6"/>
       <c r="J6" t="str">
-        <f t="shared" ref="J6:J33" si="0">A6</f>
+        <f t="shared" ref="J6:J33" si="6">A6</f>
         <v>Sawmill</v>
       </c>
       <c r="K6" s="4">
-        <f>VLOOKUP($J6,$J$40:$Q$175,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1059.4000000000005</v>
       </c>
       <c r="L6" s="4">
-        <f>VLOOKUP($J6,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>207.41000000000003</v>
       </c>
       <c r="M6" s="4">
-        <f>VLOOKUP($J6,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>52.970000000000027</v>
       </c>
       <c r="N6" s="3">
-        <f>VLOOKUP($J6,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0.25538787908008304</v>
       </c>
       <c r="P6" s="4">
-        <f>VLOOKUP($J6,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>21764</v>
       </c>
       <c r="Q6" s="7">
-        <f>VLOOKUP($J6,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>410.87407966773628</v>
       </c>
       <c r="X6" s="4"/>
@@ -10740,31 +10740,31 @@
       </c>
       <c r="H7"/>
       <c r="J7" t="str">
+        <f t="shared" si="6"/>
+        <v>Farm</v>
+      </c>
+      <c r="K7" s="4">
         <f t="shared" si="0"/>
-        <v>Farm</v>
-      </c>
-      <c r="K7" s="4">
-        <f>VLOOKUP($J7,$J$40:$Q$175,2,FALSE)</f>
         <v>28.125</v>
       </c>
       <c r="L7" s="4">
-        <f>VLOOKUP($J7,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>28.125</v>
       </c>
       <c r="M7" s="4">
-        <f>VLOOKUP($J7,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>28.125</v>
       </c>
       <c r="N7" s="3">
-        <f>VLOOKUP($J7,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P7" s="4">
-        <f>VLOOKUP($J7,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>4157</v>
       </c>
       <c r="Q7" s="7">
-        <f>VLOOKUP($J7,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>147.80444444444444</v>
       </c>
       <c r="X7" s="4"/>
@@ -10787,31 +10787,31 @@
       </c>
       <c r="H8" s="5"/>
       <c r="J8" t="str">
+        <f t="shared" si="6"/>
+        <v>Iron Mine</v>
+      </c>
+      <c r="K8" s="4">
         <f t="shared" si="0"/>
-        <v>Iron Mine</v>
-      </c>
-      <c r="K8" s="4">
-        <f>VLOOKUP($J8,$J$40:$Q$175,2,FALSE)</f>
         <v>5000</v>
       </c>
       <c r="L8" s="4">
-        <f>VLOOKUP($J8,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="M8" s="4">
-        <f>VLOOKUP($J8,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="N8" s="3">
-        <f>VLOOKUP($J8,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P8" s="4">
-        <f>VLOOKUP($J8,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>85018</v>
       </c>
       <c r="Q8" s="7">
-        <f>VLOOKUP($J8,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>4250.8999999999996</v>
       </c>
       <c r="X8" s="4"/>
@@ -10835,31 +10835,31 @@
       </c>
       <c r="H9" s="5"/>
       <c r="J9" t="str">
+        <f t="shared" si="6"/>
+        <v>Iron Processing</v>
+      </c>
+      <c r="K9" s="4">
         <f t="shared" si="0"/>
-        <v>Iron Processing</v>
-      </c>
-      <c r="K9" s="4">
-        <f>VLOOKUP($J9,$J$40:$Q$175,2,FALSE)</f>
         <v>-209.40000000000009</v>
       </c>
       <c r="L9" s="4">
-        <f>VLOOKUP($J9,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>226.94000000000003</v>
       </c>
       <c r="M9" s="4">
-        <f>VLOOKUP($J9,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>-13.960000000000006</v>
       </c>
       <c r="N9" s="3">
-        <f>VLOOKUP($J9,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>-6.1514056578831432E-2</v>
       </c>
       <c r="P9" s="4">
-        <f>VLOOKUP($J9,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>146810</v>
       </c>
       <c r="Q9" s="7">
-        <f>VLOOKUP($J9,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>-10516.475644699136</v>
       </c>
       <c r="X9" s="4"/>
@@ -10887,31 +10887,31 @@
       </c>
       <c r="H10" s="5"/>
       <c r="J10" t="str">
+        <f t="shared" si="6"/>
+        <v>Steel Mill</v>
+      </c>
+      <c r="K10" s="4">
         <f t="shared" si="0"/>
-        <v>Steel Mill</v>
-      </c>
-      <c r="K10" s="4">
-        <f>VLOOKUP($J10,$J$40:$Q$175,2,FALSE)</f>
         <v>-7311.3499999999985</v>
       </c>
       <c r="L10" s="4">
-        <f>VLOOKUP($J10,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>91.583199999999991</v>
       </c>
       <c r="M10" s="4">
-        <f>VLOOKUP($J10,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>-14.622699999999996</v>
       </c>
       <c r="N10" s="3">
-        <f>VLOOKUP($J10,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>-0.15966574655613691</v>
       </c>
       <c r="P10" s="4">
-        <f>VLOOKUP($J10,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>257030</v>
       </c>
       <c r="Q10" s="7">
-        <f>VLOOKUP($J10,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>-17577.465174010274</v>
       </c>
       <c r="X10" s="4"/>
@@ -10936,31 +10936,31 @@
       </c>
       <c r="H11" s="5"/>
       <c r="J11" t="str">
+        <f t="shared" si="6"/>
+        <v>Coal Mine</v>
+      </c>
+      <c r="K11" s="4">
         <f t="shared" si="0"/>
-        <v>Coal Mine</v>
-      </c>
-      <c r="K11" s="4">
-        <f>VLOOKUP($J11,$J$40:$Q$175,2,FALSE)</f>
         <v>9350.8799999999992</v>
       </c>
       <c r="L11" s="4">
-        <f>VLOOKUP($J11,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>42.503999999999998</v>
       </c>
       <c r="M11" s="4">
-        <f>VLOOKUP($J11,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>42.503999999999998</v>
       </c>
       <c r="N11" s="3">
-        <f>VLOOKUP($J11,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P11" s="4">
-        <f>VLOOKUP($J11,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>84568</v>
       </c>
       <c r="Q11" s="7">
-        <f>VLOOKUP($J11,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>1989.6480331262942</v>
       </c>
     </row>
@@ -10982,31 +10982,31 @@
       </c>
       <c r="H12" s="5"/>
       <c r="J12" t="str">
+        <f t="shared" si="6"/>
+        <v>Coal Processing</v>
+      </c>
+      <c r="K12" s="4">
         <f t="shared" si="0"/>
-        <v>Coal Processing</v>
-      </c>
-      <c r="K12" s="4">
-        <f>VLOOKUP($J12,$J$40:$Q$175,2,FALSE)</f>
         <v>2647.6499999999996</v>
       </c>
       <c r="L12" s="4">
-        <f>VLOOKUP($J12,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>240.22499999999999</v>
       </c>
       <c r="M12" s="4">
-        <f>VLOOKUP($J12,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>88.254999999999981</v>
       </c>
       <c r="N12" s="3">
-        <f>VLOOKUP($J12,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0.36738474346966382</v>
       </c>
       <c r="P12" s="4">
-        <f>VLOOKUP($J12,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>146810</v>
       </c>
       <c r="Q12" s="7">
-        <f>VLOOKUP($J12,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>1663.4751572148889</v>
       </c>
     </row>
@@ -11028,31 +11028,31 @@
       </c>
       <c r="H13" s="5"/>
       <c r="J13" t="str">
+        <f t="shared" si="6"/>
+        <v>Brick Factory</v>
+      </c>
+      <c r="K13" s="4">
         <f t="shared" si="0"/>
-        <v>Brick Factory</v>
-      </c>
-      <c r="K13" s="4">
-        <f>VLOOKUP($J13,$J$40:$Q$175,2,FALSE)</f>
         <v>-316.26000000000022</v>
       </c>
       <c r="L13" s="4">
-        <f>VLOOKUP($J13,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>47.144399999999997</v>
       </c>
       <c r="M13" s="4">
-        <f>VLOOKUP($J13,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>-4.2168000000000028</v>
       </c>
       <c r="N13" s="3">
-        <f>VLOOKUP($J13,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>-8.9444345457785082E-2</v>
       </c>
       <c r="P13" s="4">
-        <f>VLOOKUP($J13,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>56668</v>
       </c>
       <c r="Q13" s="7">
-        <f>VLOOKUP($J13,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>-13438.626446594564</v>
       </c>
     </row>
@@ -11074,31 +11074,31 @@
       </c>
       <c r="H14" s="5"/>
       <c r="J14" t="str">
+        <f t="shared" si="6"/>
+        <v>Coal Power</v>
+      </c>
+      <c r="K14" s="4">
         <f t="shared" si="0"/>
-        <v>Coal Power</v>
-      </c>
-      <c r="K14" s="4">
-        <f>VLOOKUP($J14,$J$40:$Q$175,2,FALSE)</f>
         <v>1908.48</v>
       </c>
       <c r="L14" s="4">
-        <f>VLOOKUP($J14,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>117.75</v>
       </c>
       <c r="M14" s="4">
-        <f>VLOOKUP($J14,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>47.712000000000003</v>
       </c>
       <c r="N14" s="3">
-        <f>VLOOKUP($J14,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0.40519745222929937</v>
       </c>
       <c r="P14" s="4">
-        <f>VLOOKUP($J14,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>252962</v>
       </c>
       <c r="Q14" s="7">
-        <f>VLOOKUP($J14,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>5301.8527833668677</v>
       </c>
     </row>
@@ -11121,31 +11121,31 @@
       </c>
       <c r="H15" s="5"/>
       <c r="J15" t="str">
+        <f t="shared" si="6"/>
+        <v>Quarry</v>
+      </c>
+      <c r="K15" s="4">
         <f t="shared" si="0"/>
-        <v>Quarry</v>
-      </c>
-      <c r="K15" s="4">
-        <f>VLOOKUP($J15,$J$40:$Q$175,2,FALSE)</f>
         <v>63.000000000000028</v>
       </c>
       <c r="L15" s="4">
-        <f>VLOOKUP($J15,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>1.5750000000000006</v>
       </c>
       <c r="M15" s="4">
-        <f>VLOOKUP($J15,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1.5750000000000006</v>
       </c>
       <c r="N15" s="3">
-        <f>VLOOKUP($J15,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P15" s="4">
-        <f>VLOOKUP($J15,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>1641</v>
       </c>
       <c r="Q15" s="7">
-        <f>VLOOKUP($J15,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>1041.9047619047615</v>
       </c>
     </row>
@@ -11169,31 +11169,31 @@
       </c>
       <c r="H16" s="5"/>
       <c r="J16" t="str">
+        <f t="shared" si="6"/>
+        <v>Gravel Plant</v>
+      </c>
+      <c r="K16" s="4">
         <f t="shared" si="0"/>
-        <v>Gravel Plant</v>
-      </c>
-      <c r="K16" s="4">
-        <f>VLOOKUP($J16,$J$40:$Q$175,2,FALSE)</f>
         <v>-921.57999999999981</v>
       </c>
       <c r="L16" s="4">
-        <f>VLOOKUP($J16,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>35.041333333333334</v>
       </c>
       <c r="M16" s="4">
-        <f>VLOOKUP($J16,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>-61.438666666666656</v>
       </c>
       <c r="N16" s="3">
-        <f>VLOOKUP($J16,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>-1.7533198888931163</v>
       </c>
       <c r="P16" s="4">
-        <f>VLOOKUP($J16,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>36782</v>
       </c>
       <c r="Q16" s="7">
-        <f>VLOOKUP($J16,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>-598.67835673517231</v>
       </c>
     </row>
@@ -11219,31 +11219,31 @@
       </c>
       <c r="H17" s="5"/>
       <c r="J17" t="str">
+        <f t="shared" si="6"/>
+        <v>Cement Plant</v>
+      </c>
+      <c r="K17" s="4">
         <f t="shared" si="0"/>
-        <v>Cement Plant</v>
-      </c>
-      <c r="K17" s="4">
-        <f>VLOOKUP($J17,$J$40:$Q$175,2,FALSE)</f>
         <v>-687.29999999999927</v>
       </c>
       <c r="L17" s="4">
-        <f>VLOOKUP($J17,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>187.00200000000001</v>
       </c>
       <c r="M17" s="4">
-        <f>VLOOKUP($J17,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>-22.909999999999975</v>
       </c>
       <c r="N17" s="3">
-        <f>VLOOKUP($J17,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>-0.12251205869455928</v>
       </c>
       <c r="P17" s="4">
-        <f>VLOOKUP($J17,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>203603</v>
       </c>
       <c r="Q17" s="7">
-        <f>VLOOKUP($J17,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>-8887.0798777826385</v>
       </c>
     </row>
@@ -11269,31 +11269,31 @@
       </c>
       <c r="H18" s="5"/>
       <c r="J18" t="str">
+        <f t="shared" si="6"/>
+        <v>Concrete Plant</v>
+      </c>
+      <c r="K18" s="4">
         <f t="shared" si="0"/>
-        <v>Concrete Plant</v>
-      </c>
-      <c r="K18" s="4">
-        <f>VLOOKUP($J18,$J$40:$Q$175,2,FALSE)</f>
         <v>-3055.3999999999996</v>
       </c>
       <c r="L18" s="4">
-        <f>VLOOKUP($J18,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>399.35</v>
       </c>
       <c r="M18" s="4">
-        <f>VLOOKUP($J18,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>-611.07999999999993</v>
       </c>
       <c r="N18" s="3">
-        <f>VLOOKUP($J18,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>-1.5301865531488668</v>
       </c>
       <c r="P18" s="4">
-        <f>VLOOKUP($J18,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>34720</v>
       </c>
       <c r="Q18" s="7">
-        <f>VLOOKUP($J18,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>-56.817437978660735</v>
       </c>
     </row>
@@ -11315,31 +11315,31 @@
       </c>
       <c r="H19" s="5"/>
       <c r="J19" t="str">
+        <f t="shared" si="6"/>
+        <v>Oil rig</v>
+      </c>
+      <c r="K19" s="4">
         <f t="shared" si="0"/>
-        <v>Oil rig</v>
-      </c>
-      <c r="K19" s="4">
-        <f>VLOOKUP($J19,$J$40:$Q$175,2,FALSE)</f>
         <v>154.79000000000002</v>
       </c>
       <c r="L19" s="4">
-        <f>VLOOKUP($J19,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>175.07000000000002</v>
       </c>
       <c r="M19" s="4">
-        <f>VLOOKUP($J19,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>154.79000000000002</v>
       </c>
       <c r="N19" s="3">
-        <f>VLOOKUP($J19,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0.8841606214656994</v>
       </c>
       <c r="P19" s="4">
-        <f>VLOOKUP($J19,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>6069</v>
       </c>
       <c r="Q19" s="7">
-        <f>VLOOKUP($J19,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>39.207959170489048</v>
       </c>
     </row>
@@ -11365,31 +11365,31 @@
         <v>60</v>
       </c>
       <c r="J20" t="str">
+        <f t="shared" si="6"/>
+        <v>Refinery</v>
+      </c>
+      <c r="K20" s="4">
         <f t="shared" si="0"/>
-        <v>Refinery</v>
-      </c>
-      <c r="K20" s="4">
-        <f>VLOOKUP($J20,$J$40:$Q$175,2,FALSE)</f>
         <v>13704.299999999996</v>
       </c>
       <c r="L20" s="4">
-        <f>VLOOKUP($J20,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>60.438399999999994</v>
       </c>
       <c r="M20" s="4">
-        <f>VLOOKUP($J20,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>27.408599999999993</v>
       </c>
       <c r="N20" s="3">
-        <f>VLOOKUP($J20,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0.45349645258643501</v>
       </c>
       <c r="P20" s="4">
-        <f>VLOOKUP($J20,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>296868</v>
       </c>
       <c r="Q20" s="7">
-        <f>VLOOKUP($J20,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>10831.198966747668</v>
       </c>
     </row>
@@ -11415,31 +11415,31 @@
       </c>
       <c r="H21" s="5"/>
       <c r="J21" t="str">
+        <f t="shared" si="6"/>
+        <v>Asphalt</v>
+      </c>
+      <c r="K21" s="4">
         <f t="shared" si="0"/>
-        <v>Asphalt</v>
-      </c>
-      <c r="K21" s="4">
-        <f>VLOOKUP($J21,$J$40:$Q$175,2,FALSE)</f>
         <v>-2581.1500000000005</v>
       </c>
       <c r="L21" s="4">
-        <f>VLOOKUP($J21,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>990.06000000000006</v>
       </c>
       <c r="M21" s="4">
-        <f>VLOOKUP($J21,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>-516.23000000000013</v>
       </c>
       <c r="N21" s="3">
-        <f>VLOOKUP($J21,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>-0.52141284366604057</v>
       </c>
       <c r="P21" s="4">
-        <f>VLOOKUP($J21,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>38940</v>
       </c>
       <c r="Q21" s="7">
-        <f>VLOOKUP($J21,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>-75.431493714042176</v>
       </c>
     </row>
@@ -11461,31 +11461,31 @@
       </c>
       <c r="H22" s="5"/>
       <c r="J22" t="str">
+        <f t="shared" si="6"/>
+        <v>Livestock Farm</v>
+      </c>
+      <c r="K22" s="4">
         <f t="shared" si="0"/>
-        <v>Livestock Farm</v>
-      </c>
-      <c r="K22" s="4">
-        <f>VLOOKUP($J22,$J$40:$Q$175,2,FALSE)</f>
         <v>4622.7000000000007</v>
       </c>
       <c r="L22" s="4">
-        <f>VLOOKUP($J22,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>97.044000000000011</v>
       </c>
       <c r="M22" s="4">
-        <f>VLOOKUP($J22,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>92.454000000000008</v>
       </c>
       <c r="N22" s="3">
-        <f>VLOOKUP($J22,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0.95270186719426242</v>
       </c>
       <c r="P22" s="4">
-        <f>VLOOKUP($J22,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>47934</v>
       </c>
       <c r="Q22" s="7">
-        <f>VLOOKUP($J22,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>518.46323577130238</v>
       </c>
     </row>
@@ -11507,31 +11507,31 @@
       </c>
       <c r="H23" s="5"/>
       <c r="J23" t="str">
+        <f t="shared" si="6"/>
+        <v>Slaughterhouse</v>
+      </c>
+      <c r="K23" s="4">
         <f t="shared" si="0"/>
-        <v>Slaughterhouse</v>
-      </c>
-      <c r="K23" s="4">
-        <f>VLOOKUP($J23,$J$40:$Q$175,2,FALSE)</f>
         <v>-156076.25</v>
       </c>
       <c r="L23" s="4">
-        <f>VLOOKUP($J23,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>5869.3249999999998</v>
       </c>
       <c r="M23" s="4">
-        <f>VLOOKUP($J23,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>-3121.5250000000001</v>
       </c>
       <c r="N23" s="3">
-        <f>VLOOKUP($J23,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>-0.5318371362976152</v>
       </c>
       <c r="P23" s="4">
-        <f>VLOOKUP($J23,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>35621</v>
       </c>
       <c r="Q23" s="7">
-        <f>VLOOKUP($J23,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>-11.411409487349932</v>
       </c>
     </row>
@@ -11553,31 +11553,31 @@
       </c>
       <c r="H24" s="5"/>
       <c r="J24" t="str">
+        <f t="shared" si="6"/>
+        <v>Food Factory</v>
+      </c>
+      <c r="K24" s="4">
         <f t="shared" si="0"/>
-        <v>Food Factory</v>
-      </c>
-      <c r="K24" s="4">
-        <f>VLOOKUP($J24,$J$40:$Q$175,2,FALSE)</f>
         <v>1300.6999999999998</v>
       </c>
       <c r="L24" s="4">
-        <f>VLOOKUP($J24,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>13.321176470588235</v>
       </c>
       <c r="M24" s="4">
-        <f>VLOOKUP($J24,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>7.6511764705882346</v>
       </c>
       <c r="N24" s="3">
-        <f>VLOOKUP($J24,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0.57436191821955307</v>
       </c>
       <c r="P24" s="4">
-        <f>VLOOKUP($J24,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>71504</v>
       </c>
       <c r="Q24" s="7">
-        <f>VLOOKUP($J24,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>9345.4908895210283</v>
       </c>
     </row>
@@ -11601,31 +11601,31 @@
       </c>
       <c r="H25" s="5"/>
       <c r="J25" t="str">
+        <f t="shared" si="6"/>
+        <v>Distillery</v>
+      </c>
+      <c r="K25" s="4">
         <f t="shared" si="0"/>
-        <v>Distillery</v>
-      </c>
-      <c r="K25" s="4">
-        <f>VLOOKUP($J25,$J$40:$Q$175,2,FALSE)</f>
         <v>674.83999999999992</v>
       </c>
       <c r="L25" s="4">
-        <f>VLOOKUP($J25,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>14.1534</v>
       </c>
       <c r="M25" s="4">
-        <f>VLOOKUP($J25,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>6.7483999999999993</v>
       </c>
       <c r="N25" s="3">
-        <f>VLOOKUP($J25,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0.47680416013113452</v>
       </c>
       <c r="P25" s="4">
-        <f>VLOOKUP($J25,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>37951</v>
       </c>
       <c r="Q25" s="7">
-        <f>VLOOKUP($J25,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>5623.7033963606191</v>
       </c>
     </row>
@@ -11651,31 +11651,31 @@
       </c>
       <c r="H26" s="5"/>
       <c r="J26" t="str">
+        <f t="shared" si="6"/>
+        <v>Chemical Plant</v>
+      </c>
+      <c r="K26" s="4">
         <f t="shared" si="0"/>
-        <v>Chemical Plant</v>
-      </c>
-      <c r="K26" s="4">
-        <f>VLOOKUP($J26,$J$40:$Q$175,2,FALSE)</f>
         <v>948.32500000000005</v>
       </c>
       <c r="L26" s="4">
-        <f>VLOOKUP($J26,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>20.630399999999998</v>
       </c>
       <c r="M26" s="4">
-        <f>VLOOKUP($J26,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>18.9665</v>
       </c>
       <c r="N26" s="3">
-        <f>VLOOKUP($J26,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0.91934717698154189</v>
       </c>
       <c r="P26" s="4">
-        <f>VLOOKUP($J26,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q26" s="7">
-        <f>VLOOKUP($J26,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11701,31 +11701,31 @@
       </c>
       <c r="H27" s="5"/>
       <c r="J27" t="str">
+        <f t="shared" si="6"/>
+        <v>Plastics Factory</v>
+      </c>
+      <c r="K27" s="4">
         <f t="shared" si="0"/>
-        <v>Plastics Factory</v>
-      </c>
-      <c r="K27" s="4">
-        <f>VLOOKUP($J27,$J$40:$Q$175,2,FALSE)</f>
         <v>-12015.849999999997</v>
       </c>
       <c r="L27" s="4">
-        <f>VLOOKUP($J27,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>132.624</v>
       </c>
       <c r="M27" s="4">
-        <f>VLOOKUP($J27,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>-120.15849999999996</v>
       </c>
       <c r="N27" s="3">
-        <f>VLOOKUP($J27,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>-0.90600871637109404</v>
       </c>
       <c r="P27" s="4">
-        <f>VLOOKUP($J27,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>33226</v>
       </c>
       <c r="Q27" s="7">
-        <f>VLOOKUP($J27,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>-276.51809901088984</v>
       </c>
     </row>
@@ -11751,31 +11751,31 @@
       </c>
       <c r="H28" s="5"/>
       <c r="J28" t="str">
+        <f t="shared" si="6"/>
+        <v>Fabric</v>
+      </c>
+      <c r="K28" s="4">
         <f t="shared" si="0"/>
-        <v>Fabric</v>
-      </c>
-      <c r="K28" s="4">
-        <f>VLOOKUP($J28,$J$40:$Q$175,2,FALSE)</f>
         <v>25.085000000000036</v>
       </c>
       <c r="L28" s="4">
-        <f>VLOOKUP($J28,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>16.814499999999999</v>
       </c>
       <c r="M28" s="4">
-        <f>VLOOKUP($J28,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0.25085000000000035</v>
       </c>
       <c r="N28" s="3">
-        <f>VLOOKUP($J28,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>1.4918671384816697E-2</v>
       </c>
       <c r="P28" s="4">
-        <f>VLOOKUP($J28,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>35900</v>
       </c>
       <c r="Q28" s="7">
-        <f>VLOOKUP($J28,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>143113.41439107017</v>
       </c>
     </row>
@@ -11797,31 +11797,31 @@
       </c>
       <c r="H29" s="5"/>
       <c r="J29" t="str">
+        <f t="shared" si="6"/>
+        <v>Mech Component</v>
+      </c>
+      <c r="K29" s="4">
         <f t="shared" si="0"/>
-        <v>Mech Component</v>
-      </c>
-      <c r="K29" s="4">
-        <f>VLOOKUP($J29,$J$40:$Q$175,2,FALSE)</f>
         <v>-1108.3899999999994</v>
       </c>
       <c r="L29" s="4">
-        <f>VLOOKUP($J29,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>179.73099999999999</v>
       </c>
       <c r="M29" s="4">
-        <f>VLOOKUP($J29,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>-7.3892666666666624</v>
       </c>
       <c r="N29" s="3">
-        <f>VLOOKUP($J29,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>-4.1112922460046754E-2</v>
       </c>
       <c r="P29" s="4">
-        <f>VLOOKUP($J29,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q29" s="7">
-        <f>VLOOKUP($J29,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11847,31 +11847,31 @@
       </c>
       <c r="H30" s="5"/>
       <c r="J30" t="str">
+        <f t="shared" si="6"/>
+        <v>Elect Comp</v>
+      </c>
+      <c r="K30" s="4">
         <f t="shared" si="0"/>
-        <v>Elect Comp</v>
-      </c>
-      <c r="K30" s="4">
-        <f>VLOOKUP($J30,$J$40:$Q$175,2,FALSE)</f>
         <v>248.00000000000091</v>
       </c>
       <c r="L30" s="4">
-        <f>VLOOKUP($J30,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>42.614973333333332</v>
       </c>
       <c r="M30" s="4">
-        <f>VLOOKUP($J30,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1.6533333333333393</v>
       </c>
       <c r="N30" s="3">
-        <f>VLOOKUP($J30,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>3.8797004996366048E-2</v>
       </c>
       <c r="P30" s="4">
-        <f>VLOOKUP($J30,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q30" s="7">
-        <f>VLOOKUP($J30,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11893,31 +11893,31 @@
       </c>
       <c r="H31" s="5"/>
       <c r="J31" t="str">
+        <f t="shared" si="6"/>
+        <v>Clothing Factory</v>
+      </c>
+      <c r="K31" s="4">
         <f t="shared" si="0"/>
-        <v>Clothing Factory</v>
-      </c>
-      <c r="K31" s="4">
-        <f>VLOOKUP($J31,$J$40:$Q$175,2,FALSE)</f>
         <v>243.928</v>
       </c>
       <c r="L31" s="4">
-        <f>VLOOKUP($J31,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>14.515700000000001</v>
       </c>
       <c r="M31" s="4">
-        <f>VLOOKUP($J31,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>3.0491000000000001</v>
       </c>
       <c r="N31" s="3">
-        <f>VLOOKUP($J31,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0.21005531941277375</v>
       </c>
       <c r="P31" s="4">
-        <f>VLOOKUP($J31,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>49231</v>
       </c>
       <c r="Q31" s="7">
-        <f>VLOOKUP($J31,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>16146.075891246599</v>
       </c>
     </row>
@@ -11943,31 +11943,31 @@
       </c>
       <c r="H32" s="5"/>
       <c r="J32" t="str">
+        <f t="shared" si="6"/>
+        <v>Elect Assembly</v>
+      </c>
+      <c r="K32" s="4">
         <f t="shared" si="0"/>
-        <v>Elect Assembly</v>
-      </c>
-      <c r="K32" s="4">
-        <f>VLOOKUP($J32,$J$40:$Q$175,2,FALSE)</f>
         <v>349.26700000000164</v>
       </c>
       <c r="L32" s="4">
-        <f>VLOOKUP($J32,$J$40:$Q$175,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>56.14200000000001</v>
       </c>
       <c r="M32" s="4">
-        <f>VLOOKUP($J32,$J$40:$Q$175,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>2.3284466666666774</v>
       </c>
       <c r="N32" s="3">
-        <f>VLOOKUP($J32,$J$40:$Q$175,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>4.1474237944260577E-2</v>
       </c>
       <c r="P32" s="4">
-        <f>VLOOKUP($J32,$J$40:$Q$175,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q32" s="7">
-        <f>VLOOKUP($J32,$J$40:$Q$175,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11992,7 +11992,7 @@
       </c>
       <c r="H33" s="7"/>
       <c r="J33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>Prefab Factory</v>
       </c>
       <c r="K33" s="4">
@@ -12170,11 +12170,11 @@
         <v>17</v>
       </c>
       <c r="T38" s="4">
-        <f t="shared" ref="T38:T65" si="1">X38-$T$33</f>
+        <f t="shared" ref="T38:T65" si="7">X38-$T$33</f>
         <v>0.45000000000000018</v>
       </c>
       <c r="U38" s="4">
-        <f t="shared" ref="U38:U65" si="2">Y38+$T$33</f>
+        <f t="shared" ref="U38:U65" si="8">Y38+$T$33</f>
         <v>11.02</v>
       </c>
       <c r="W38" t="s">
@@ -12216,11 +12216,11 @@
         <v>18</v>
       </c>
       <c r="T39" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>11.25</v>
       </c>
       <c r="U39" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>22.95</v>
       </c>
       <c r="W39" t="s">
@@ -12290,11 +12290,11 @@
         <v>19</v>
       </c>
       <c r="T40" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1144.79</v>
       </c>
       <c r="U40" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1275.82</v>
       </c>
       <c r="W40" t="s">
@@ -12312,11 +12312,11 @@
         <v>20</v>
       </c>
       <c r="T41" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>23.96</v>
       </c>
       <c r="U41" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>37.01</v>
       </c>
       <c r="W41" t="s">
@@ -12361,11 +12361,11 @@
         <v>21</v>
       </c>
       <c r="T42" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>69.33</v>
       </c>
       <c r="U42" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>87.16</v>
       </c>
       <c r="W42" t="s">
@@ -12392,11 +12392,11 @@
         <v>22</v>
       </c>
       <c r="T43" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="U43" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>17.16</v>
       </c>
       <c r="W43" t="s">
@@ -12438,11 +12438,11 @@
         <v>23</v>
       </c>
       <c r="T44" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>50.02</v>
       </c>
       <c r="U44" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>65.81</v>
       </c>
       <c r="W44" t="s">
@@ -12512,11 +12512,11 @@
         <v>24</v>
       </c>
       <c r="T45" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>2063.04</v>
       </c>
       <c r="U45" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2290.73</v>
       </c>
       <c r="W45" t="s">
@@ -12534,11 +12534,11 @@
         <v>25</v>
       </c>
       <c r="T46" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>96.09</v>
       </c>
       <c r="U46" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>116.73</v>
       </c>
       <c r="W46" t="s">
@@ -12583,11 +12583,11 @@
         <v>26</v>
       </c>
       <c r="T47" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>10.119999999999999</v>
       </c>
       <c r="U47" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>21.71</v>
       </c>
       <c r="W47" t="s">
@@ -12611,11 +12611,11 @@
         <v>27</v>
       </c>
       <c r="T48" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>32.42</v>
       </c>
       <c r="U48" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>46.36</v>
       </c>
       <c r="W48" t="s">
@@ -12657,11 +12657,11 @@
         <v>28</v>
       </c>
       <c r="T49" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="U49" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>16.060000000000002</v>
       </c>
       <c r="W49" t="s">
@@ -12731,11 +12731,11 @@
         <v>29</v>
       </c>
       <c r="T50" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>228.07</v>
       </c>
       <c r="U50" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>262.61</v>
       </c>
       <c r="W50" t="s">
@@ -12753,11 +12753,11 @@
         <v>30</v>
       </c>
       <c r="T51" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>29.630000000000003</v>
       </c>
       <c r="U51" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>43.28</v>
       </c>
       <c r="W51" t="s">
@@ -12802,11 +12802,11 @@
         <v>31</v>
       </c>
       <c r="T52" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>165.35</v>
       </c>
       <c r="U52" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>193.28</v>
       </c>
       <c r="W52" t="s">
@@ -12830,11 +12830,11 @@
         <v>32</v>
       </c>
       <c r="T53" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>336.29</v>
       </c>
       <c r="U53" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>382.22</v>
       </c>
       <c r="W53" t="s">
@@ -12876,11 +12876,11 @@
         <v>33</v>
       </c>
       <c r="T54" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>235.89</v>
       </c>
       <c r="U54" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>271.25</v>
       </c>
       <c r="W54" t="s">
@@ -12950,11 +12950,11 @@
         <v>34</v>
       </c>
       <c r="T55" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>69.260000000000005</v>
       </c>
       <c r="U55" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>87.08</v>
       </c>
       <c r="W55" t="s">
@@ -12972,11 +12972,11 @@
         <v>35</v>
       </c>
       <c r="T56" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>113.23</v>
       </c>
       <c r="U56" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>135.68</v>
       </c>
       <c r="W56" t="s">
@@ -13021,11 +13021,11 @@
         <v>36</v>
       </c>
       <c r="T57" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1451.57</v>
       </c>
       <c r="U57" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1614.89</v>
       </c>
       <c r="W57" t="s">
@@ -13052,11 +13052,11 @@
         <v>37</v>
       </c>
       <c r="T58" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>2347.73</v>
       </c>
       <c r="U58" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2605.38</v>
       </c>
       <c r="W58" t="s">
@@ -13098,11 +13098,11 @@
         <v>38</v>
       </c>
       <c r="T59" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1617.4</v>
       </c>
       <c r="U59" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1798.17</v>
       </c>
       <c r="W59" t="s">
@@ -13172,11 +13172,11 @@
         <v>39</v>
       </c>
       <c r="T60" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>34.14</v>
       </c>
       <c r="U60" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>48.26</v>
       </c>
       <c r="W60" t="s">
@@ -13194,11 +13194,11 @@
         <v>40</v>
       </c>
       <c r="T61" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>11.41</v>
       </c>
       <c r="U61" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>23.14</v>
       </c>
       <c r="W61" t="s">
@@ -13243,11 +13243,11 @@
         <v>41</v>
       </c>
       <c r="T62" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1682.17</v>
       </c>
       <c r="U62" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1869.77</v>
       </c>
       <c r="W62" t="s">
@@ -13280,11 +13280,11 @@
         <v>42</v>
       </c>
       <c r="T63" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1797.31</v>
       </c>
       <c r="U63" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1997.02</v>
       </c>
       <c r="W63" t="s">
@@ -13326,11 +13326,11 @@
         <v>43</v>
       </c>
       <c r="T64" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>884.16</v>
       </c>
       <c r="U64" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>987.76</v>
       </c>
       <c r="W64" t="s">
@@ -13400,11 +13400,11 @@
         <v>44</v>
       </c>
       <c r="T65" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1871.4</v>
       </c>
       <c r="U65" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2078.92</v>
       </c>
       <c r="W65" t="s">
@@ -15075,11 +15075,11 @@
         <v>963.9</v>
       </c>
       <c r="D135" s="6">
-        <f t="shared" ref="D135:E135" si="3">D134*D132</f>
+        <f t="shared" ref="D135:E135" si="9">D134*D132</f>
         <v>0</v>
       </c>
       <c r="E135" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F135" s="1"/>
@@ -16441,7 +16441,7 @@
   <dimension ref="A2:Y217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16557,27 +16557,27 @@
         <v>Woodcutting Post</v>
       </c>
       <c r="K5" s="4">
-        <f>VLOOKUP($J5,$J$44:$Q$179,2,FALSE)</f>
+        <f t="shared" ref="K5:K25" si="0">VLOOKUP($J5,$J$44:$Q$179,2,FALSE)</f>
         <v>1662.55</v>
       </c>
       <c r="L5" s="4">
-        <f>VLOOKUP($J5,$J$44:$Q$179,3,FALSE)</f>
+        <f t="shared" ref="L5:L25" si="1">VLOOKUP($J5,$J$44:$Q$179,3,FALSE)</f>
         <v>75.570454545454538</v>
       </c>
       <c r="M5" s="4">
-        <f>VLOOKUP($J5,$J$44:$Q$179,4,FALSE)</f>
+        <f t="shared" ref="M5:M25" si="2">VLOOKUP($J5,$J$44:$Q$179,4,FALSE)</f>
         <v>75.570454545454538</v>
       </c>
       <c r="N5" s="3">
-        <f>VLOOKUP($J5,$J$44:$Q$179,5,FALSE)</f>
+        <f t="shared" ref="N5:N25" si="3">VLOOKUP($J5,$J$44:$Q$179,5,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P5" s="4">
-        <f>VLOOKUP($J5,$J$44:$Q$179,7,FALSE)</f>
+        <f t="shared" ref="P5:P25" si="4">VLOOKUP($J5,$J$44:$Q$179,7,FALSE)</f>
         <v>4157</v>
       </c>
       <c r="Q5" s="7">
-        <f>VLOOKUP($J5,$J$44:$Q$179,8,FALSE)</f>
+        <f t="shared" ref="Q5:Q25" si="5">VLOOKUP($J5,$J$44:$Q$179,8,FALSE)</f>
         <v>55.008270427957058</v>
       </c>
       <c r="S5" s="1" t="s">
@@ -16607,31 +16607,31 @@
       </c>
       <c r="H6" s="12"/>
       <c r="J6" s="1" t="str">
-        <f t="shared" ref="J6:J23" si="0">A6</f>
+        <f t="shared" ref="J6:J23" si="6">A6</f>
         <v>Sawmill</v>
       </c>
       <c r="K6" s="4">
-        <f>VLOOKUP($J6,$J$44:$Q$179,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>167.22600000000011</v>
       </c>
       <c r="L6" s="4">
-        <f>VLOOKUP($J6,$J$44:$Q$179,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>289.50210000000004</v>
       </c>
       <c r="M6" s="4">
-        <f>VLOOKUP($J6,$J$44:$Q$179,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>16.722600000000011</v>
       </c>
       <c r="N6" s="3">
-        <f>VLOOKUP($J6,$J$44:$Q$179,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>5.7763311561470576E-2</v>
       </c>
       <c r="P6" s="4">
-        <f>VLOOKUP($J6,$J$44:$Q$179,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>21764</v>
       </c>
       <c r="Q6" s="7">
-        <f>VLOOKUP($J6,$J$44:$Q$179,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>1301.4722590984647</v>
       </c>
       <c r="S6" s="1" t="s">
@@ -16659,31 +16659,31 @@
       </c>
       <c r="H7" s="12"/>
       <c r="J7" s="1" t="str">
-        <f t="shared" ref="J7" si="1">A7</f>
+        <f t="shared" ref="J7" si="7">A7</f>
         <v>Farm</v>
       </c>
       <c r="K7" s="4">
-        <f>VLOOKUP($J7,$J$44:$Q$179,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>108.486</v>
       </c>
       <c r="L7" s="4">
-        <f>VLOOKUP($J7,$J$44:$Q$179,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>108.486</v>
       </c>
       <c r="M7" s="4">
-        <f>VLOOKUP($J7,$J$44:$Q$179,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>108.486</v>
       </c>
       <c r="N7" s="3">
-        <f>VLOOKUP($J7,$J$44:$Q$179,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P7" s="4">
-        <f>VLOOKUP($J7,$J$44:$Q$179,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>4157</v>
       </c>
       <c r="Q7" s="7">
-        <f>VLOOKUP($J7,$J$44:$Q$179,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>38.318308353151558</v>
       </c>
       <c r="X7" s="4"/>
@@ -16705,31 +16705,31 @@
       </c>
       <c r="H8" s="12"/>
       <c r="J8" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Iron Mine</v>
+      </c>
+      <c r="K8" s="4">
         <f t="shared" si="0"/>
-        <v>Iron Mine</v>
-      </c>
-      <c r="K8" s="4">
-        <f>VLOOKUP($J8,$J$44:$Q$179,2,FALSE)</f>
         <v>13377.825000000001</v>
       </c>
       <c r="L8" s="4">
-        <f>VLOOKUP($J8,$J$44:$Q$179,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>76.010369318181816</v>
       </c>
       <c r="M8" s="4">
-        <f>VLOOKUP($J8,$J$44:$Q$179,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>76.010369318181816</v>
       </c>
       <c r="N8" s="3">
-        <f>VLOOKUP($J8,$J$44:$Q$179,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P8" s="4">
-        <f>VLOOKUP($J8,$J$44:$Q$179,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>85018</v>
       </c>
       <c r="Q8" s="7">
-        <f>VLOOKUP($J8,$J$44:$Q$179,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>1118.5052876682121</v>
       </c>
       <c r="T8" s="6" t="s">
@@ -16759,31 +16759,31 @@
       </c>
       <c r="H9" s="12"/>
       <c r="J9" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Iron Processing</v>
+      </c>
+      <c r="K9" s="4">
         <f t="shared" si="0"/>
-        <v>Iron Processing</v>
-      </c>
-      <c r="K9" s="4">
-        <f>VLOOKUP($J9,$J$44:$Q$179,2,FALSE)</f>
         <v>2597.9989999999998</v>
       </c>
       <c r="L9" s="4">
-        <f>VLOOKUP($J9,$J$44:$Q$179,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>817.47463636363636</v>
       </c>
       <c r="M9" s="4">
-        <f>VLOOKUP($J9,$J$44:$Q$179,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>236.18172727272724</v>
       </c>
       <c r="N9" s="3">
-        <f>VLOOKUP($J9,$J$44:$Q$179,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0.28891627552303262</v>
       </c>
       <c r="P9" s="4">
-        <f>VLOOKUP($J9,$J$44:$Q$179,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>146810</v>
       </c>
       <c r="Q9" s="7">
-        <f>VLOOKUP($J9,$J$44:$Q$179,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>621.59762186205614</v>
       </c>
       <c r="S9" s="1" t="s">
@@ -16818,31 +16818,31 @@
       </c>
       <c r="H10" s="12"/>
       <c r="J10" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Steel Mill</v>
+      </c>
+      <c r="K10" s="4">
         <f t="shared" si="0"/>
-        <v>Steel Mill</v>
-      </c>
-      <c r="K10" s="4">
-        <f>VLOOKUP($J10,$J$44:$Q$179,2,FALSE)</f>
         <v>-37801.909999999996</v>
       </c>
       <c r="L10" s="4">
-        <f>VLOOKUP($J10,$J$44:$Q$179,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>85.814599557522129</v>
       </c>
       <c r="M10" s="4">
-        <f>VLOOKUP($J10,$J$44:$Q$179,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>-83.632544247787607</v>
       </c>
       <c r="N10" s="3">
-        <f>VLOOKUP($J10,$J$44:$Q$179,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>-0.9745724466351221</v>
       </c>
       <c r="P10" s="4">
-        <f>VLOOKUP($J10,$J$44:$Q$179,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>257030</v>
       </c>
       <c r="Q10" s="7">
-        <f>VLOOKUP($J10,$J$44:$Q$179,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>-3073.3251309259244</v>
       </c>
       <c r="S10" s="1" t="s">
@@ -16873,31 +16873,31 @@
       </c>
       <c r="H11" s="12"/>
       <c r="J11" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Coal Mine</v>
+      </c>
+      <c r="K11" s="4">
         <f t="shared" si="0"/>
-        <v>Coal Mine</v>
-      </c>
-      <c r="K11" s="4">
-        <f>VLOOKUP($J11,$J$44:$Q$179,2,FALSE)</f>
         <v>5806.8720000000003</v>
       </c>
       <c r="L11" s="4">
-        <f>VLOOKUP($J11,$J$44:$Q$179,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>30.244125</v>
       </c>
       <c r="M11" s="4">
-        <f>VLOOKUP($J11,$J$44:$Q$179,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>30.244125</v>
       </c>
       <c r="N11" s="3">
-        <f>VLOOKUP($J11,$J$44:$Q$179,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P11" s="4">
-        <f>VLOOKUP($J11,$J$44:$Q$179,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>84568</v>
       </c>
       <c r="Q11" s="7">
-        <f>VLOOKUP($J11,$J$44:$Q$179,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>2796.1794232764214</v>
       </c>
       <c r="S11" s="1" t="s">
@@ -16929,31 +16929,31 @@
       </c>
       <c r="H12" s="12"/>
       <c r="J12" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Coal Processing</v>
+      </c>
+      <c r="K12" s="4">
         <f t="shared" si="0"/>
-        <v>Coal Processing</v>
-      </c>
-      <c r="K12" s="4">
-        <f>VLOOKUP($J12,$J$44:$Q$179,2,FALSE)</f>
         <v>1719.9180000000006</v>
       </c>
       <c r="L12" s="4">
-        <f>VLOOKUP($J12,$J$44:$Q$179,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>246.62085714285718</v>
       </c>
       <c r="M12" s="4">
-        <f>VLOOKUP($J12,$J$44:$Q$179,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>81.900857142857177</v>
       </c>
       <c r="N12" s="3">
-        <f>VLOOKUP($J12,$J$44:$Q$179,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0.33209217619179476</v>
       </c>
       <c r="P12" s="4">
-        <f>VLOOKUP($J12,$J$44:$Q$179,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>146810</v>
       </c>
       <c r="Q12" s="7">
-        <f>VLOOKUP($J12,$J$44:$Q$179,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>1792.5331323935204</v>
       </c>
       <c r="S12" s="1" t="s">
@@ -16984,31 +16984,31 @@
       </c>
       <c r="H13" s="12"/>
       <c r="J13" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Brick Factory</v>
+      </c>
+      <c r="K13" s="4">
         <f t="shared" si="0"/>
-        <v>Brick Factory</v>
-      </c>
-      <c r="K13" s="4">
-        <f>VLOOKUP($J13,$J$44:$Q$179,2,FALSE)</f>
         <v>-2049.9059999999999</v>
       </c>
       <c r="L13" s="4">
-        <f>VLOOKUP($J13,$J$44:$Q$179,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>38.247183673469387</v>
       </c>
       <c r="M13" s="4">
-        <f>VLOOKUP($J13,$J$44:$Q$179,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>-20.917408163265307</v>
       </c>
       <c r="N13" s="3">
-        <f>VLOOKUP($J13,$J$44:$Q$179,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>-0.54690061212990471</v>
       </c>
       <c r="P13" s="4">
-        <f>VLOOKUP($J13,$J$44:$Q$179,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>56668</v>
       </c>
       <c r="Q13" s="7">
-        <f>VLOOKUP($J13,$J$44:$Q$179,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>-2709.1310528385206</v>
       </c>
       <c r="S13" s="1" t="s">
@@ -17039,31 +17039,31 @@
       </c>
       <c r="H14" s="12"/>
       <c r="J14" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Coal Power Plant</v>
+      </c>
+      <c r="K14" s="4">
         <f t="shared" si="0"/>
-        <v>Coal Power Plant</v>
-      </c>
-      <c r="K14" s="4">
-        <f>VLOOKUP($J14,$J$44:$Q$179,2,FALSE)</f>
         <v>2335.904</v>
       </c>
       <c r="L14" s="4">
-        <f>VLOOKUP($J14,$J$44:$Q$179,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>160.94808333333333</v>
       </c>
       <c r="M14" s="4">
-        <f>VLOOKUP($J14,$J$44:$Q$179,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>97.329333333333338</v>
       </c>
       <c r="N14" s="3">
-        <f>VLOOKUP($J14,$J$44:$Q$179,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0.60472502261339967</v>
       </c>
       <c r="P14" s="4">
-        <f>VLOOKUP($J14,$J$44:$Q$179,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>252962</v>
       </c>
       <c r="Q14" s="7">
-        <f>VLOOKUP($J14,$J$44:$Q$179,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>2599.0314670465909</v>
       </c>
       <c r="S14" s="1" t="s">
@@ -17092,31 +17092,31 @@
       </c>
       <c r="H15" s="12"/>
       <c r="J15" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Quarry</v>
+      </c>
+      <c r="K15" s="4">
         <f t="shared" si="0"/>
-        <v>Quarry</v>
-      </c>
-      <c r="K15" s="4">
-        <f>VLOOKUP($J15,$J$44:$Q$179,2,FALSE)</f>
         <v>947.33979999999997</v>
       </c>
       <c r="L15" s="4">
-        <f>VLOOKUP($J15,$J$44:$Q$179,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>24.290764102564101</v>
       </c>
       <c r="M15" s="4">
-        <f>VLOOKUP($J15,$J$44:$Q$179,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>24.290764102564101</v>
       </c>
       <c r="N15" s="3">
-        <f>VLOOKUP($J15,$J$44:$Q$179,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P15" s="4">
-        <f>VLOOKUP($J15,$J$44:$Q$179,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>1641</v>
       </c>
       <c r="Q15" s="7">
-        <f>VLOOKUP($J15,$J$44:$Q$179,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>67.556540958165172</v>
       </c>
       <c r="S15" s="1" t="s">
@@ -17147,31 +17147,31 @@
       </c>
       <c r="H16" s="12"/>
       <c r="J16" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Gravel Processing</v>
+      </c>
+      <c r="K16" s="4">
         <f t="shared" si="0"/>
-        <v>Gravel Processing</v>
-      </c>
-      <c r="K16" s="4">
-        <f>VLOOKUP($J16,$J$44:$Q$179,2,FALSE)</f>
         <v>72.184299999999666</v>
       </c>
       <c r="L16" s="4">
-        <f>VLOOKUP($J16,$J$44:$Q$179,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>130.85895333333332</v>
       </c>
       <c r="M16" s="4">
-        <f>VLOOKUP($J16,$J$44:$Q$179,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>4.8122866666666448</v>
       </c>
       <c r="N16" s="3">
-        <f>VLOOKUP($J16,$J$44:$Q$179,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>3.6774607652626128E-2</v>
       </c>
       <c r="P16" s="4">
-        <f>VLOOKUP($J16,$J$44:$Q$179,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>36782</v>
       </c>
       <c r="Q16" s="7">
-        <f>VLOOKUP($J16,$J$44:$Q$179,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>7643.3518091884598</v>
       </c>
       <c r="S16" s="1" t="s">
@@ -17204,31 +17204,31 @@
       </c>
       <c r="H17" s="12"/>
       <c r="J17" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Cement Plant</v>
+      </c>
+      <c r="K17" s="4">
         <f t="shared" si="0"/>
-        <v>Cement Plant</v>
-      </c>
-      <c r="K17" s="4">
-        <f>VLOOKUP($J17,$J$44:$Q$179,2,FALSE)</f>
         <v>-4246.4794999999995</v>
       </c>
       <c r="L17" s="4">
-        <f>VLOOKUP($J17,$J$44:$Q$179,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>188.49914999999999</v>
       </c>
       <c r="M17" s="4">
-        <f>VLOOKUP($J17,$J$44:$Q$179,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>-212.32397499999996</v>
       </c>
       <c r="N17" s="3">
-        <f>VLOOKUP($J17,$J$44:$Q$179,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>-1.1263922145007019</v>
       </c>
       <c r="P17" s="4">
-        <f>VLOOKUP($J17,$J$44:$Q$179,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>203603</v>
       </c>
       <c r="Q17" s="7">
-        <f>VLOOKUP($J17,$J$44:$Q$179,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>-958.92609395618194</v>
       </c>
       <c r="S17" s="1" t="s">
@@ -17261,31 +17261,31 @@
       </c>
       <c r="H18" s="12"/>
       <c r="J18" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Concrete Plant</v>
+      </c>
+      <c r="K18" s="4">
         <f t="shared" si="0"/>
-        <v>Concrete Plant</v>
-      </c>
-      <c r="K18" s="4">
-        <f>VLOOKUP($J18,$J$44:$Q$179,2,FALSE)</f>
         <v>-5816.8510000000006</v>
       </c>
       <c r="L18" s="4">
-        <f>VLOOKUP($J18,$J$44:$Q$179,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>620.13599999999997</v>
       </c>
       <c r="M18" s="4">
-        <f>VLOOKUP($J18,$J$44:$Q$179,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>-1454.2127500000001</v>
       </c>
       <c r="N18" s="3">
-        <f>VLOOKUP($J18,$J$44:$Q$179,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>-2.3449900505695527</v>
       </c>
       <c r="P18" s="4">
-        <f>VLOOKUP($J18,$J$44:$Q$179,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>34720</v>
       </c>
       <c r="Q18" s="7">
-        <f>VLOOKUP($J18,$J$44:$Q$179,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>-23.875461138681391</v>
       </c>
       <c r="S18" s="1" t="s">
@@ -17314,31 +17314,31 @@
       </c>
       <c r="H19" s="12"/>
       <c r="J19" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Oil Rig</v>
+      </c>
+      <c r="K19" s="4">
         <f t="shared" si="0"/>
-        <v>Oil Rig</v>
-      </c>
-      <c r="K19" s="4">
-        <f>VLOOKUP($J19,$J$44:$Q$179,2,FALSE)</f>
         <v>181.79700000000003</v>
       </c>
       <c r="L19" s="4">
-        <f>VLOOKUP($J19,$J$44:$Q$179,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>181.79700000000003</v>
       </c>
       <c r="M19" s="4">
-        <f>VLOOKUP($J19,$J$44:$Q$179,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>181.79700000000003</v>
       </c>
       <c r="N19" s="3">
-        <f>VLOOKUP($J19,$J$44:$Q$179,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P19" s="4">
-        <f>VLOOKUP($J19,$J$44:$Q$179,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>6069</v>
       </c>
       <c r="Q19" s="7">
-        <f>VLOOKUP($J19,$J$44:$Q$179,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>33.383389164837702</v>
       </c>
       <c r="S19" s="1" t="s">
@@ -17371,31 +17371,31 @@
         <v>49.460999999999999</v>
       </c>
       <c r="J20" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Oil Refinery</v>
+      </c>
+      <c r="K20" s="4">
         <f t="shared" si="0"/>
-        <v>Oil Refinery</v>
-      </c>
-      <c r="K20" s="4">
-        <f>VLOOKUP($J20,$J$44:$Q$179,2,FALSE)</f>
         <v>13374.071999999998</v>
       </c>
       <c r="L20" s="4">
-        <f>VLOOKUP($J20,$J$44:$Q$179,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>66.989904328018227</v>
       </c>
       <c r="M20" s="4">
-        <f>VLOOKUP($J20,$J$44:$Q$179,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>30.46485649202733</v>
       </c>
       <c r="N20" s="3">
-        <f>VLOOKUP($J20,$J$44:$Q$179,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0.45476787581088607</v>
       </c>
       <c r="P20" s="4">
-        <f>VLOOKUP($J20,$J$44:$Q$179,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>296868</v>
       </c>
       <c r="Q20" s="7">
-        <f>VLOOKUP($J20,$J$44:$Q$179,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>9744.6052331705723</v>
       </c>
       <c r="S20" s="1" t="s">
@@ -17430,31 +17430,31 @@
       </c>
       <c r="H21" s="12"/>
       <c r="J21" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Asphalt Plant</v>
+      </c>
+      <c r="K21" s="4">
         <f t="shared" si="0"/>
-        <v>Asphalt Plant</v>
-      </c>
-      <c r="K21" s="4">
-        <f>VLOOKUP($J21,$J$44:$Q$179,2,FALSE)</f>
         <v>-11037.831600000001</v>
       </c>
       <c r="L21" s="4">
-        <f>VLOOKUP($J21,$J$44:$Q$179,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>1781.82</v>
       </c>
       <c r="M21" s="4">
-        <f>VLOOKUP($J21,$J$44:$Q$179,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>-2759.4579000000003</v>
       </c>
       <c r="N21" s="3">
-        <f>VLOOKUP($J21,$J$44:$Q$179,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>-1.5486737717614576</v>
       </c>
       <c r="P21" s="4">
-        <f>VLOOKUP($J21,$J$44:$Q$179,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>38940</v>
       </c>
       <c r="Q21" s="7">
-        <f>VLOOKUP($J21,$J$44:$Q$179,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>-14.111467328419831</v>
       </c>
       <c r="S21" s="1" t="s">
@@ -17485,31 +17485,31 @@
       </c>
       <c r="H22" s="12"/>
       <c r="J22" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Livestock Farm</v>
+      </c>
+      <c r="K22" s="4">
         <f t="shared" si="0"/>
-        <v>Livestock Farm</v>
-      </c>
-      <c r="K22" s="4">
-        <f>VLOOKUP($J22,$J$44:$Q$179,2,FALSE)</f>
         <v>119.38940000000002</v>
       </c>
       <c r="L22" s="4">
-        <f>VLOOKUP($J22,$J$44:$Q$179,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>23.925428571428572</v>
       </c>
       <c r="M22" s="4">
-        <f>VLOOKUP($J22,$J$44:$Q$179,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>17.055628571428574</v>
       </c>
       <c r="N22" s="3">
-        <f>VLOOKUP($J22,$J$44:$Q$179,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0.71286616749662657</v>
       </c>
       <c r="P22" s="4">
-        <f>VLOOKUP($J22,$J$44:$Q$179,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>47934</v>
       </c>
       <c r="Q22" s="7">
-        <f>VLOOKUP($J22,$J$44:$Q$179,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>2810.4505090066614</v>
       </c>
       <c r="S22" s="1" t="s">
@@ -17540,31 +17540,31 @@
       </c>
       <c r="H23" s="12"/>
       <c r="J23" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Slaughterhouse</v>
+      </c>
+      <c r="K23" s="4">
         <f t="shared" si="0"/>
-        <v>Slaughterhouse</v>
-      </c>
-      <c r="K23" s="4">
-        <f>VLOOKUP($J23,$J$44:$Q$179,2,FALSE)</f>
         <v>-19161.050000000003</v>
       </c>
       <c r="L23" s="4">
-        <f>VLOOKUP($J23,$J$44:$Q$179,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>1225.2516666666668</v>
       </c>
       <c r="M23" s="4">
-        <f>VLOOKUP($J23,$J$44:$Q$179,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>-3193.5083333333337</v>
       </c>
       <c r="N23" s="3">
-        <f>VLOOKUP($J23,$J$44:$Q$179,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>-2.6064101116641347</v>
       </c>
       <c r="P23" s="4">
-        <f>VLOOKUP($J23,$J$44:$Q$179,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>35621</v>
       </c>
       <c r="Q23" s="7">
-        <f>VLOOKUP($J23,$J$44:$Q$179,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>-11.154190401882985</v>
       </c>
       <c r="S23" s="1" t="s">
@@ -17595,31 +17595,31 @@
       </c>
       <c r="H24" s="12"/>
       <c r="J24" s="1" t="str">
-        <f t="shared" ref="J24:J33" si="2">A24</f>
+        <f t="shared" ref="J24:J33" si="8">A24</f>
         <v>Food Factory</v>
       </c>
       <c r="K24" s="4">
-        <f>VLOOKUP($J24,$J$44:$Q$179,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>12980.186799999999</v>
       </c>
       <c r="L24" s="4">
-        <f>VLOOKUP($J24,$J$44:$Q$179,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>80.21095505617977</v>
       </c>
       <c r="M24" s="4">
-        <f>VLOOKUP($J24,$J$44:$Q$179,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>72.92239775280899</v>
       </c>
       <c r="N24" s="3">
-        <f>VLOOKUP($J24,$J$44:$Q$179,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0.90913264530679283</v>
       </c>
       <c r="P24" s="4">
-        <f>VLOOKUP($J24,$J$44:$Q$179,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>71504</v>
       </c>
       <c r="Q24" s="7">
-        <f>VLOOKUP($J24,$J$44:$Q$179,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>980.54921674933075</v>
       </c>
       <c r="S24" s="1" t="s">
@@ -17650,31 +17650,31 @@
       </c>
       <c r="H25" s="12"/>
       <c r="J25" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Distillery</v>
+      </c>
+      <c r="K25" s="4">
+        <f t="shared" si="0"/>
+        <v>3727.038</v>
+      </c>
+      <c r="L25" s="4">
+        <f t="shared" si="1"/>
+        <v>56.938000000000002</v>
+      </c>
+      <c r="M25" s="4">
         <f t="shared" si="2"/>
-        <v>Distillery</v>
-      </c>
-      <c r="K25" s="4">
-        <f>VLOOKUP($J25,$J$44:$Q$179,2,FALSE)</f>
-        <v>3727.038</v>
-      </c>
-      <c r="L25" s="4">
-        <f>VLOOKUP($J25,$J$44:$Q$179,3,FALSE)</f>
-        <v>56.938000000000002</v>
-      </c>
-      <c r="M25" s="4">
-        <f>VLOOKUP($J25,$J$44:$Q$179,4,FALSE)</f>
         <v>46.587975</v>
       </c>
       <c r="N25" s="3">
-        <f>VLOOKUP($J25,$J$44:$Q$179,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0.81822289156626504</v>
       </c>
       <c r="P25" s="4">
-        <f>VLOOKUP($J25,$J$44:$Q$179,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>37951</v>
       </c>
       <c r="Q25" s="7">
-        <f>VLOOKUP($J25,$J$44:$Q$179,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>814.60934930097312</v>
       </c>
       <c r="S25" s="1" t="s">
@@ -17749,7 +17749,7 @@
       </c>
       <c r="H28" s="12"/>
       <c r="J28" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Fabric Factory</v>
       </c>
       <c r="K28" s="4">
@@ -17846,7 +17846,7 @@
       </c>
       <c r="H31" s="12"/>
       <c r="J31" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Clothing Factory</v>
       </c>
       <c r="K31" s="4">
@@ -17924,7 +17924,7 @@
       </c>
       <c r="H33" s="13"/>
       <c r="J33" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>Prefab Factory</v>
       </c>
       <c r="K33" s="4">
@@ -18142,7 +18142,7 @@
         <v>16</v>
       </c>
       <c r="T42" s="4">
-        <f t="shared" ref="T42:T70" si="3">T10-$T$5</f>
+        <f t="shared" ref="T42:T70" si="9">T10-$T$5</f>
         <v>24.7</v>
       </c>
       <c r="U42" s="4">
@@ -18178,7 +18178,7 @@
         <v>17</v>
       </c>
       <c r="T43" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>6.6999999999999993</v>
       </c>
       <c r="U43" s="4">
@@ -18244,11 +18244,11 @@
         <v>18</v>
       </c>
       <c r="T44" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>24.5</v>
       </c>
       <c r="U44" s="4">
-        <f t="shared" ref="U44:U70" si="4">U12+$T$6</f>
+        <f t="shared" ref="U44:U70" si="10">U12+$T$6</f>
         <v>34.299999999999997</v>
       </c>
     </row>
@@ -18257,11 +18257,11 @@
         <v>19</v>
       </c>
       <c r="T45" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2243</v>
       </c>
       <c r="U45" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2486</v>
       </c>
     </row>
@@ -18297,11 +18297,11 @@
         <v>20</v>
       </c>
       <c r="T46" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>57</v>
       </c>
       <c r="U46" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>70</v>
       </c>
     </row>
@@ -18319,11 +18319,11 @@
         <v>21</v>
       </c>
       <c r="T47" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>64</v>
       </c>
       <c r="U47" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>78</v>
       </c>
     </row>
@@ -18355,11 +18355,11 @@
         <v>22</v>
       </c>
       <c r="T48" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="U48" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>35</v>
       </c>
     </row>
@@ -18421,11 +18421,11 @@
         <v>23</v>
       </c>
       <c r="T49" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>77</v>
       </c>
       <c r="U49" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>92</v>
       </c>
     </row>
@@ -18434,11 +18434,11 @@
         <v>24</v>
       </c>
       <c r="T50" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3414</v>
       </c>
       <c r="U50" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>3781</v>
       </c>
     </row>
@@ -18474,11 +18474,11 @@
         <v>25</v>
       </c>
       <c r="T51" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>111</v>
       </c>
       <c r="U51" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>130</v>
       </c>
     </row>
@@ -18493,11 +18493,11 @@
         <v>26</v>
       </c>
       <c r="T52" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="U52" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
     </row>
@@ -18529,11 +18529,11 @@
         <v>27</v>
       </c>
       <c r="T53" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>163</v>
       </c>
       <c r="U53" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>187</v>
       </c>
     </row>
@@ -18595,11 +18595,11 @@
         <v>28</v>
       </c>
       <c r="T54" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="U54" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>38</v>
       </c>
     </row>
@@ -18608,11 +18608,11 @@
         <v>29</v>
       </c>
       <c r="T55" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>154</v>
       </c>
       <c r="U55" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>840</v>
       </c>
     </row>
@@ -18648,11 +18648,11 @@
         <v>30</v>
       </c>
       <c r="T56" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>81</v>
       </c>
       <c r="U56" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>97</v>
       </c>
     </row>
@@ -18667,11 +18667,11 @@
         <v>31</v>
       </c>
       <c r="T57" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>434</v>
       </c>
       <c r="U57" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>487</v>
       </c>
     </row>
@@ -18703,11 +18703,11 @@
         <v>32</v>
       </c>
       <c r="T58" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>998</v>
       </c>
       <c r="U58" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1111</v>
       </c>
     </row>
@@ -18769,11 +18769,11 @@
         <v>33</v>
       </c>
       <c r="T59" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>980</v>
       </c>
       <c r="U59" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1091</v>
       </c>
     </row>
@@ -18782,11 +18782,11 @@
         <v>34</v>
       </c>
       <c r="T60" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>81</v>
       </c>
       <c r="U60" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>97</v>
       </c>
     </row>
@@ -18822,11 +18822,11 @@
         <v>35</v>
       </c>
       <c r="T61" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>350</v>
       </c>
       <c r="U61" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>394</v>
       </c>
     </row>
@@ -18844,11 +18844,11 @@
         <v>36</v>
       </c>
       <c r="T62" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13851</v>
       </c>
       <c r="U62" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>15316</v>
       </c>
     </row>
@@ -18880,11 +18880,11 @@
         <v>37</v>
       </c>
       <c r="T63" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>662</v>
       </c>
       <c r="U63" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>779</v>
       </c>
     </row>
@@ -18946,11 +18946,11 @@
         <v>38</v>
       </c>
       <c r="T64" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>618</v>
       </c>
       <c r="U64" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>690</v>
       </c>
     </row>
@@ -18959,11 +18959,11 @@
         <v>39</v>
       </c>
       <c r="T65" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>72</v>
       </c>
       <c r="U65" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>86</v>
       </c>
     </row>
@@ -18999,11 +18999,11 @@
         <v>40</v>
       </c>
       <c r="T66" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="U66" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
     </row>
@@ -19027,11 +19027,11 @@
         <v>41</v>
       </c>
       <c r="T67" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2778</v>
       </c>
       <c r="U67" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>3077</v>
       </c>
     </row>
@@ -19063,11 +19063,11 @@
         <v>42</v>
       </c>
       <c r="T68" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3427</v>
       </c>
       <c r="U68" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>3795</v>
       </c>
     </row>
@@ -19129,11 +19129,11 @@
         <v>43</v>
       </c>
       <c r="T69" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1321</v>
       </c>
       <c r="U69" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1467</v>
       </c>
       <c r="V69" s="5"/>
@@ -19143,11 +19143,11 @@
         <v>44</v>
       </c>
       <c r="T70" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3152</v>
       </c>
       <c r="U70" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>3492</v>
       </c>
       <c r="V70" s="5"/>
@@ -20807,11 +20807,11 @@
         <v>1297.3631999999998</v>
       </c>
       <c r="D139" s="6">
-        <f t="shared" ref="D139" si="5">D138*D136</f>
+        <f t="shared" ref="D139" si="11">D138*D136</f>
         <v>0</v>
       </c>
       <c r="E139" s="6">
-        <f t="shared" ref="E139" si="6">E138*E136</f>
+        <f t="shared" ref="E139" si="12">E138*E136</f>
         <v>0</v>
       </c>
       <c r="F139" s="1"/>
